--- a/data/sample_bs.xlsx
+++ b/data/sample_bs.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AACC11-DF28-E642-96F8-6D3BB644AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA780A-B2D5-234C-B3D2-8EE1A05C86B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
+    <workbookView xWindow="31960" yWindow="2220" windowWidth="27640" windowHeight="15680" activeTab="1" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
   </bookViews>
   <sheets>
     <sheet name="bs" sheetId="1" r:id="rId1"/>
     <sheet name="constraints" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Product</t>
   </si>
@@ -97,9 +97,6 @@
     <t>s_rwa</t>
   </si>
   <si>
-    <t>gsib</t>
-  </si>
-  <si>
     <t>business_loan_revolver</t>
   </si>
   <si>
@@ -152,6 +149,45 @@
   </si>
   <si>
     <t>commercial_loan_revolver</t>
+  </si>
+  <si>
+    <t>CET1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>total_capital</t>
+  </si>
+  <si>
+    <t>TLAC</t>
+  </si>
+  <si>
+    <t>SRWA</t>
+  </si>
+  <si>
+    <t>ARWA</t>
+  </si>
+  <si>
+    <t>prefs</t>
+  </si>
+  <si>
+    <t>sub_debt</t>
+  </si>
+  <si>
+    <t>senior_debt</t>
+  </si>
+  <si>
+    <t>CET1_resource</t>
+  </si>
+  <si>
+    <t>T1_resource</t>
+  </si>
+  <si>
+    <t>total_capital_resource</t>
+  </si>
+  <si>
+    <t>TLAC_resource</t>
   </si>
 </sst>
 </file>
@@ -159,16 +195,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;\-"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,12 +234,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,32 +252,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,20 +588,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859C2AE-61FB-4947-9EF3-3D4562E34A75}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -605,16 +634,21 @@
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -622,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="6">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E2" s="7">
-        <v>-3000</v>
+        <v>-5000</v>
       </c>
       <c r="F2" s="7">
         <v>80</v>
@@ -636,20 +670,29 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.2</v>
       </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -658,13 +701,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" s="7">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="F3" s="7">
         <v>150</v>
@@ -672,35 +715,44 @@
       <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.6</v>
       </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A27" si="0">A3+1</f>
+        <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D4" s="7">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="7">
-        <v>-10000</v>
+        <v>-15000</v>
       </c>
       <c r="F4" s="7">
         <v>70</v>
@@ -708,20 +760,29 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>0.3</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>0.5</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -744,20 +805,29 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0.3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>0.5</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7"/>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -780,20 +850,29 @@
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>0.3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>0.5</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -816,20 +895,29 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0.3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>0.5</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -852,20 +940,29 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>0.3</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>0.5</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="7"/>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -874,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="D9" s="7">
         <v>20000</v>
@@ -888,20 +985,29 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -924,26 +1030,35 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0.95</v>
       </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>20000</v>
@@ -960,32 +1075,41 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.75</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>1.2</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="D12" s="7">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="7">
         <v>-8500</v>
@@ -996,26 +1120,35 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>0.7</v>
       </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>40000</v>
@@ -1032,32 +1165,41 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.65</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="7"/>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="D14" s="7">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E14" s="7">
         <v>-15000</v>
@@ -1068,20 +1210,29 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0.6</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="7"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1104,26 +1255,35 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.4</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="7"/>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8">
         <v>60000</v>
@@ -1140,26 +1300,35 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>0.5</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.6</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="7"/>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8">
         <v>75000</v>
@@ -1176,20 +1345,29 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>0.35</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.5</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="7"/>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1212,20 +1390,29 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>0.5</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.7</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="7"/>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1248,26 +1435,35 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>0.05</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="7"/>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
         <v>175000</v>
@@ -1284,26 +1480,35 @@
       <c r="G20" s="8">
         <v>-1</v>
       </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="7"/>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>60000</v>
@@ -1320,26 +1525,35 @@
       <c r="G21" s="8">
         <v>-1</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="8">
         <v>100000</v>
@@ -1356,26 +1570,35 @@
       <c r="G22" s="8">
         <v>-1</v>
       </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8">
         <v>20000</v>
@@ -1392,26 +1615,35 @@
       <c r="G23" s="8">
         <v>-1</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8">
         <v>90500</v>
@@ -1428,26 +1660,35 @@
       <c r="G24" s="8">
         <v>-1</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="7"/>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="8">
         <v>42000</v>
@@ -1464,26 +1705,35 @@
       <c r="G25" s="8">
         <v>-1</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="7"/>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8">
         <v>53000</v>
@@ -1500,26 +1750,35 @@
       <c r="G26" s="8">
         <v>-1</v>
       </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="7"/>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8">
         <v>52500</v>
@@ -1528,7 +1787,7 @@
         <v>100000</v>
       </c>
       <c r="E27" s="8">
-        <v>-55000</v>
+        <v>-52500</v>
       </c>
       <c r="F27" s="8">
         <v>-1000</v>
@@ -1536,103 +1795,180 @@
       <c r="G27" s="8">
         <v>-1</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="7"/>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D28" s="8">
+        <v>13000</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-7000</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-650</v>
+      </c>
+      <c r="G28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8">
-        <f>SUM(C2:C19)</f>
-        <v>593000</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="7"/>
+        <v>11000</v>
+      </c>
+      <c r="D29" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-9500</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-200</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>1</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8">
-        <f>SUM(C20:C27)</f>
-        <v>593000</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="7"/>
+        <v>43000</v>
+      </c>
+      <c r="D30" s="8">
+        <v>60000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-40000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>-120</v>
+      </c>
+      <c r="G30" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="8">
-        <f>C29-C30</f>
-        <v>0</v>
-      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1642,12 +1978,13 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1659,10 +1996,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
@@ -1675,10 +2012,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
@@ -1691,49 +2028,179 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8">
+        <f>SUM(C2:C19)</f>
+        <v>655000</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
+      <c r="J36" s="10"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8">
+        <f>SUM(C20:C30)</f>
+        <v>655000</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
+      <c r="J37" s="10"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="8">
+        <f>C36-C37</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J39" s="10"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J40" s="10"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J41" s="10"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J42" s="10"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J43" s="10"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J44" s="10"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C29:C30" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06FEFEE-149B-214C-ABE9-E743635185BD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.11</v>
+      </c>
+      <c r="C2">
+        <f>B2+ 0.015</f>
+        <v>0.125</v>
+      </c>
+      <c r="D2">
+        <f>C2+0.02</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E2">
+        <f>D2+0.08</f>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.11</v>
+      </c>
+      <c r="C3">
+        <f>B3+ 0.015</f>
+        <v>0.125</v>
+      </c>
+      <c r="D3">
+        <f>C3+0.02</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E3">
+        <f>D3+0.08</f>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/sample_bs.xlsx
+++ b/data/sample_bs.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA780A-B2D5-234C-B3D2-8EE1A05C86B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7E814-BEB3-1442-AB8A-62618BCF78FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="2220" windowWidth="27640" windowHeight="15680" activeTab="1" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
   </bookViews>
   <sheets>
     <sheet name="bs" sheetId="1" r:id="rId1"/>
     <sheet name="constraints" sheetId="2" r:id="rId2"/>
+    <sheet name="gsib" sheetId="3" r:id="rId3"/>
+    <sheet name="gsib_calibration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Product</t>
   </si>
@@ -124,18 +126,6 @@
     <t>fixed_income</t>
   </si>
   <si>
-    <t>business_op_deposit</t>
-  </si>
-  <si>
-    <t>business_nonop_deposit</t>
-  </si>
-  <si>
-    <t>commercial_op_deposits</t>
-  </si>
-  <si>
-    <t>commercial_nonop_deposit</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -188,16 +178,107 @@
   </si>
   <si>
     <t>TLAC_resource</t>
+  </si>
+  <si>
+    <t>gsib_leverage</t>
+  </si>
+  <si>
+    <t>gsib_xjd_claim</t>
+  </si>
+  <si>
+    <t>gsib_xjd_liab</t>
+  </si>
+  <si>
+    <t>gsib_intrafin_claim</t>
+  </si>
+  <si>
+    <t>gsib_intrafin_liab</t>
+  </si>
+  <si>
+    <t>gsib_securities</t>
+  </si>
+  <si>
+    <t>gsib_payment</t>
+  </si>
+  <si>
+    <t>gsib_auc</t>
+  </si>
+  <si>
+    <t>gsib_underwriting</t>
+  </si>
+  <si>
+    <t>gsib_otc</t>
+  </si>
+  <si>
+    <t>gsib_trading</t>
+  </si>
+  <si>
+    <t>gsib_level3</t>
+  </si>
+  <si>
+    <t>business_op_deposit_corp</t>
+  </si>
+  <si>
+    <t>business_op_deposit_fin</t>
+  </si>
+  <si>
+    <t>business_nonop_deposit_corp</t>
+  </si>
+  <si>
+    <t>business_nonop_deposit_fin</t>
+  </si>
+  <si>
+    <t>commercial_op_deposits_dom_corp</t>
+  </si>
+  <si>
+    <t>commercial_op_deposits_dom_fin</t>
+  </si>
+  <si>
+    <t>commercial_op_deposits_intl_corp</t>
+  </si>
+  <si>
+    <t>commercial_op_deposits_intl_fin</t>
+  </si>
+  <si>
+    <t>commercial_nonop_deposits_dom_corp</t>
+  </si>
+  <si>
+    <t>commercial_nonop_deposits_dom_fin</t>
+  </si>
+  <si>
+    <t>commercial_nonop_deposits_intl_corp</t>
+  </si>
+  <si>
+    <t>commercial_nonop_deposits_intl_fin</t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>b1_leverage</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
+    <numFmt numFmtId="166" formatCode="0%;\-0%;\-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +315,30 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,8 +377,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,27 +705,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859C2AE-61FB-4947-9EF3-3D4562E34A75}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -629,26 +747,64 @@
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -671,28 +827,64 @@
         <v>1</v>
       </c>
       <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
         <v>0.2</v>
       </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16">
+        <v>0</v>
+      </c>
+      <c r="N2" s="16">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16">
+        <v>0</v>
+      </c>
+      <c r="S2" s="16">
+        <v>0</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0</v>
+      </c>
+      <c r="U2" s="16">
+        <v>0</v>
+      </c>
+      <c r="V2" s="16">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -716,30 +908,66 @@
         <v>1</v>
       </c>
       <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>0.6</v>
       </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A30" si="0">A3+1</f>
+        <f t="shared" ref="A4:A39" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -761,28 +989,64 @@
         <v>1</v>
       </c>
       <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
         <v>0.3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>0.5</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -806,28 +1070,64 @@
         <v>1</v>
       </c>
       <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
         <v>0.3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>0.5</v>
       </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -851,28 +1151,64 @@
         <v>1</v>
       </c>
       <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
         <v>0.3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>0.5</v>
       </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -896,28 +1232,64 @@
         <v>1</v>
       </c>
       <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
         <v>0.3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>0.5</v>
       </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -941,28 +1313,64 @@
         <v>1</v>
       </c>
       <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
         <v>0.3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>0.5</v>
       </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -986,28 +1394,64 @@
         <v>1</v>
       </c>
       <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1031,28 +1475,64 @@
         <v>1</v>
       </c>
       <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <v>0.95</v>
       </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1076,28 +1556,64 @@
         <v>1</v>
       </c>
       <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <v>0.75</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>1.2</v>
       </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1121,34 +1637,70 @@
         <v>1</v>
       </c>
       <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <v>0.7</v>
       </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>40000</v>
@@ -1166,34 +1718,70 @@
         <v>1</v>
       </c>
       <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
         <v>0.65</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>100000</v>
@@ -1211,28 +1799,64 @@
         <v>1</v>
       </c>
       <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
         <v>0.6</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1255,29 +1879,65 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
         <v>0.4</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="U15" s="16">
+        <v>2</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1300,29 +1960,65 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
         <v>0.5</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <v>0.6</v>
       </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="U16" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1345,29 +2041,65 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
         <v>0.35</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <v>0.5</v>
       </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K17" s="14">
+        <v>1</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U17" s="16">
+        <v>4</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1390,137 +2122,245 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
         <v>0.5</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <v>0.7</v>
       </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>5</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D19" s="8">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E19" s="8">
-        <v>-250</v>
+        <v>-300</v>
       </c>
       <c r="F19" s="8">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="10">
-        <v>0.05</v>
+      <c r="H19" s="9">
+        <v>1</v>
       </c>
       <c r="I19" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>12</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
-        <v>175000</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="8">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="E20" s="8">
-        <v>-40000</v>
+        <v>-250</v>
       </c>
       <c r="F20" s="8">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G20" s="8">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
       </c>
       <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8">
+        <v>175000</v>
+      </c>
+      <c r="D21" s="8">
         <v>60000</v>
       </c>
-      <c r="D21" s="8">
-        <v>25000</v>
-      </c>
       <c r="E21" s="8">
-        <v>-10000</v>
+        <v>-40000</v>
       </c>
       <c r="F21" s="8">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G21" s="8">
         <v>-1</v>
@@ -1531,41 +2371,77 @@
       <c r="I21" s="10">
         <v>0</v>
       </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="D22" s="8">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="8">
-        <v>-15000</v>
+        <v>-10000</v>
       </c>
       <c r="F22" s="8">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G22" s="8">
         <v>-1</v>
@@ -1576,41 +2452,77 @@
       <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="D23" s="8">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E23" s="8">
-        <v>-3000</v>
+        <v>-15000</v>
       </c>
       <c r="F23" s="8">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="G23" s="8">
         <v>-1</v>
@@ -1621,41 +2533,77 @@
       <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C24" s="8">
-        <v>90500</v>
+        <v>20000</v>
       </c>
       <c r="D24" s="8">
-        <v>35000</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="8">
-        <v>-10000</v>
+        <v>-5000</v>
       </c>
       <c r="F24" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G24" s="8">
         <v>-1</v>
@@ -1666,41 +2614,77 @@
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="D25" s="8">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E25" s="8">
-        <v>-4000</v>
+        <v>-3000</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G25" s="8">
         <v>-1</v>
@@ -1711,41 +2695,77 @@
       <c r="I25" s="10">
         <v>0</v>
       </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8">
-        <v>53000</v>
+        <v>5000</v>
       </c>
       <c r="D26" s="8">
-        <v>1000000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="8">
-        <v>-50000</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="8">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G26" s="8">
         <v>-1</v>
@@ -1756,41 +2776,77 @@
       <c r="I26" s="10">
         <v>0</v>
       </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C27" s="8">
-        <v>52500</v>
+        <v>40000</v>
       </c>
       <c r="D27" s="8">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="E27" s="8">
-        <v>-52500</v>
+        <v>-10000</v>
       </c>
       <c r="F27" s="8">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="G27" s="8">
         <v>-1</v>
@@ -1801,41 +2857,77 @@
       <c r="I27" s="10">
         <v>0</v>
       </c>
-      <c r="J27" s="13">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="13">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="8">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="D28" s="8">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="E28" s="8">
-        <v>-7000</v>
+        <v>-8000</v>
       </c>
       <c r="F28" s="8">
-        <v>-650</v>
+        <v>75</v>
       </c>
       <c r="G28" s="8">
         <v>-1</v>
@@ -1846,41 +2938,77 @@
       <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <v>1</v>
-      </c>
-      <c r="L28" s="13">
-        <v>1</v>
-      </c>
-      <c r="M28" s="13">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="D29" s="8">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E29" s="8">
-        <v>-9500</v>
+        <v>-5000</v>
       </c>
       <c r="F29" s="8">
-        <v>-200</v>
+        <v>95</v>
       </c>
       <c r="G29" s="8">
         <v>-1</v>
@@ -1891,41 +3019,77 @@
       <c r="I29" s="10">
         <v>0</v>
       </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13">
-        <v>1</v>
-      </c>
-      <c r="M29" s="13">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="8">
-        <v>43000</v>
+        <v>8500</v>
       </c>
       <c r="D30" s="8">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="E30" s="8">
-        <v>-40000</v>
+        <v>-2000</v>
       </c>
       <c r="F30" s="8">
-        <v>-120</v>
+        <v>70</v>
       </c>
       <c r="G30" s="8">
         <v>-1</v>
@@ -1936,197 +3100,969 @@
       <c r="I30" s="10">
         <v>0</v>
       </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>1</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D31" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-4000</v>
+      </c>
+      <c r="F31" s="8">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8">
+        <v>12000</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="8">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="8">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="8">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>10</v>
+      </c>
+      <c r="G33" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>1</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>1</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
+        <v>1</v>
+      </c>
+      <c r="P34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8">
+        <v>53000</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-50000</v>
+      </c>
+      <c r="F35" s="8">
+        <v>-20</v>
+      </c>
+      <c r="G35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8">
-        <f>SUM(C2:C19)</f>
+        <v>52500</v>
+      </c>
+      <c r="D36" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E36" s="8">
+        <v>-52500</v>
+      </c>
+      <c r="F36" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="G36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="16">
+        <v>0</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>1</v>
+      </c>
+      <c r="X36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D37" s="8">
+        <v>13000</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-7000</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-650</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>0</v>
+      </c>
+      <c r="R37" s="16">
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
+        <v>0</v>
+      </c>
+      <c r="T37" s="16">
+        <v>0</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="8">
+        <v>11000</v>
+      </c>
+      <c r="D38" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E38" s="8">
+        <v>-9500</v>
+      </c>
+      <c r="F38" s="8">
+        <v>-200</v>
+      </c>
+      <c r="G38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>0</v>
+      </c>
+      <c r="R38" s="16">
+        <v>0</v>
+      </c>
+      <c r="S38" s="16">
+        <v>0</v>
+      </c>
+      <c r="T38" s="16">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8">
+        <v>43000</v>
+      </c>
+      <c r="D39" s="8">
+        <v>60000</v>
+      </c>
+      <c r="E39" s="8">
+        <v>-40000</v>
+      </c>
+      <c r="F39" s="8">
+        <v>-120</v>
+      </c>
+      <c r="G39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>0</v>
+      </c>
+      <c r="R39" s="16">
+        <v>0</v>
+      </c>
+      <c r="S39" s="16">
+        <v>0</v>
+      </c>
+      <c r="T39" s="16">
+        <v>0</v>
+      </c>
+      <c r="U39" s="16">
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
+        <v>0</v>
+      </c>
+      <c r="W39" s="8">
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="8">
+        <f>SUM(C2:C20)</f>
+        <v>665000</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="10"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8">
+        <f>SUM(C21:C39)</f>
         <v>655000</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="10"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8">
-        <f>SUM(C20:C30)</f>
-        <v>655000</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="10"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="10"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="8">
-        <f>C36-C37</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J39" s="10"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J40" s="10"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J41" s="10"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J42" s="10"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J43" s="10"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J44" s="10"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M52" s="8"/>
+      <c r="C47" s="8">
+        <f>C45-C46</f>
+        <v>10000</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K48" s="10"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K49" s="10"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K50" s="10"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K51" s="10"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K52" s="10"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K53" s="10"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,10 +4071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06FEFEE-149B-214C-ABE9-E743635185BD}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2148,21 +4084,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.11</v>
@@ -2182,7 +4118,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.11</v>
@@ -2198,6 +4134,2239 @@
       <c r="E3">
         <f>D3+0.08</f>
         <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C0FE4-0129-D249-9D4A-10F8B4AEA427}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDF4E-E344-294A-82E8-B37F6FD91CDB}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <f>bs!K2*bs!$C2</f>
+        <v>15000</v>
+      </c>
+      <c r="B2" s="17">
+        <f>bs!L2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <f>bs!M2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <f>bs!N2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <f>bs!O2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <f>bs!P2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <f>bs!Q2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <f>bs!R2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <f>bs!S2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <f>bs!T2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <f>bs!U2*bs!$C2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <f>bs!V2*bs!$C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <f>bs!K3*bs!$C3</f>
+        <v>4000</v>
+      </c>
+      <c r="B3" s="17">
+        <f>bs!L3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <f>bs!M3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <f>bs!N3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <f>bs!O3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>bs!P3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <f>bs!Q3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>bs!R3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <f>bs!S3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <f>bs!T3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <f>bs!U3*bs!$C3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <f>bs!V3*bs!$C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <f>bs!K4*bs!$C4</f>
+        <v>50000</v>
+      </c>
+      <c r="B4" s="17">
+        <f>bs!L4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <f>bs!M4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <f>bs!N4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <f>bs!O4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <f>bs!P4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <f>bs!Q4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <f>bs!R4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <f>bs!S4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <f>bs!T4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <f>bs!U4*bs!$C4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f>bs!V4*bs!$C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <f>bs!K5*bs!$C5</f>
+        <v>15000</v>
+      </c>
+      <c r="B5" s="17">
+        <f>bs!L5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <f>bs!M5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <f>bs!N5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <f>bs!O5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <f>bs!P5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <f>bs!Q5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f>bs!R5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f>bs!S5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <f>bs!T5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <f>bs!U5*bs!$C5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <f>bs!V5*bs!$C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <f>bs!K6*bs!$C6</f>
+        <v>5000</v>
+      </c>
+      <c r="B6" s="17">
+        <f>bs!L6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <f>bs!M6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f>bs!N6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <f>bs!O6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <f>bs!P6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <f>bs!Q6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>bs!R6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f>bs!S6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <f>bs!T6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>bs!U6*bs!$C6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <f>bs!V6*bs!$C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <f>bs!K7*bs!$C7</f>
+        <v>20000</v>
+      </c>
+      <c r="B7" s="17">
+        <f>bs!L7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <f>bs!M7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <f>bs!N7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <f>bs!O7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <f>bs!P7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <f>bs!Q7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f>bs!R7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f>bs!S7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <f>bs!T7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <f>bs!U7*bs!$C7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <f>bs!V7*bs!$C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <f>bs!K8*bs!$C8</f>
+        <v>10000</v>
+      </c>
+      <c r="B8" s="17">
+        <f>bs!L8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <f>bs!M8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <f>bs!N8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <f>bs!O8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <f>bs!P8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <f>bs!Q8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <f>bs!R8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f>bs!S8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <f>bs!T8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <f>bs!U8*bs!$C8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <f>bs!V8*bs!$C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <f>bs!K9*bs!$C9</f>
+        <v>60000</v>
+      </c>
+      <c r="B9" s="17">
+        <f>bs!L9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <f>bs!M9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <f>bs!N9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <f>bs!O9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f>bs!P9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <f>bs!Q9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f>bs!R9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f>bs!S9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f>bs!T9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <f>bs!U9*bs!$C9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f>bs!V9*bs!$C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <f>bs!K10*bs!$C10</f>
+        <v>15000</v>
+      </c>
+      <c r="B10" s="17">
+        <f>bs!L10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <f>bs!M10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <f>bs!N10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <f>bs!O10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f>bs!P10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <f>bs!Q10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f>bs!R10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f>bs!S10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f>bs!T10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>bs!U10*bs!$C10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <f>bs!V10*bs!$C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <f>bs!K11*bs!$C11</f>
+        <v>20000</v>
+      </c>
+      <c r="B11" s="17">
+        <f>bs!L11*bs!$C11</f>
+        <v>2000</v>
+      </c>
+      <c r="C11" s="17">
+        <f>bs!M11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <f>bs!N11*bs!$C11</f>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="E11" s="17">
+        <f>bs!O11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>bs!P11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f>bs!Q11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f>bs!R11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>bs!S11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f>bs!T11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>bs!U11*bs!$C11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <f>bs!V11*bs!$C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <f>bs!K12*bs!$C12</f>
+        <v>55000</v>
+      </c>
+      <c r="B12" s="17">
+        <f>bs!L12*bs!$C12</f>
+        <v>8250</v>
+      </c>
+      <c r="C12" s="17">
+        <f>bs!M12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>bs!N12*bs!$C12</f>
+        <v>6600</v>
+      </c>
+      <c r="E12" s="17">
+        <f>bs!O12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f>bs!P12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <f>bs!Q12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f>bs!R12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f>bs!S12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f>bs!T12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>bs!U12*bs!$C12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <f>bs!V12*bs!$C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <f>bs!K13*bs!$C13</f>
+        <v>40000</v>
+      </c>
+      <c r="B13" s="17">
+        <f>bs!L13*bs!$C13</f>
+        <v>8000</v>
+      </c>
+      <c r="C13" s="17">
+        <f>bs!M13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f>bs!N13*bs!$C13</f>
+        <v>6000</v>
+      </c>
+      <c r="E13" s="17">
+        <f>bs!O13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f>bs!P13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <f>bs!Q13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f>bs!R13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f>bs!S13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f>bs!T13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>bs!U13*bs!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>bs!V13*bs!$C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <f>bs!K14*bs!$C14</f>
+        <v>100000</v>
+      </c>
+      <c r="B14" s="17">
+        <f>bs!L14*bs!$C14</f>
+        <v>25000</v>
+      </c>
+      <c r="C14" s="17">
+        <f>bs!M14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <f>bs!N14*bs!$C14</f>
+        <v>22000</v>
+      </c>
+      <c r="E14" s="17">
+        <f>bs!O14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>bs!P14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <f>bs!Q14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <f>bs!R14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f>bs!S14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f>bs!T14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>bs!U14*bs!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>bs!V14*bs!$C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <f>bs!K15*bs!$C15</f>
+        <v>80000</v>
+      </c>
+      <c r="B15" s="17">
+        <f>bs!L15*bs!$C15</f>
+        <v>8000</v>
+      </c>
+      <c r="C15" s="17">
+        <f>bs!M15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>bs!N15*bs!$C15</f>
+        <v>9600</v>
+      </c>
+      <c r="E15" s="17">
+        <f>bs!O15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>bs!P15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <f>bs!Q15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f>bs!R15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f>bs!S15*bs!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f>bs!T15*bs!$C15</f>
+        <v>96000</v>
+      </c>
+      <c r="K15" s="17">
+        <f>bs!U15*bs!$C15</f>
+        <v>160000</v>
+      </c>
+      <c r="L15" s="17">
+        <f>bs!V15*bs!$C15</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <f>bs!K16*bs!$C16</f>
+        <v>60000</v>
+      </c>
+      <c r="B16" s="17">
+        <f>bs!L16*bs!$C16</f>
+        <v>9000</v>
+      </c>
+      <c r="C16" s="17">
+        <f>bs!M16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f>bs!N16*bs!$C16</f>
+        <v>8400</v>
+      </c>
+      <c r="E16" s="17">
+        <f>bs!O16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>bs!P16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f>bs!Q16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f>bs!R16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>bs!S16*bs!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f>bs!T16*bs!$C16</f>
+        <v>90000</v>
+      </c>
+      <c r="K16" s="17">
+        <f>bs!U16*bs!$C16</f>
+        <v>105000</v>
+      </c>
+      <c r="L16" s="17">
+        <f>bs!V16*bs!$C16</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <f>bs!K17*bs!$C17</f>
+        <v>75000</v>
+      </c>
+      <c r="B17" s="17">
+        <f>bs!L17*bs!$C17</f>
+        <v>11250</v>
+      </c>
+      <c r="C17" s="17">
+        <f>bs!M17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <f>bs!N17*bs!$C17</f>
+        <v>13500</v>
+      </c>
+      <c r="E17" s="17">
+        <f>bs!O17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>bs!P17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>bs!Q17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>bs!R17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>bs!S17*bs!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f>bs!T17*bs!$C17</f>
+        <v>165000</v>
+      </c>
+      <c r="K17" s="17">
+        <f>bs!U17*bs!$C17</f>
+        <v>300000</v>
+      </c>
+      <c r="L17" s="17">
+        <f>bs!V17*bs!$C17</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <f>bs!K18*bs!$C18</f>
+        <v>30000</v>
+      </c>
+      <c r="B18" s="17">
+        <f>bs!L18*bs!$C18</f>
+        <v>6000</v>
+      </c>
+      <c r="C18" s="17">
+        <f>bs!M18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f>bs!N18*bs!$C18</f>
+        <v>6600</v>
+      </c>
+      <c r="E18" s="17">
+        <f>bs!O18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f>bs!P18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f>bs!Q18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>bs!R18*bs!$C18</f>
+        <v>150000</v>
+      </c>
+      <c r="I18" s="17">
+        <f>bs!S18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f>bs!T18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>bs!U18*bs!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>bs!V18*bs!$C18</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <f>bs!K19*bs!$C19</f>
+        <v>10000</v>
+      </c>
+      <c r="B19" s="17">
+        <f>bs!L19*bs!$C19</f>
+        <v>1500</v>
+      </c>
+      <c r="C19" s="17">
+        <f>bs!M19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <f>bs!N19*bs!$C19</f>
+        <v>1000</v>
+      </c>
+      <c r="E19" s="17">
+        <f>bs!O19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f>bs!P19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f>bs!Q19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f>bs!R19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f>bs!S19*bs!$C19</f>
+        <v>120000</v>
+      </c>
+      <c r="J19" s="17">
+        <f>bs!T19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f>bs!U19*bs!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <f>bs!V19*bs!$C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <f>bs!K20*bs!$C20</f>
+        <v>1000</v>
+      </c>
+      <c r="B20" s="17">
+        <f>bs!L20*bs!$C20</f>
+        <v>100</v>
+      </c>
+      <c r="C20" s="17">
+        <f>bs!M20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <f>bs!N20*bs!$C20</f>
+        <v>50</v>
+      </c>
+      <c r="E20" s="17">
+        <f>bs!O20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f>bs!P20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <f>bs!Q20*bs!$C20</f>
+        <v>1000</v>
+      </c>
+      <c r="H20" s="17">
+        <f>bs!R20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <f>bs!S20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f>bs!T20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>bs!U20*bs!$C20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <f>bs!V20*bs!$C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <f>bs!K21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="17">
+        <f>bs!L21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <f>bs!M21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <f>bs!N21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <f>bs!O21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f>bs!P21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f>bs!Q21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>bs!R21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <f>bs!S21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f>bs!T21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f>bs!U21*bs!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <f>bs!V21*bs!$C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <f>bs!K22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="17">
+        <f>bs!L22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <f>bs!M22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <f>bs!N22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f>bs!O22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>bs!P22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <f>bs!Q22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <f>bs!R22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <f>bs!S22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f>bs!T22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <f>bs!U22*bs!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <f>bs!V22*bs!$C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <f>bs!K23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="17">
+        <f>bs!L23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <f>bs!M23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <f>bs!N23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f>bs!O23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <f>bs!P23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <f>bs!Q23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <f>bs!R23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <f>bs!S23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f>bs!T23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <f>bs!U23*bs!$C23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <f>bs!V23*bs!$C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <f>bs!K24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="17">
+        <f>bs!L24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <f>bs!M24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <f>bs!N24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <f>bs!O24*bs!$C24</f>
+        <v>20000</v>
+      </c>
+      <c r="F24" s="17">
+        <f>bs!P24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f>bs!Q24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <f>bs!R24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <f>bs!S24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f>bs!T24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <f>bs!U24*bs!$C24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <f>bs!V24*bs!$C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <f>bs!K25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="17">
+        <f>bs!L25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <f>bs!M25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <f>bs!N25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <f>bs!O25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <f>bs!P25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <f>bs!Q25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f>bs!R25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <f>bs!S25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f>bs!T25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <f>bs!U25*bs!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <f>bs!V25*bs!$C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <f>bs!K26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="17">
+        <f>bs!L26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <f>bs!M26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <f>bs!N26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <f>bs!O26*bs!$C26</f>
+        <v>5000</v>
+      </c>
+      <c r="F26" s="17">
+        <f>bs!P26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <f>bs!Q26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <f>bs!R26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <f>bs!S26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f>bs!T26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <f>bs!U26*bs!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <f>bs!V26*bs!$C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <f>bs!K27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="17">
+        <f>bs!L27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <f>bs!M27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f>bs!N27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f>bs!O27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f>bs!P27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <f>bs!Q27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <f>bs!R27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <f>bs!S27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f>bs!T27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <f>bs!U27*bs!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <f>bs!V27*bs!$C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <f>bs!K28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="17">
+        <f>bs!L28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <f>bs!M28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <f>bs!N28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f>bs!O28*bs!$C28</f>
+        <v>25000</v>
+      </c>
+      <c r="F28" s="17">
+        <f>bs!P28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f>bs!Q28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <f>bs!R28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <f>bs!S28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f>bs!T28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <f>bs!U28*bs!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <f>bs!V28*bs!$C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <f>bs!K29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="17">
+        <f>bs!L29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <f>bs!M29*bs!$C29</f>
+        <v>17000</v>
+      </c>
+      <c r="D29" s="17">
+        <f>bs!N29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <f>bs!O29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <f>bs!P29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <f>bs!Q29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <f>bs!R29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <f>bs!S29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f>bs!T29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <f>bs!U29*bs!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <f>bs!V29*bs!$C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <f>bs!K30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="17">
+        <f>bs!L30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <f>bs!M30*bs!$C30</f>
+        <v>8500</v>
+      </c>
+      <c r="D30" s="17">
+        <f>bs!N30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f>bs!O30*bs!$C30</f>
+        <v>8500</v>
+      </c>
+      <c r="F30" s="17">
+        <f>bs!P30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <f>bs!Q30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <f>bs!R30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <f>bs!S30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <f>bs!T30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <f>bs!U30*bs!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <f>bs!V30*bs!$C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <f>bs!K31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="17">
+        <f>bs!L31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <f>bs!M31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <f>bs!N31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <f>bs!O31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f>bs!P31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <f>bs!Q31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <f>bs!R31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <f>bs!S31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f>bs!T31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="17">
+        <f>bs!U31*bs!$C31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <f>bs!V31*bs!$C31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <f>bs!K32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="17">
+        <f>bs!L32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <f>bs!M32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <f>bs!N32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <f>bs!O32*bs!$C32</f>
+        <v>12000</v>
+      </c>
+      <c r="F32" s="17">
+        <f>bs!P32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <f>bs!Q32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <f>bs!R32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <f>bs!S32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f>bs!T32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <f>bs!U32*bs!$C32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
+        <f>bs!V32*bs!$C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <f>bs!K33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="17">
+        <f>bs!L33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <f>bs!M33*bs!$C33</f>
+        <v>7000</v>
+      </c>
+      <c r="D33" s="17">
+        <f>bs!N33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <f>bs!O33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <f>bs!P33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <f>bs!Q33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="17">
+        <f>bs!R33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <f>bs!S33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <f>bs!T33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
+        <f>bs!U33*bs!$C33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <f>bs!V33*bs!$C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <f>bs!K34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="17">
+        <f>bs!L34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <f>bs!M34*bs!$C34</f>
+        <v>3000</v>
+      </c>
+      <c r="D34" s="17">
+        <f>bs!N34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <f>bs!O34*bs!$C34</f>
+        <v>3000</v>
+      </c>
+      <c r="F34" s="17">
+        <f>bs!P34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <f>bs!Q34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <f>bs!R34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <f>bs!S34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <f>bs!T34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <f>bs!U34*bs!$C34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
+        <f>bs!V34*bs!$C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <f>bs!K35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="17">
+        <f>bs!L35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
+        <f>bs!M35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <f>bs!N35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <f>bs!O35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f>bs!P35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f>bs!Q35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <f>bs!R35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <f>bs!S35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f>bs!T35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <f>bs!U35*bs!$C35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <f>bs!V35*bs!$C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <f>bs!K36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="17">
+        <f>bs!L36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="17">
+        <f>bs!M36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="17">
+        <f>bs!N36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <f>bs!O36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <f>bs!P36*bs!$C36</f>
+        <v>52500</v>
+      </c>
+      <c r="G36" s="17">
+        <f>bs!Q36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <f>bs!R36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <f>bs!S36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <f>bs!T36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
+        <f>bs!U36*bs!$C36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <f>bs!V36*bs!$C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <f>bs!K37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="17">
+        <f>bs!L37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="17">
+        <f>bs!M37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="17">
+        <f>bs!N37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <f>bs!O37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <f>bs!P37*bs!$C37</f>
+        <v>8000</v>
+      </c>
+      <c r="G37" s="17">
+        <f>bs!Q37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <f>bs!R37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <f>bs!S37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <f>bs!T37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
+        <f>bs!U37*bs!$C37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
+        <f>bs!V37*bs!$C37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <f>bs!K38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="17">
+        <f>bs!L38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="17">
+        <f>bs!M38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="17">
+        <f>bs!N38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <f>bs!O38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <f>bs!P38*bs!$C38</f>
+        <v>11000</v>
+      </c>
+      <c r="G38" s="17">
+        <f>bs!Q38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <f>bs!R38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <f>bs!S38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <f>bs!T38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <f>bs!U38*bs!$C38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <f>bs!V38*bs!$C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <f>bs!K39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="17">
+        <f>bs!L39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="17">
+        <f>bs!M39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="17">
+        <f>bs!N39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <f>bs!O39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <f>bs!P39*bs!$C39</f>
+        <v>43000</v>
+      </c>
+      <c r="G39" s="17">
+        <f>bs!Q39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <f>bs!R39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <f>bs!S39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <f>bs!T39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <f>bs!U39*bs!$C39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <f>bs!V39*bs!$C39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <f>SUM(A2:A39)</f>
+        <v>665000</v>
+      </c>
+      <c r="B40" s="17">
+        <f>SUM(B2:B39)</f>
+        <v>79100</v>
+      </c>
+      <c r="C40" s="17">
+        <f>SUM(C2:C39)</f>
+        <v>35500</v>
+      </c>
+      <c r="D40" s="17">
+        <f>SUM(D2:D39)</f>
+        <v>75150</v>
+      </c>
+      <c r="E40" s="17">
+        <f>SUM(E2:E39)</f>
+        <v>73500</v>
+      </c>
+      <c r="F40" s="17">
+        <f>SUM(F2:F39)</f>
+        <v>114500</v>
+      </c>
+      <c r="G40" s="17">
+        <f>SUM(G2:G39)</f>
+        <v>1000</v>
+      </c>
+      <c r="H40" s="17">
+        <f>SUM(H2:H39)</f>
+        <v>150000</v>
+      </c>
+      <c r="I40" s="17">
+        <f>SUM(I2:I39)</f>
+        <v>120000</v>
+      </c>
+      <c r="J40" s="17">
+        <f>SUM(J2:J39)</f>
+        <v>351000</v>
+      </c>
+      <c r="K40" s="17">
+        <f>SUM(K2:K39)</f>
+        <v>565000</v>
+      </c>
+      <c r="L40" s="17">
+        <f>SUM(L2:L39)</f>
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <f>A40*A44</f>
+        <v>133</v>
+      </c>
+      <c r="B42" s="18">
+        <f>B40*B44</f>
+        <v>39.550000000000004</v>
+      </c>
+      <c r="C42" s="18">
+        <f>C40*C44</f>
+        <v>17.75</v>
+      </c>
+      <c r="D42" s="18">
+        <f>D40*D44</f>
+        <v>37.575000000000003</v>
+      </c>
+      <c r="E42" s="18">
+        <f>E40*E44</f>
+        <v>36.75</v>
+      </c>
+      <c r="F42" s="18">
+        <f>F40*F44</f>
+        <v>34.349999999999994</v>
+      </c>
+      <c r="G42" s="18">
+        <f>G40*G44</f>
+        <v>11</v>
+      </c>
+      <c r="H42" s="18">
+        <f>H40*H44</f>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="I42" s="18">
+        <f>I40*I44</f>
+        <v>36</v>
+      </c>
+      <c r="J42" s="18">
+        <f>J40*J44</f>
+        <v>70.2</v>
+      </c>
+      <c r="K42" s="18">
+        <f>K40*K44</f>
+        <v>113</v>
+      </c>
+      <c r="L42" s="18">
+        <f>L40*L44</f>
+        <v>48.3</v>
+      </c>
+      <c r="N42" s="18">
+        <f>SUM(A42:L42)</f>
+        <v>622.47499999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F44">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H44">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I44">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L44">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample_bs.xlsx
+++ b/data/sample_bs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F38DA5-F3B8-8E44-AD58-A4470DDDB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1F082A-1291-D34F-B05D-169A0E126F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
   </bookViews>
   <sheets>
     <sheet name="bs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>Product</t>
   </si>
@@ -320,17 +320,24 @@
   <si>
     <t>synthetic_arwa_asset</t>
   </si>
+  <si>
+    <t>cet1_contr_per_balance</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
     <numFmt numFmtId="166" formatCode="0%;\-0%;\-"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="0.0000%"/>
     <numFmt numFmtId="172" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -422,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,6 +467,7 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,10 +786,10 @@
   <dimension ref="A1:DP322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,9 +800,10 @@
     <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -856,7 +865,7 @@
         <v>56</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>58</v>
@@ -915,8 +924,11 @@
       <c r="AN1" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="AO1" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1051,8 +1063,12 @@
         <f>AM2*constraints!$B$5</f>
         <v>1.4447967251274234E-4</v>
       </c>
+      <c r="AO2" s="29">
+        <f>IFERROR(AN2/C2,0)</f>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -1188,10 +1204,14 @@
         <f>AM3*constraints!$B$5</f>
         <v>3.8527912670064624E-5</v>
       </c>
+      <c r="AO3" s="29">
+        <f t="shared" ref="AO3:AO41" si="1">IFERROR(AN3/C3,0)</f>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A41" si="1">A3+1</f>
+        <f t="shared" ref="A4:A41" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1325,10 +1345,14 @@
         <f>AM4*constraints!$B$5</f>
         <v>4.8159890837580775E-4</v>
       </c>
+      <c r="AO4" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1462,10 +1486,14 @@
         <f>AM5*constraints!$B$5</f>
         <v>1.4447967251274234E-4</v>
       </c>
+      <c r="AO5" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1599,10 +1627,14 @@
         <f>AM6*constraints!$B$5</f>
         <v>4.8159890837580777E-5</v>
       </c>
+      <c r="AO6" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1736,10 +1768,14 @@
         <f>AM7*constraints!$B$5</f>
         <v>1.9263956335032311E-4</v>
       </c>
+      <c r="AO7" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1873,10 +1909,14 @@
         <f>AM8*constraints!$B$5</f>
         <v>9.6319781675161553E-5</v>
       </c>
+      <c r="AO8" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2010,10 +2050,14 @@
         <f>AM9*constraints!$B$5</f>
         <v>5.7791869005096935E-4</v>
       </c>
+      <c r="AO9" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2147,10 +2191,14 @@
         <f>AM10*constraints!$B$5</f>
         <v>1.4447967251274234E-4</v>
       </c>
+      <c r="AO10" s="29">
+        <f t="shared" si="1"/>
+        <v>9.6319781675161553E-9</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2284,10 +2332,14 @@
         <f>AM11*constraints!$B$5</f>
         <v>2.7451137777421042E-4</v>
       </c>
+      <c r="AO11" s="29">
+        <f t="shared" si="1"/>
+        <v>1.3725568888710521E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2421,10 +2473,14 @@
         <f>AM12*constraints!$B$5</f>
         <v>8.8734598868242585E-4</v>
       </c>
+      <c r="AO12" s="29">
+        <f t="shared" si="1"/>
+        <v>1.613356343058956E-8</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2558,10 +2614,14 @@
         <f>AM13*constraints!$B$5</f>
         <v>7.2239836256371166E-4</v>
       </c>
+      <c r="AO13" s="29">
+        <f t="shared" si="1"/>
+        <v>1.8059959064092791E-8</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2695,10 +2755,14 @@
         <f>AM14*constraints!$B$5</f>
         <v>2.094955251434764E-3</v>
       </c>
+      <c r="AO14" s="29">
+        <f t="shared" si="1"/>
+        <v>2.094955251434764E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2832,10 +2896,14 @@
         <f>AM15*constraints!$B$5</f>
         <v>4.1224866556969142E-3</v>
       </c>
+      <c r="AO15" s="29">
+        <f t="shared" si="1"/>
+        <v>5.1531083196211427E-8</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2969,10 +3037,14 @@
         <f>AM16*constraints!$B$5</f>
         <v>3.3952723040494449E-3</v>
       </c>
+      <c r="AO16" s="29">
+        <f t="shared" si="1"/>
+        <v>5.6587871734157415E-8</v>
+      </c>
     </row>
     <row r="17" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3106,10 +3178,14 @@
         <f>AM17*constraints!$B$5</f>
         <v>7.0975639121884666E-3</v>
       </c>
+      <c r="AO17" s="29">
+        <f t="shared" si="1"/>
+        <v>9.4634185495846227E-8</v>
+      </c>
     </row>
     <row r="18" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3243,10 +3319,14 @@
         <f>AM18*constraints!$B$5</f>
         <v>2.802905646747201E-3</v>
       </c>
+      <c r="AO18" s="29">
+        <f t="shared" si="1"/>
+        <v>9.3430188224906693E-8</v>
+      </c>
     </row>
     <row r="19" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3380,10 +3460,14 @@
         <f>AM19*constraints!$B$5</f>
         <v>1.8902757153750455E-3</v>
       </c>
+      <c r="AO19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.8902757153750455E-7</v>
+      </c>
     </row>
     <row r="20" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3517,10 +3601,14 @@
         <f>AM20*constraints!$B$5</f>
         <v>5.4300276919372326E-4</v>
       </c>
+      <c r="AO20" s="29">
+        <f t="shared" si="1"/>
+        <v>5.4300276919372323E-7</v>
+      </c>
     </row>
     <row r="21" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3647,17 +3735,21 @@
         <v>0</v>
       </c>
       <c r="AM21" s="22">
-        <f t="shared" ref="AM21" si="2">SUM(AA21:AL21)</f>
+        <f t="shared" ref="AM21" si="3">SUM(AA21:AL21)</f>
         <v>0</v>
       </c>
       <c r="AN21" s="25">
         <f>AM21*constraints!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3789,12 +3881,16 @@
       </c>
       <c r="AN22" s="25">
         <f>AM22*constraints!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3926,12 +4022,16 @@
       </c>
       <c r="AN23" s="25">
         <f>AM23*constraints!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4063,12 +4163,16 @@
       </c>
       <c r="AN24" s="25">
         <f>AM24*constraints!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4202,8 +4306,10 @@
         <f>AM25*constraints!$B$5</f>
         <v>4.8159890837580775E-4</v>
       </c>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
+      <c r="AO25" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790387E-8</v>
+      </c>
       <c r="AQ25" s="23"/>
       <c r="AR25" s="23"/>
       <c r="AS25" s="23"/>
@@ -4285,7 +4391,7 @@
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4419,8 +4525,10 @@
         <f>AM26*constraints!$B$5</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
+      <c r="AO26" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AQ26" s="23"/>
       <c r="AR26" s="23"/>
       <c r="AS26" s="23"/>
@@ -4502,7 +4610,7 @@
     </row>
     <row r="27" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4636,8 +4744,10 @@
         <f>AM27*constraints!$B$5</f>
         <v>1.2039972709395194E-4</v>
       </c>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
+      <c r="AO27" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790387E-8</v>
+      </c>
       <c r="AQ27" s="23"/>
       <c r="AR27" s="23"/>
       <c r="AS27" s="23"/>
@@ -4719,7 +4829,7 @@
     </row>
     <row r="28" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4853,8 +4963,10 @@
         <f>AM28*constraints!$B$5</f>
         <v>0</v>
       </c>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
+      <c r="AO28" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AQ28" s="23"/>
       <c r="AR28" s="23"/>
       <c r="AS28" s="23"/>
@@ -4936,7 +5048,7 @@
     </row>
     <row r="29" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5070,8 +5182,10 @@
         <f>AM29*constraints!$B$5</f>
         <v>6.0199863546975968E-4</v>
       </c>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
+      <c r="AO29" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790387E-8</v>
+      </c>
       <c r="AQ29" s="23"/>
       <c r="AR29" s="23"/>
       <c r="AS29" s="23"/>
@@ -5153,7 +5267,7 @@
     </row>
     <row r="30" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5287,8 +5401,10 @@
         <f>AM30*constraints!$B$5</f>
         <v>4.093590721194366E-4</v>
       </c>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="23"/>
+      <c r="AO30" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790387E-8</v>
+      </c>
       <c r="AQ30" s="23"/>
       <c r="AR30" s="23"/>
       <c r="AS30" s="23"/>
@@ -5370,7 +5486,7 @@
     </row>
     <row r="31" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -5504,8 +5620,10 @@
         <f>AM31*constraints!$B$5</f>
         <v>4.093590721194366E-4</v>
       </c>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="23"/>
+      <c r="AO31" s="29">
+        <f t="shared" si="1"/>
+        <v>4.8159890837580775E-8</v>
+      </c>
       <c r="AQ31" s="23"/>
       <c r="AR31" s="23"/>
       <c r="AS31" s="23"/>
@@ -5587,7 +5705,7 @@
     </row>
     <row r="32" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5721,8 +5839,10 @@
         <f>AM32*constraints!$B$5</f>
         <v>0</v>
       </c>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="23"/>
+      <c r="AO32" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AQ32" s="23"/>
       <c r="AR32" s="23"/>
       <c r="AS32" s="23"/>
@@ -5804,7 +5924,7 @@
     </row>
     <row r="33" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5938,8 +6058,10 @@
         <f>AM33*constraints!$B$5</f>
         <v>2.8895934502548467E-4</v>
       </c>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
+      <c r="AO33" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790391E-8</v>
+      </c>
       <c r="AQ33" s="23"/>
       <c r="AR33" s="23"/>
       <c r="AS33" s="23"/>
@@ -6021,7 +6143,7 @@
     </row>
     <row r="34" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -6155,8 +6277,10 @@
         <f>AM34*constraints!$B$5</f>
         <v>1.6855961793153272E-4</v>
       </c>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
+      <c r="AO34" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4079945418790387E-8</v>
+      </c>
       <c r="AQ34" s="23"/>
       <c r="AR34" s="23"/>
       <c r="AS34" s="23"/>
@@ -6238,7 +6362,7 @@
     </row>
     <row r="35" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6372,8 +6496,10 @@
         <f>AM35*constraints!$B$5</f>
         <v>1.4447967251274234E-4</v>
       </c>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
+      <c r="AO35" s="29">
+        <f t="shared" si="1"/>
+        <v>4.8159890837580781E-8</v>
+      </c>
       <c r="AQ35" s="23"/>
       <c r="AR35" s="23"/>
       <c r="AS35" s="23"/>
@@ -6455,7 +6581,7 @@
     </row>
     <row r="36" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -6589,8 +6715,10 @@
         <f>AM36*constraints!$B$5</f>
         <v>0</v>
       </c>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
+      <c r="AO36" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AQ36" s="23"/>
       <c r="AR36" s="23"/>
       <c r="AS36" s="23"/>
@@ -6672,7 +6800,7 @@
     </row>
     <row r="37" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -6683,11 +6811,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="D37:E37" si="3">D21</f>
+        <f t="shared" ref="D37:E37" si="4">D21</f>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F37" s="8">
@@ -6802,15 +6930,17 @@
         <v>0</v>
       </c>
       <c r="AM37" s="22">
-        <f t="shared" ref="AM37" si="4">SUM(AA37:AL37)</f>
+        <f t="shared" ref="AM37" si="5">SUM(AA37:AL37)</f>
         <v>0</v>
       </c>
       <c r="AN37" s="25">
         <f>AM37*constraints!$B$5</f>
         <v>0</v>
       </c>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
+      <c r="AO37" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AQ37" s="23"/>
       <c r="AR37" s="23"/>
       <c r="AS37" s="23"/>
@@ -6892,7 +7022,7 @@
     </row>
     <row r="38" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -7026,8 +7156,10 @@
         <f>AM38*constraints!$B$5</f>
         <v>7.8019023156880856E-4</v>
       </c>
-      <c r="AO38" s="23"/>
-      <c r="AP38" s="23"/>
+      <c r="AO38" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4447967251274232E-8</v>
+      </c>
       <c r="AQ38" s="23"/>
       <c r="AR38" s="23"/>
       <c r="AS38" s="23"/>
@@ -7109,7 +7241,7 @@
     </row>
     <row r="39" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -7243,8 +7375,10 @@
         <f>AM39*constraints!$B$5</f>
         <v>1.1558373801019386E-4</v>
       </c>
-      <c r="AO39" s="23"/>
-      <c r="AP39" s="23"/>
+      <c r="AO39" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4447967251274232E-8</v>
+      </c>
       <c r="AQ39" s="23"/>
       <c r="AR39" s="23"/>
       <c r="AS39" s="23"/>
@@ -7326,7 +7460,7 @@
     </row>
     <row r="40" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -7460,8 +7594,10 @@
         <f>AM40*constraints!$B$5</f>
         <v>1.5892763976401656E-4</v>
       </c>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
+      <c r="AO40" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4447967251274234E-8</v>
+      </c>
       <c r="AQ40" s="23"/>
       <c r="AR40" s="23"/>
       <c r="AS40" s="23"/>
@@ -7543,7 +7679,7 @@
     </row>
     <row r="41" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -7677,8 +7813,10 @@
         <f>AM41*constraints!$B$5</f>
         <v>6.2126259180479194E-4</v>
       </c>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
+      <c r="AO41" s="29">
+        <f t="shared" si="1"/>
+        <v>1.444796725127423E-8</v>
+      </c>
       <c r="AQ41" s="23"/>
       <c r="AR41" s="23"/>
       <c r="AS41" s="23"/>
@@ -7797,13 +7935,15 @@
       <c r="AJ42" s="23"/>
       <c r="AK42" s="23"/>
       <c r="AL42" s="23"/>
-      <c r="AM42" s="23"/>
+      <c r="AM42" s="22">
+        <f>SUM(AM2:AM41)</f>
+        <v>622.92499999999984</v>
+      </c>
       <c r="AN42" s="28">
         <f>SUM(AN2:AN41)</f>
         <v>3.0000000000000006E-2</v>
       </c>
-      <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
+      <c r="AP42" s="28"/>
       <c r="AQ42" s="23"/>
       <c r="AR42" s="23"/>
       <c r="AS42" s="23"/>
@@ -7922,10 +8062,6 @@
       <c r="AJ43" s="23"/>
       <c r="AK43" s="23"/>
       <c r="AL43" s="23"/>
-      <c r="AM43" s="22">
-        <f>SUM(AM2:AM41)</f>
-        <v>622.92499999999984</v>
-      </c>
       <c r="AN43" s="23"/>
       <c r="AO43" s="23"/>
       <c r="AP43" s="23"/>
@@ -8014,7 +8150,10 @@
       <c r="C44" s="8"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <f>-SUMPRODUCT(F2:F41,C2:C41)/10000</f>
+        <v>-10545.75</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="12"/>
       <c r="I44" s="5">
@@ -8183,7 +8322,7 @@
       <c r="AK45" s="23"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="26">
-        <f>AM44/AM43</f>
+        <f>AM44/AM42</f>
         <v>4.8159890837580777E-5</v>
       </c>
       <c r="AN45" s="23"/>
@@ -41810,7 +41949,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/sample_bs.xlsx
+++ b/data/sample_bs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1F082A-1291-D34F-B05D-169A0E126F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E049DE-63A8-4A43-AB52-5B58B01D3F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
   </bookViews>
   <sheets>
     <sheet name="bs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Product</t>
   </si>
@@ -326,18 +326,70 @@
   <si>
     <t>`</t>
   </si>
+  <si>
+    <t>Optimal_balance</t>
+  </si>
+  <si>
+    <t>GSIB surcharge</t>
+  </si>
+  <si>
+    <t>S_CET1</t>
+  </si>
+  <si>
+    <t>S_T1</t>
+  </si>
+  <si>
+    <t>S_TC</t>
+  </si>
+  <si>
+    <t>S_TLAC</t>
+  </si>
+  <si>
+    <t>A_CET1</t>
+  </si>
+  <si>
+    <t>A_T1</t>
+  </si>
+  <si>
+    <t>A_TC</t>
+  </si>
+  <si>
+    <t>A_TLAC</t>
+  </si>
+  <si>
+    <t>L_CET1</t>
+  </si>
+  <si>
+    <t>Lev_T1</t>
+  </si>
+  <si>
+    <t>Resource stack</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Prefs</t>
+  </si>
+  <si>
+    <t>Sub Debt</t>
+  </si>
+  <si>
+    <t>Senior Debt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="0%;\-0%;\-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0%;\-0%;\-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -429,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,9 +500,9 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,11 +515,15 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +842,10 @@
   <dimension ref="A1:DP322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AT31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="AX52" sqref="AX52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,9 +857,11 @@
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
+    <col min="45" max="45" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -927,8 +985,44 @@
       <c r="AO1" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="AR1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1067,8 +1161,61 @@
         <f>IFERROR(AN2/C2,0)</f>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP2" s="23">
+        <f>AO2*C2</f>
+        <v>1.4447967251274234E-4</v>
+      </c>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="22">
+        <v>10000.000003090319</v>
+      </c>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="33">
+        <f>AO2*AR2</f>
+        <v>9.6319781704927443E-5</v>
+      </c>
+      <c r="AU2" s="31">
+        <f>$J2*$AR2*$AT$47</f>
+        <v>1160.2203616561137</v>
+      </c>
+      <c r="AV2" s="31">
+        <f>$J2*$AR2*$AT$48</f>
+        <v>1310.2203617024684</v>
+      </c>
+      <c r="AW2" s="31">
+        <f>$J2*$AR2*$AT$49</f>
+        <v>1510.2203617642747</v>
+      </c>
+      <c r="AX2" s="31">
+        <f>$J2*$AR2*$AT$50</f>
+        <v>2310.2203620115006</v>
+      </c>
+      <c r="AY2" s="31">
+        <f>$I2*$AR2*$AT$47</f>
+        <v>232.04407233122274</v>
+      </c>
+      <c r="AZ2" s="31">
+        <f>$I2*$AR2*$AT$48</f>
+        <v>262.0440723404937</v>
+      </c>
+      <c r="BA2" s="31">
+        <f>$I2*$AR2*$AT$49</f>
+        <v>302.04407235285498</v>
+      </c>
+      <c r="BB2" s="31">
+        <f>$I2*$AR2*$AT$50</f>
+        <v>462.04407240230012</v>
+      </c>
+      <c r="BC2" s="31">
+        <f>$H2*$AR2*constraints!$B$4</f>
+        <v>750.00000023177392</v>
+      </c>
+      <c r="BD2" s="31">
+        <f>$H2*$AR2*constraints!$C$4</f>
+        <v>950.00000029358034</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -1208,10 +1355,63 @@
         <f t="shared" ref="AO3:AO41" si="1">IFERROR(AN3/C3,0)</f>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP3" s="23">
+        <f t="shared" ref="AP3:AP41" si="2">AO3*C3</f>
+        <v>3.8527912670064624E-5</v>
+      </c>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="22">
+        <v>5999.9999993099746</v>
+      </c>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="33">
+        <f t="shared" ref="AT3:AT41" si="3">AO3*AR3</f>
+        <v>5.7791868998450621E-5</v>
+      </c>
+      <c r="AU3" s="31">
+        <f>$J3*$AR3*$AT$47</f>
+        <v>696.13221669848292</v>
+      </c>
+      <c r="AV3" s="31">
+        <f>$J3*$AR3*$AT$48</f>
+        <v>786.13221668813253</v>
+      </c>
+      <c r="AW3" s="31">
+        <f>$J3*$AR3*$AT$49</f>
+        <v>906.13221667433197</v>
+      </c>
+      <c r="AX3" s="31">
+        <f>$J3*$AR3*$AT$50</f>
+        <v>1386.1322166191301</v>
+      </c>
+      <c r="AY3" s="31">
+        <f>$I3*$AR3*$AT$47</f>
+        <v>556.90577335878629</v>
+      </c>
+      <c r="AZ3" s="31">
+        <f>$I3*$AR3*$AT$48</f>
+        <v>628.90577335050602</v>
+      </c>
+      <c r="BA3" s="31">
+        <f>$I3*$AR3*$AT$49</f>
+        <v>724.90577333946555</v>
+      </c>
+      <c r="BB3" s="31">
+        <f>$I3*$AR3*$AT$50</f>
+        <v>1108.905773295304</v>
+      </c>
+      <c r="BC3" s="31">
+        <f>$H3*$AR3*constraints!$B$4</f>
+        <v>449.9999999482481</v>
+      </c>
+      <c r="BD3" s="31">
+        <f>$H3*$AR3*constraints!$C$4</f>
+        <v>569.9999999344476</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A41" si="2">A3+1</f>
+        <f t="shared" ref="A4:A41" si="4">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1349,10 +1549,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP4" s="23">
+        <f t="shared" si="2"/>
+        <v>4.8159890837580775E-4</v>
+      </c>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="22">
+        <v>79999.999992432131</v>
+      </c>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="33">
+        <f t="shared" si="3"/>
+        <v>7.7055825332839891E-4</v>
+      </c>
+      <c r="AU4" s="31">
+        <f>$J4*$AR4*$AT$47</f>
+        <v>4640.8814447512541</v>
+      </c>
+      <c r="AV4" s="31">
+        <f>$J4*$AR4*$AT$48</f>
+        <v>5240.8814446944953</v>
+      </c>
+      <c r="AW4" s="31">
+        <f>$J4*$AR4*$AT$49</f>
+        <v>6040.8814446188162</v>
+      </c>
+      <c r="AX4" s="31">
+        <f>$J4*$AR4*$AT$50</f>
+        <v>9240.8814443161027</v>
+      </c>
+      <c r="AY4" s="31">
+        <f>$I4*$AR4*$AT$47</f>
+        <v>2784.5288668507528</v>
+      </c>
+      <c r="AZ4" s="31">
+        <f>$I4*$AR4*$AT$48</f>
+        <v>3144.5288668166972</v>
+      </c>
+      <c r="BA4" s="31">
+        <f>$I4*$AR4*$AT$49</f>
+        <v>3624.5288667712898</v>
+      </c>
+      <c r="BB4" s="31">
+        <f>$I4*$AR4*$AT$50</f>
+        <v>5544.5288665896614</v>
+      </c>
+      <c r="BC4" s="31">
+        <f>$H4*$AR4*constraints!$B$4</f>
+        <v>5999.9999994324098</v>
+      </c>
+      <c r="BD4" s="31">
+        <f>$H4*$AR4*constraints!$C$4</f>
+        <v>7599.9999992810526</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1490,10 +1743,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP5" s="23">
+        <f t="shared" si="2"/>
+        <v>1.4447967251274234E-4</v>
+      </c>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="22">
+        <v>22999.999995972019</v>
+      </c>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2153549781407414E-4</v>
+      </c>
+      <c r="AU5" s="31">
+        <f>$J5*$AR5*$AT$47</f>
+        <v>1334.2534152585365</v>
+      </c>
+      <c r="AV5" s="31">
+        <f>$J5*$AR5*$AT$48</f>
+        <v>1506.7534152283267</v>
+      </c>
+      <c r="AW5" s="31">
+        <f>$J5*$AR5*$AT$49</f>
+        <v>1736.7534151880468</v>
+      </c>
+      <c r="AX5" s="31">
+        <f>$J5*$AR5*$AT$50</f>
+        <v>2656.7534150269275</v>
+      </c>
+      <c r="AY5" s="31">
+        <f>$I5*$AR5*$AT$47</f>
+        <v>800.55204915512184</v>
+      </c>
+      <c r="AZ5" s="31">
+        <f>$I5*$AR5*$AT$48</f>
+        <v>904.05204913699595</v>
+      </c>
+      <c r="BA5" s="31">
+        <f>$I5*$AR5*$AT$49</f>
+        <v>1042.0520491128279</v>
+      </c>
+      <c r="BB5" s="31">
+        <f>$I5*$AR5*$AT$50</f>
+        <v>1594.0520490161566</v>
+      </c>
+      <c r="BC5" s="31">
+        <f>$H5*$AR5*constraints!$B$4</f>
+        <v>1724.9999996979013</v>
+      </c>
+      <c r="BD5" s="31">
+        <f>$H5*$AR5*constraints!$C$4</f>
+        <v>2184.9999996173419</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1631,10 +1937,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP6" s="23">
+        <f t="shared" si="2"/>
+        <v>4.8159890837580777E-5</v>
+      </c>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="22">
+        <v>7499.9999952946664</v>
+      </c>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="33">
+        <f t="shared" si="3"/>
+        <v>7.2239836211049498E-5</v>
+      </c>
+      <c r="AU6" s="31">
+        <f>$J6*$AR6*$AT$47</f>
+        <v>435.08263521362699</v>
+      </c>
+      <c r="AV6" s="31">
+        <f>$J6*$AR6*$AT$48</f>
+        <v>491.332635178337</v>
+      </c>
+      <c r="AW6" s="31">
+        <f>$J6*$AR6*$AT$49</f>
+        <v>566.33263513128361</v>
+      </c>
+      <c r="AX6" s="31">
+        <f>$J6*$AR6*$AT$50</f>
+        <v>866.33263494307039</v>
+      </c>
+      <c r="AY6" s="31">
+        <f>$I6*$AR6*$AT$47</f>
+        <v>261.04958112817616</v>
+      </c>
+      <c r="AZ6" s="31">
+        <f>$I6*$AR6*$AT$48</f>
+        <v>294.79958110700215</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>$I6*$AR6*$AT$49</f>
+        <v>339.79958107877013</v>
+      </c>
+      <c r="BB6" s="31">
+        <f>$I6*$AR6*$AT$50</f>
+        <v>519.7995809658421</v>
+      </c>
+      <c r="BC6" s="31">
+        <f>$H6*$AR6*constraints!$B$4</f>
+        <v>562.49999964709991</v>
+      </c>
+      <c r="BD6" s="31">
+        <f>$H6*$AR6*constraints!$C$4</f>
+        <v>712.49999955299336</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1772,10 +2131,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP7" s="23">
+        <f t="shared" si="2"/>
+        <v>1.9263956335032311E-4</v>
+      </c>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="22">
+        <v>29999.999993983249</v>
+      </c>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8895934496753147E-4</v>
+      </c>
+      <c r="AU7" s="31">
+        <f>$J7*$AR7*$AT$47</f>
+        <v>1740.330541597315</v>
+      </c>
+      <c r="AV7" s="31">
+        <f>$J7*$AR7*$AT$48</f>
+        <v>1965.3305415521893</v>
+      </c>
+      <c r="AW7" s="31">
+        <f>$J7*$AR7*$AT$49</f>
+        <v>2265.3305414920214</v>
+      </c>
+      <c r="AX7" s="31">
+        <f>$J7*$AR7*$AT$50</f>
+        <v>3465.3305412513519</v>
+      </c>
+      <c r="AY7" s="31">
+        <f>$I7*$AR7*$AT$47</f>
+        <v>1044.1983249583891</v>
+      </c>
+      <c r="AZ7" s="31">
+        <f>$I7*$AR7*$AT$48</f>
+        <v>1179.1983249313137</v>
+      </c>
+      <c r="BA7" s="31">
+        <f>$I7*$AR7*$AT$49</f>
+        <v>1359.1983248952131</v>
+      </c>
+      <c r="BB7" s="31">
+        <f>$I7*$AR7*$AT$50</f>
+        <v>2079.198324750811</v>
+      </c>
+      <c r="BC7" s="31">
+        <f>$H7*$AR7*constraints!$B$4</f>
+        <v>2249.9999995487437</v>
+      </c>
+      <c r="BD7" s="31">
+        <f>$H7*$AR7*constraints!$C$4</f>
+        <v>2849.9999994284085</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1913,10 +2325,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP8" s="23">
+        <f t="shared" si="2"/>
+        <v>9.6319781675161553E-5</v>
+      </c>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="22">
+        <v>13499.9999949756</v>
+      </c>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3003170521307318E-4</v>
+      </c>
+      <c r="AU8" s="31">
+        <f>$J8*$AR8*$AT$47</f>
+        <v>783.14874358438817</v>
+      </c>
+      <c r="AV8" s="31">
+        <f>$J8*$AR8*$AT$48</f>
+        <v>884.39874354670519</v>
+      </c>
+      <c r="AW8" s="31">
+        <f>$J8*$AR8*$AT$49</f>
+        <v>1019.3987434964612</v>
+      </c>
+      <c r="AX8" s="31">
+        <f>$J8*$AR8*$AT$50</f>
+        <v>1559.3987432954852</v>
+      </c>
+      <c r="AY8" s="31">
+        <f>$I8*$AR8*$AT$47</f>
+        <v>469.88924615063291</v>
+      </c>
+      <c r="AZ8" s="31">
+        <f>$I8*$AR8*$AT$48</f>
+        <v>530.63924612802305</v>
+      </c>
+      <c r="BA8" s="31">
+        <f>$I8*$AR8*$AT$49</f>
+        <v>611.63924609787671</v>
+      </c>
+      <c r="BB8" s="31">
+        <f>$I8*$AR8*$AT$50</f>
+        <v>935.63924597729113</v>
+      </c>
+      <c r="BC8" s="31">
+        <f>$H8*$AR8*constraints!$B$4</f>
+        <v>1012.49999962317</v>
+      </c>
+      <c r="BD8" s="31">
+        <f>$H8*$AR8*constraints!$C$4</f>
+        <v>1282.4999995226819</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2054,10 +2519,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP9" s="23">
+        <f t="shared" si="2"/>
+        <v>5.7791869005096935E-4</v>
+      </c>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="22">
+        <v>79999.999999831722</v>
+      </c>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="33">
+        <f t="shared" si="3"/>
+        <v>7.7055825339967154E-4</v>
+      </c>
+      <c r="AU9" s="31">
+        <f>$J9*$AR9*$AT$47</f>
+        <v>9281.7628903610239</v>
+      </c>
+      <c r="AV9" s="31">
+        <f>$J9*$AR9*$AT$48</f>
+        <v>10481.762890358499</v>
+      </c>
+      <c r="AW9" s="31">
+        <f>$J9*$AR9*$AT$49</f>
+        <v>12081.762890355134</v>
+      </c>
+      <c r="AX9" s="31">
+        <f>$J9*$AR9*$AT$50</f>
+        <v>18481.762890341673</v>
+      </c>
+      <c r="AY9" s="31">
+        <f>$I9*$AR9*$AT$47</f>
+        <v>11138.115468433229</v>
+      </c>
+      <c r="AZ9" s="31">
+        <f>$I9*$AR9*$AT$48</f>
+        <v>12578.1154684302</v>
+      </c>
+      <c r="BA9" s="31">
+        <f>$I9*$AR9*$AT$49</f>
+        <v>14498.11546842616</v>
+      </c>
+      <c r="BB9" s="31">
+        <f>$I9*$AR9*$AT$50</f>
+        <v>22178.115468410007</v>
+      </c>
+      <c r="BC9" s="31">
+        <f>$H9*$AR9*constraints!$B$4</f>
+        <v>5999.9999999873789</v>
+      </c>
+      <c r="BD9" s="31">
+        <f>$H9*$AR9*constraints!$C$4</f>
+        <v>7599.9999999840138</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2195,10 +2713,63 @@
         <f t="shared" si="1"/>
         <v>9.6319781675161553E-9</v>
       </c>
+      <c r="AP10" s="23">
+        <f t="shared" si="2"/>
+        <v>1.4447967251274234E-4</v>
+      </c>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="22">
+        <v>17499.999999750329</v>
+      </c>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="33">
+        <f t="shared" si="3"/>
+        <v>1.6855961792912788E-4</v>
+      </c>
+      <c r="AU10" s="31">
+        <f>$J10*$AR10*$AT$47</f>
+        <v>2030.3856322417776</v>
+      </c>
+      <c r="AV10" s="31">
+        <f>$J10*$AR10*$AT$48</f>
+        <v>2292.8856322380325</v>
+      </c>
+      <c r="AW10" s="31">
+        <f>$J10*$AR10*$AT$49</f>
+        <v>2642.8856322330389</v>
+      </c>
+      <c r="AX10" s="31">
+        <f>$J10*$AR10*$AT$50</f>
+        <v>4042.8856322130655</v>
+      </c>
+      <c r="AY10" s="31">
+        <f>$I10*$AR10*$AT$47</f>
+        <v>1928.8663506296884</v>
+      </c>
+      <c r="AZ10" s="31">
+        <f>$I10*$AR10*$AT$48</f>
+        <v>2178.2413506261305</v>
+      </c>
+      <c r="BA10" s="31">
+        <f>$I10*$AR10*$AT$49</f>
+        <v>2510.7413506213866</v>
+      </c>
+      <c r="BB10" s="31">
+        <f>$I10*$AR10*$AT$50</f>
+        <v>3840.7413506024118</v>
+      </c>
+      <c r="BC10" s="31">
+        <f>$H10*$AR10*constraints!$B$4</f>
+        <v>1312.4999999812746</v>
+      </c>
+      <c r="BD10" s="31">
+        <f>$H10*$AR10*constraints!$C$4</f>
+        <v>1662.4999999762813</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2336,10 +2907,63 @@
         <f t="shared" si="1"/>
         <v>1.3725568888710521E-8</v>
       </c>
+      <c r="AP11" s="23">
+        <f t="shared" si="2"/>
+        <v>2.7451137777421042E-4</v>
+      </c>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="22">
+        <v>32166.77245667743</v>
+      </c>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="33">
+        <f t="shared" si="3"/>
+        <v>4.4150725128160224E-4</v>
+      </c>
+      <c r="AU11" s="31">
+        <f>$J11*$AR11*$AT$47</f>
+        <v>3918.6571579536117</v>
+      </c>
+      <c r="AV11" s="31">
+        <f>$J11*$AR11*$AT$48</f>
+        <v>4425.2838241462814</v>
+      </c>
+      <c r="AW11" s="31">
+        <f>$J11*$AR11*$AT$49</f>
+        <v>5100.7860457365068</v>
+      </c>
+      <c r="AX11" s="31">
+        <f>$J11*$AR11*$AT$50</f>
+        <v>7802.7949320974121</v>
+      </c>
+      <c r="AY11" s="31">
+        <f>$I11*$AR11*$AT$47</f>
+        <v>2799.0408271097226</v>
+      </c>
+      <c r="AZ11" s="31">
+        <f>$I11*$AR11*$AT$48</f>
+        <v>3160.9170172473437</v>
+      </c>
+      <c r="BA11" s="31">
+        <f>$I11*$AR11*$AT$49</f>
+        <v>3643.4186040975046</v>
+      </c>
+      <c r="BB11" s="31">
+        <f>$I11*$AR11*$AT$50</f>
+        <v>5573.4249514981511</v>
+      </c>
+      <c r="BC11" s="31">
+        <f>$H11*$AR11*constraints!$B$4</f>
+        <v>2412.507934250807</v>
+      </c>
+      <c r="BD11" s="31">
+        <f>$H11*$AR11*constraints!$C$4</f>
+        <v>3055.843383384356</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2477,10 +3101,63 @@
         <f t="shared" si="1"/>
         <v>1.613356343058956E-8</v>
       </c>
+      <c r="AP12" s="23">
+        <f t="shared" si="2"/>
+        <v>8.8734598868242575E-4</v>
+      </c>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="22">
+        <v>46500.000010577751</v>
+      </c>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="33">
+        <f t="shared" si="3"/>
+        <v>7.5021069969307135E-4</v>
+      </c>
+      <c r="AU12" s="31">
+        <f>$J12*$AR12*$AT$47</f>
+        <v>5395.0246812609457</v>
+      </c>
+      <c r="AV12" s="31">
+        <f>$J12*$AR12*$AT$48</f>
+        <v>6092.5246814196125</v>
+      </c>
+      <c r="AW12" s="31">
+        <f>$J12*$AR12*$AT$49</f>
+        <v>7022.5246816311665</v>
+      </c>
+      <c r="AX12" s="31">
+        <f>$J12*$AR12*$AT$50</f>
+        <v>10742.524682477388</v>
+      </c>
+      <c r="AY12" s="31">
+        <f>$I12*$AR12*$AT$47</f>
+        <v>3776.5172768826615</v>
+      </c>
+      <c r="AZ12" s="31">
+        <f>$I12*$AR12*$AT$48</f>
+        <v>4264.767276993728</v>
+      </c>
+      <c r="BA12" s="31">
+        <f>$I12*$AR12*$AT$49</f>
+        <v>4915.7672771418165</v>
+      </c>
+      <c r="BB12" s="31">
+        <f>$I12*$AR12*$AT$50</f>
+        <v>7519.7672777341704</v>
+      </c>
+      <c r="BC12" s="31">
+        <f>$H12*$AR12*constraints!$B$4</f>
+        <v>3487.5000007933313</v>
+      </c>
+      <c r="BD12" s="31">
+        <f>$H12*$AR12*constraints!$C$4</f>
+        <v>4417.5000010048861</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2618,10 +3295,63 @@
         <f t="shared" si="1"/>
         <v>1.8059959064092791E-8</v>
       </c>
+      <c r="AP13" s="23">
+        <f t="shared" si="2"/>
+        <v>7.2239836256371166E-4</v>
+      </c>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="22">
+        <v>28000.000003243458</v>
+      </c>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="33">
+        <f t="shared" si="3"/>
+        <v>5.0567885385317487E-4</v>
+      </c>
+      <c r="AU13" s="31">
+        <f>$J13*$AR13*$AT$47</f>
+        <v>3476.0202028501699</v>
+      </c>
+      <c r="AV13" s="31">
+        <f>$J13*$AR13*$AT$48</f>
+        <v>3925.4202029022272</v>
+      </c>
+      <c r="AW13" s="31">
+        <f>$J13*$AR13*$AT$49</f>
+        <v>4524.6202029716369</v>
+      </c>
+      <c r="AX13" s="31">
+        <f>$J13*$AR13*$AT$50</f>
+        <v>6921.4202032492776</v>
+      </c>
+      <c r="AY13" s="31">
+        <f>$I13*$AR13*$AT$47</f>
+        <v>2436.4627590071282</v>
+      </c>
+      <c r="AZ13" s="31">
+        <f>$I13*$AR13*$AT$48</f>
+        <v>2751.4627590436171</v>
+      </c>
+      <c r="BA13" s="31">
+        <f>$I13*$AR13*$AT$49</f>
+        <v>3171.4627590922687</v>
+      </c>
+      <c r="BB13" s="31">
+        <f>$I13*$AR13*$AT$50</f>
+        <v>4851.4627592868765</v>
+      </c>
+      <c r="BC13" s="31">
+        <f>$H13*$AR13*constraints!$B$4</f>
+        <v>2100.0000002432594</v>
+      </c>
+      <c r="BD13" s="31">
+        <f>$H13*$AR13*constraints!$C$4</f>
+        <v>2660.0000003081286</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2759,10 +3489,63 @@
         <f t="shared" si="1"/>
         <v>2.094955251434764E-8</v>
       </c>
+      <c r="AP14" s="23">
+        <f t="shared" si="2"/>
+        <v>2.094955251434764E-3</v>
+      </c>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="22">
+        <v>85000.000002869579</v>
+      </c>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7807119637796658E-3</v>
+      </c>
+      <c r="AU14" s="31">
+        <f>$J14*$AR14*$AT$47</f>
+        <v>9861.8730713622663</v>
+      </c>
+      <c r="AV14" s="31">
+        <f>$J14*$AR14*$AT$48</f>
+        <v>11136.873071405311</v>
+      </c>
+      <c r="AW14" s="31">
+        <f>$J14*$AR14*$AT$49</f>
+        <v>12836.873071462702</v>
+      </c>
+      <c r="AX14" s="31">
+        <f>$J14*$AR14*$AT$50</f>
+        <v>19636.873071692269</v>
+      </c>
+      <c r="AY14" s="31">
+        <f>$I14*$AR14*$AT$47</f>
+        <v>6410.2174963854741</v>
+      </c>
+      <c r="AZ14" s="31">
+        <f>$I14*$AR14*$AT$48</f>
+        <v>7238.967496413452</v>
+      </c>
+      <c r="BA14" s="31">
+        <f>$I14*$AR14*$AT$49</f>
+        <v>8343.9674964507558</v>
+      </c>
+      <c r="BB14" s="31">
+        <f>$I14*$AR14*$AT$50</f>
+        <v>12763.967496599975</v>
+      </c>
+      <c r="BC14" s="31">
+        <f>$H14*$AR14*constraints!$B$4</f>
+        <v>6375.0000002152183</v>
+      </c>
+      <c r="BD14" s="31">
+        <f>$H14*$AR14*constraints!$C$4</f>
+        <v>8075.0000002726101</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2900,10 +3683,63 @@
         <f t="shared" si="1"/>
         <v>5.1531083196211427E-8</v>
       </c>
+      <c r="AP15" s="23">
+        <f t="shared" si="2"/>
+        <v>4.1224866556969142E-3</v>
+      </c>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="22">
+        <v>104999.9999979961</v>
+      </c>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="33">
+        <f t="shared" si="3"/>
+        <v>5.4107637354989368E-3</v>
+      </c>
+      <c r="AU15" s="31">
+        <f>$J15*$AR15*$AT$47</f>
+        <v>6700.272586365586</v>
+      </c>
+      <c r="AV15" s="31">
+        <f>$J15*$AR15*$AT$48</f>
+        <v>7566.5225863490532</v>
+      </c>
+      <c r="AW15" s="31">
+        <f>$J15*$AR15*$AT$49</f>
+        <v>8721.5225863270098</v>
+      </c>
+      <c r="AX15" s="31">
+        <f>$J15*$AR15*$AT$50</f>
+        <v>13341.52258623884</v>
+      </c>
+      <c r="AY15" s="31">
+        <f>$I15*$AR15*$AT$47</f>
+        <v>4872.9255173567899</v>
+      </c>
+      <c r="AZ15" s="31">
+        <f>$I15*$AR15*$AT$48</f>
+        <v>5502.9255173447664</v>
+      </c>
+      <c r="BA15" s="31">
+        <f>$I15*$AR15*$AT$49</f>
+        <v>6342.9255173287347</v>
+      </c>
+      <c r="BB15" s="31">
+        <f>$I15*$AR15*$AT$50</f>
+        <v>9702.9255172646117</v>
+      </c>
+      <c r="BC15" s="31">
+        <f>$H15*$AR15*constraints!$B$4</f>
+        <v>7874.9999998497069</v>
+      </c>
+      <c r="BD15" s="31">
+        <f>$H15*$AR15*constraints!$C$4</f>
+        <v>9974.99999980963</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3041,10 +3877,63 @@
         <f t="shared" si="1"/>
         <v>5.6587871734157415E-8</v>
       </c>
+      <c r="AP16" s="23">
+        <f t="shared" si="2"/>
+        <v>3.3952723040494449E-3</v>
+      </c>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="22">
+        <v>74999.999998053099</v>
+      </c>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="33">
+        <f t="shared" si="3"/>
+        <v>4.2440903799516351E-3</v>
+      </c>
+      <c r="AU16" s="31">
+        <f>$J16*$AR16*$AT$47</f>
+        <v>3915.7437192776461</v>
+      </c>
+      <c r="AV16" s="31">
+        <f>$J16*$AR16*$AT$48</f>
+        <v>4421.9937192645048</v>
+      </c>
+      <c r="AW16" s="31">
+        <f>$J16*$AR16*$AT$49</f>
+        <v>5096.9937192469824</v>
+      </c>
+      <c r="AX16" s="31">
+        <f>$J16*$AR16*$AT$50</f>
+        <v>7796.993719176894</v>
+      </c>
+      <c r="AY16" s="31">
+        <f>$I16*$AR16*$AT$47</f>
+        <v>4350.8263547529405</v>
+      </c>
+      <c r="AZ16" s="31">
+        <f>$I16*$AR16*$AT$48</f>
+        <v>4913.3263547383385</v>
+      </c>
+      <c r="BA16" s="31">
+        <f>$I16*$AR16*$AT$49</f>
+        <v>5663.326354718869</v>
+      </c>
+      <c r="BB16" s="31">
+        <f>$I16*$AR16*$AT$50</f>
+        <v>8663.3263546409944</v>
+      </c>
+      <c r="BC16" s="31">
+        <f>$H16*$AR16*constraints!$B$4</f>
+        <v>5624.9999998539824</v>
+      </c>
+      <c r="BD16" s="31">
+        <f>$H16*$AR16*constraints!$C$4</f>
+        <v>7124.9999998150442</v>
+      </c>
     </row>
     <row r="17" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3182,10 +4071,63 @@
         <f t="shared" si="1"/>
         <v>9.4634185495846227E-8</v>
       </c>
+      <c r="AP17" s="23">
+        <f t="shared" si="2"/>
+        <v>7.0975639121884674E-3</v>
+      </c>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="22">
+        <v>94999.999998706335</v>
+      </c>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="33">
+        <f t="shared" si="3"/>
+        <v>8.9902476219829667E-3</v>
+      </c>
+      <c r="AU17" s="31">
+        <f>$J17*$AR17*$AT$47</f>
+        <v>4959.9420444795633</v>
+      </c>
+      <c r="AV17" s="31">
+        <f>$J17*$AR17*$AT$48</f>
+        <v>5601.1920444708312</v>
+      </c>
+      <c r="AW17" s="31">
+        <f>$J17*$AR17*$AT$49</f>
+        <v>6456.1920444591879</v>
+      </c>
+      <c r="AX17" s="31">
+        <f>$J17*$AR17*$AT$50</f>
+        <v>9876.1920444126172</v>
+      </c>
+      <c r="AY17" s="31">
+        <f>$I17*$AR17*$AT$47</f>
+        <v>4408.8373728707229</v>
+      </c>
+      <c r="AZ17" s="31">
+        <f>$I17*$AR17*$AT$48</f>
+        <v>4978.8373728629613</v>
+      </c>
+      <c r="BA17" s="31">
+        <f>$I17*$AR17*$AT$49</f>
+        <v>5738.8373728526112</v>
+      </c>
+      <c r="BB17" s="31">
+        <f>$I17*$AR17*$AT$50</f>
+        <v>8778.8373728112147</v>
+      </c>
+      <c r="BC17" s="31">
+        <f>$H17*$AR17*constraints!$B$4</f>
+        <v>7124.9999999029751</v>
+      </c>
+      <c r="BD17" s="31">
+        <f>$H17*$AR17*constraints!$C$4</f>
+        <v>9024.9999998771018</v>
+      </c>
     </row>
     <row r="18" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3323,10 +4265,63 @@
         <f t="shared" si="1"/>
         <v>9.3430188224906693E-8</v>
       </c>
+      <c r="AP18" s="23">
+        <f t="shared" si="2"/>
+        <v>2.802905646747201E-3</v>
+      </c>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="22">
+        <v>33999.999999297688</v>
+      </c>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="33">
+        <f t="shared" si="3"/>
+        <v>3.1766263995812102E-3</v>
+      </c>
+      <c r="AU18" s="31">
+        <f>$J18*$AR18*$AT$47</f>
+        <v>2169.6120755816373</v>
+      </c>
+      <c r="AV18" s="31">
+        <f>$J18*$AR18*$AT$48</f>
+        <v>2450.1120755758434</v>
+      </c>
+      <c r="AW18" s="31">
+        <f>$J18*$AR18*$AT$49</f>
+        <v>2824.1120755681177</v>
+      </c>
+      <c r="AX18" s="31">
+        <f>$J18*$AR18*$AT$50</f>
+        <v>4320.1120755372167</v>
+      </c>
+      <c r="AY18" s="31">
+        <f>$I18*$AR18*$AT$47</f>
+        <v>1972.3746141651247</v>
+      </c>
+      <c r="AZ18" s="31">
+        <f>$I18*$AR18*$AT$48</f>
+        <v>2227.3746141598572</v>
+      </c>
+      <c r="BA18" s="31">
+        <f>$I18*$AR18*$AT$49</f>
+        <v>2567.3746141528341</v>
+      </c>
+      <c r="BB18" s="31">
+        <f>$I18*$AR18*$AT$50</f>
+        <v>3927.374614124742</v>
+      </c>
+      <c r="BC18" s="31">
+        <f>$H18*$AR18*constraints!$B$4</f>
+        <v>2549.9999999473266</v>
+      </c>
+      <c r="BD18" s="31">
+        <f>$H18*$AR18*constraints!$C$4</f>
+        <v>3229.9999999332804</v>
+      </c>
     </row>
     <row r="19" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3464,10 +4459,63 @@
         <f t="shared" si="1"/>
         <v>1.8902757153750455E-7</v>
       </c>
+      <c r="AP19" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8902757153750455E-3</v>
+      </c>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="22">
+        <v>12999.999999539241</v>
+      </c>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="33">
+        <f t="shared" si="3"/>
+        <v>2.4573584299004631E-3</v>
+      </c>
+      <c r="AU19" s="31">
+        <f>$J19*$AR19*$AT$47</f>
+        <v>603.31458785335235</v>
+      </c>
+      <c r="AV19" s="31">
+        <f>$J19*$AR19*$AT$48</f>
+        <v>681.31458785058783</v>
+      </c>
+      <c r="AW19" s="31">
+        <f>$J19*$AR19*$AT$49</f>
+        <v>785.31458784690165</v>
+      </c>
+      <c r="AX19" s="31">
+        <f>$J19*$AR19*$AT$50</f>
+        <v>1201.3145878321575</v>
+      </c>
+      <c r="AY19" s="31">
+        <f>$I19*$AR19*$AT$47</f>
+        <v>301.65729392667618</v>
+      </c>
+      <c r="AZ19" s="31">
+        <f>$I19*$AR19*$AT$48</f>
+        <v>340.65729392529391</v>
+      </c>
+      <c r="BA19" s="31">
+        <f>$I19*$AR19*$AT$49</f>
+        <v>392.65729392345082</v>
+      </c>
+      <c r="BB19" s="31">
+        <f>$I19*$AR19*$AT$50</f>
+        <v>600.65729391607874</v>
+      </c>
+      <c r="BC19" s="31">
+        <f>$H19*$AR19*constraints!$B$4</f>
+        <v>974.99999996544307</v>
+      </c>
+      <c r="BD19" s="31">
+        <f>$H19*$AR19*constraints!$C$4</f>
+        <v>1234.9999999562278</v>
+      </c>
     </row>
     <row r="20" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3605,10 +4653,63 @@
         <f t="shared" si="1"/>
         <v>5.4300276919372323E-7</v>
       </c>
+      <c r="AP20" s="23">
+        <f t="shared" si="2"/>
+        <v>5.4300276919372326E-4</v>
+      </c>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="22">
+        <v>1499.9999998170979</v>
+      </c>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="33">
+        <f t="shared" si="3"/>
+        <v>8.1450415369126845E-4</v>
+      </c>
+      <c r="AU20" s="31">
+        <f>$J20*$AR20*$AT$47</f>
+        <v>8.701652708670732</v>
+      </c>
+      <c r="AV20" s="31">
+        <f>$J20*$AR20*$AT$48</f>
+        <v>9.8266527085335547</v>
+      </c>
+      <c r="AW20" s="31">
+        <f>$J20*$AR20*$AT$49</f>
+        <v>11.326652708350652</v>
+      </c>
+      <c r="AX20" s="31">
+        <f>$J20*$AR20*$AT$50</f>
+        <v>17.326652707619047</v>
+      </c>
+      <c r="AY20" s="31">
+        <f>$I20*$AR20*$AT$47</f>
+        <v>8.701652708670732</v>
+      </c>
+      <c r="AZ20" s="31">
+        <f>$I20*$AR20*$AT$48</f>
+        <v>9.8266527085335547</v>
+      </c>
+      <c r="BA20" s="31">
+        <f>$I20*$AR20*$AT$49</f>
+        <v>11.326652708350652</v>
+      </c>
+      <c r="BB20" s="31">
+        <f>$I20*$AR20*$AT$50</f>
+        <v>17.326652707619047</v>
+      </c>
+      <c r="BC20" s="31">
+        <f>$H20*$AR20*constraints!$B$4</f>
+        <v>112.49999998628233</v>
+      </c>
+      <c r="BD20" s="31">
+        <f>$H20*$AR20*constraints!$C$4</f>
+        <v>142.4999999826243</v>
+      </c>
     </row>
     <row r="21" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3735,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="22">
-        <f t="shared" ref="AM21" si="3">SUM(AA21:AL21)</f>
+        <f t="shared" ref="AM21" si="5">SUM(AA21:AL21)</f>
         <v>0</v>
       </c>
       <c r="AN21" s="25">
@@ -3745,11 +4846,64 @@
       <c r="AO21" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="AP21" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="22">
+        <v>1.2376909779863341E-16</v>
+      </c>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="31">
+        <f>$J21*$AR21*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="31">
+        <f>$J21*$AR21*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="31">
+        <f>$J21*$AR21*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="31">
+        <f>$J21*$AR21*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="31">
+        <f>$I21*$AR21*$AT$47</f>
+        <v>1.4359942736540456E-17</v>
+      </c>
+      <c r="AZ21" s="31">
+        <f>$I21*$AR21*$AT$48</f>
+        <v>1.6216479203519956E-17</v>
+      </c>
+      <c r="BA21" s="31">
+        <f>$I21*$AR21*$AT$49</f>
+        <v>1.8691861159492622E-17</v>
+      </c>
+      <c r="BB21" s="31">
+        <f>$I21*$AR21*$AT$50</f>
+        <v>2.8593388983383297E-17</v>
+      </c>
+      <c r="BC21" s="31">
+        <f>$H21*$AR21*constraints!$B$4</f>
+        <v>9.2826823348975054E-18</v>
+      </c>
+      <c r="BD21" s="31">
+        <f>$H21*$AR21*constraints!$C$4</f>
+        <v>1.1758064290870173E-17</v>
       </c>
     </row>
     <row r="22" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3885,12 +5039,65 @@
       </c>
       <c r="AO22" s="29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="22">
+        <v>239999.99999956001</v>
+      </c>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="31">
+        <f>$J22*$AR22*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="31">
+        <f>$J22*$AR22*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="31">
+        <f>$J22*$AR22*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="31">
+        <f>$J22*$AR22*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="31">
+        <f>$I22*$AR22*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="31">
+        <f>$I22*$AR22*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="31">
+        <f>$I22*$AR22*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="31">
+        <f>$I22*$AR22*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="31">
+        <f>$H22*$AR22*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="31">
+        <f>$H22*$AR22*constraints!$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4026,12 +5233,65 @@
       </c>
       <c r="AO23" s="29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="22">
+        <v>88499.99999951628</v>
+      </c>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="31">
+        <f>$J23*$AR23*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="31">
+        <f>$J23*$AR23*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="31">
+        <f>$J23*$AR23*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="31">
+        <f>$J23*$AR23*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="31">
+        <f>$I23*$AR23*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="31">
+        <f>$I23*$AR23*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="31">
+        <f>$I23*$AR23*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="31">
+        <f>$I23*$AR23*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="31">
+        <f>$H23*$AR23*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="31">
+        <f>$H23*$AR23*constraints!$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4167,12 +5427,65 @@
       </c>
       <c r="AO24" s="29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="22">
+        <v>109999.9999993815</v>
+      </c>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="31">
+        <f>$J24*$AR24*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="31">
+        <f>$J24*$AR24*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="31">
+        <f>$J24*$AR24*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="31">
+        <f>$J24*$AR24*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="31">
+        <f>$I24*$AR24*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="31">
+        <f>$I24*$AR24*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="31">
+        <f>$I24*$AR24*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="31">
+        <f>$I24*$AR24*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="31">
+        <f>$H24*$AR24*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="31">
+        <f>$H24*$AR24*constraints!$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4310,20 +5623,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790387E-8</v>
       </c>
+      <c r="AP25" s="23">
+        <f t="shared" si="2"/>
+        <v>4.8159890837580775E-4</v>
+      </c>
       <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
+      <c r="AR25" s="22">
+        <v>25999.99999914318</v>
+      </c>
       <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
+      <c r="AT25" s="33">
+        <f t="shared" si="3"/>
+        <v>6.2607858086791786E-4</v>
+      </c>
+      <c r="AU25" s="31">
+        <f>$J25*$AR25*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="31">
+        <f>$J25*$AR25*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="31">
+        <f>$J25*$AR25*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX25" s="31">
+        <f>$J25*$AR25*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="31">
+        <f>$I25*$AR25*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="31">
+        <f>$I25*$AR25*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA25" s="31">
+        <f>$I25*$AR25*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB25" s="31">
+        <f>$I25*$AR25*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="31">
+        <f>$H25*$AR25*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="31">
+        <f>$H25*$AR25*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE25" s="23"/>
       <c r="BF25" s="23"/>
       <c r="BG25" s="23"/>
@@ -4391,7 +5743,7 @@
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4529,20 +5881,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AP26" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
+      <c r="AR26" s="22">
+        <v>12000.00000026704</v>
+      </c>
       <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
-      <c r="AV26" s="23"/>
-      <c r="AW26" s="23"/>
-      <c r="AX26" s="23"/>
-      <c r="AY26" s="23"/>
-      <c r="AZ26" s="23"/>
-      <c r="BA26" s="23"/>
-      <c r="BB26" s="23"/>
-      <c r="BC26" s="23"/>
-      <c r="BD26" s="23"/>
+      <c r="AT26" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="31">
+        <f>$J26*$AR26*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="31">
+        <f>$J26*$AR26*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="31">
+        <f>$J26*$AR26*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="31">
+        <f>$J26*$AR26*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="31">
+        <f>$I26*$AR26*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="31">
+        <f>$I26*$AR26*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="31">
+        <f>$I26*$AR26*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="31">
+        <f>$I26*$AR26*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="31">
+        <f>$H26*$AR26*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="31">
+        <f>$H26*$AR26*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE26" s="23"/>
       <c r="BF26" s="23"/>
       <c r="BG26" s="23"/>
@@ -4610,7 +6001,7 @@
     </row>
     <row r="27" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4748,20 +6139,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790387E-8</v>
       </c>
+      <c r="AP27" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2039972709395194E-4</v>
+      </c>
       <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
+      <c r="AR27" s="22">
+        <v>3500.00000395712</v>
+      </c>
       <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="23"/>
-      <c r="AW27" s="23"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="23"/>
-      <c r="BA27" s="23"/>
-      <c r="BB27" s="23"/>
-      <c r="BC27" s="23"/>
-      <c r="BD27" s="23"/>
+      <c r="AT27" s="33">
+        <f t="shared" si="3"/>
+        <v>8.4279809061053596E-5</v>
+      </c>
+      <c r="AU27" s="31">
+        <f>$J27*$AR27*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="31">
+        <f>$J27*$AR27*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="31">
+        <f>$J27*$AR27*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="31">
+        <f>$J27*$AR27*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="31">
+        <f>$I27*$AR27*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="31">
+        <f>$I27*$AR27*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="31">
+        <f>$I27*$AR27*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB27" s="31">
+        <f>$I27*$AR27*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="31">
+        <f>$H27*$AR27*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="31">
+        <f>$H27*$AR27*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE27" s="23"/>
       <c r="BF27" s="23"/>
       <c r="BG27" s="23"/>
@@ -4829,7 +6259,7 @@
     </row>
     <row r="28" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4967,20 +6397,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AP28" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
+      <c r="AR28" s="22">
+        <v>74999.999998929445</v>
+      </c>
       <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="23"/>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="23"/>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
+      <c r="AT28" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="31">
+        <f>$J28*$AR28*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="31">
+        <f>$J28*$AR28*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="31">
+        <f>$J28*$AR28*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="31">
+        <f>$J28*$AR28*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="31">
+        <f>$I28*$AR28*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="31">
+        <f>$I28*$AR28*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="31">
+        <f>$I28*$AR28*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="31">
+        <f>$I28*$AR28*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="31">
+        <f>$H28*$AR28*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="31">
+        <f>$H28*$AR28*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE28" s="23"/>
       <c r="BF28" s="23"/>
       <c r="BG28" s="23"/>
@@ -5048,7 +6517,7 @@
     </row>
     <row r="29" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5186,20 +6655,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790387E-8</v>
       </c>
+      <c r="AP29" s="23">
+        <f t="shared" si="2"/>
+        <v>6.0199863546975968E-4</v>
+      </c>
       <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
+      <c r="AR29" s="22">
+        <v>31999.9999980512</v>
+      </c>
       <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
-      <c r="AX29" s="23"/>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
-      <c r="BA29" s="23"/>
-      <c r="BB29" s="23"/>
-      <c r="BC29" s="23"/>
-      <c r="BD29" s="23"/>
+      <c r="AT29" s="33">
+        <f t="shared" si="3"/>
+        <v>7.7055825335436545E-4</v>
+      </c>
+      <c r="AU29" s="31">
+        <f>$J29*$AR29*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="31">
+        <f>$J29*$AR29*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="31">
+        <f>$J29*$AR29*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="31">
+        <f>$J29*$AR29*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="31">
+        <f>$I29*$AR29*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="31">
+        <f>$I29*$AR29*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="31">
+        <f>$I29*$AR29*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="31">
+        <f>$I29*$AR29*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="31">
+        <f>$H29*$AR29*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="31">
+        <f>$H29*$AR29*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE29" s="23"/>
       <c r="BF29" s="23"/>
       <c r="BG29" s="23"/>
@@ -5267,7 +6775,7 @@
     </row>
     <row r="30" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5405,20 +6913,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790387E-8</v>
       </c>
+      <c r="AP30" s="23">
+        <f t="shared" si="2"/>
+        <v>4.093590721194366E-4</v>
+      </c>
       <c r="AQ30" s="23"/>
-      <c r="AR30" s="23"/>
+      <c r="AR30" s="22">
+        <v>21999.999998720232</v>
+      </c>
       <c r="AS30" s="23"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
-      <c r="AV30" s="23"/>
-      <c r="AW30" s="23"/>
-      <c r="AX30" s="23"/>
-      <c r="AY30" s="23"/>
-      <c r="AZ30" s="23"/>
-      <c r="BA30" s="23"/>
-      <c r="BB30" s="23"/>
-      <c r="BC30" s="23"/>
-      <c r="BD30" s="23"/>
+      <c r="AT30" s="33">
+        <f t="shared" si="3"/>
+        <v>5.2975879918257176E-4</v>
+      </c>
+      <c r="AU30" s="31">
+        <f>$J30*$AR30*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV30" s="31">
+        <f>$J30*$AR30*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="31">
+        <f>$J30*$AR30*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX30" s="31">
+        <f>$J30*$AR30*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY30" s="31">
+        <f>$I30*$AR30*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="31">
+        <f>$I30*$AR30*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA30" s="31">
+        <f>$I30*$AR30*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB30" s="31">
+        <f>$I30*$AR30*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="31">
+        <f>$H30*$AR30*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="31">
+        <f>$H30*$AR30*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE30" s="23"/>
       <c r="BF30" s="23"/>
       <c r="BG30" s="23"/>
@@ -5486,7 +7033,7 @@
     </row>
     <row r="31" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -5624,20 +7171,59 @@
         <f t="shared" si="1"/>
         <v>4.8159890837580775E-8</v>
       </c>
+      <c r="AP31" s="23">
+        <f t="shared" si="2"/>
+        <v>4.093590721194366E-4</v>
+      </c>
       <c r="AQ31" s="23"/>
-      <c r="AR31" s="23"/>
+      <c r="AR31" s="22">
+        <v>12499.99999723202</v>
+      </c>
       <c r="AS31" s="23"/>
-      <c r="AT31" s="23"/>
-      <c r="AU31" s="23"/>
-      <c r="AV31" s="23"/>
-      <c r="AW31" s="23"/>
-      <c r="AX31" s="23"/>
-      <c r="AY31" s="23"/>
-      <c r="AZ31" s="23"/>
-      <c r="BA31" s="23"/>
-      <c r="BB31" s="23"/>
-      <c r="BC31" s="23"/>
-      <c r="BD31" s="23"/>
+      <c r="AT31" s="33">
+        <f t="shared" si="3"/>
+        <v>6.0199863533645409E-4</v>
+      </c>
+      <c r="AU31" s="31">
+        <f>$J31*$AR31*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV31" s="31">
+        <f>$J31*$AR31*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="31">
+        <f>$J31*$AR31*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX31" s="31">
+        <f>$J31*$AR31*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="31">
+        <f>$I31*$AR31*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="31">
+        <f>$I31*$AR31*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA31" s="31">
+        <f>$I31*$AR31*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB31" s="31">
+        <f>$I31*$AR31*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="31">
+        <f>$H31*$AR31*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="31">
+        <f>$H31*$AR31*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE31" s="23"/>
       <c r="BF31" s="23"/>
       <c r="BG31" s="23"/>
@@ -5705,7 +7291,7 @@
     </row>
     <row r="32" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5843,20 +7429,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AP32" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
+      <c r="AR32" s="22">
+        <v>16000.000002676939</v>
+      </c>
       <c r="AS32" s="23"/>
-      <c r="AT32" s="23"/>
-      <c r="AU32" s="23"/>
-      <c r="AV32" s="23"/>
-      <c r="AW32" s="23"/>
-      <c r="AX32" s="23"/>
-      <c r="AY32" s="23"/>
-      <c r="AZ32" s="23"/>
-      <c r="BA32" s="23"/>
-      <c r="BB32" s="23"/>
-      <c r="BC32" s="23"/>
-      <c r="BD32" s="23"/>
+      <c r="AT32" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="31">
+        <f>$J32*$AR32*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV32" s="31">
+        <f>$J32*$AR32*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="31">
+        <f>$J32*$AR32*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX32" s="31">
+        <f>$J32*$AR32*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="31">
+        <f>$I32*$AR32*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="31">
+        <f>$I32*$AR32*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA32" s="31">
+        <f>$I32*$AR32*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB32" s="31">
+        <f>$I32*$AR32*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="31">
+        <f>$H32*$AR32*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="31">
+        <f>$H32*$AR32*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE32" s="23"/>
       <c r="BF32" s="23"/>
       <c r="BG32" s="23"/>
@@ -5924,7 +7549,7 @@
     </row>
     <row r="33" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -6062,20 +7687,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790391E-8</v>
       </c>
+      <c r="AP33" s="23">
+        <f t="shared" si="2"/>
+        <v>2.8895934502548467E-4</v>
+      </c>
       <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
+      <c r="AR33" s="22">
+        <v>9500.0000022538261</v>
+      </c>
       <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="23"/>
-      <c r="AW33" s="23"/>
-      <c r="AX33" s="23"/>
-      <c r="AY33" s="23"/>
-      <c r="AZ33" s="23"/>
-      <c r="BA33" s="23"/>
-      <c r="BB33" s="23"/>
-      <c r="BC33" s="23"/>
-      <c r="BD33" s="23"/>
+      <c r="AT33" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2875948153278073E-4</v>
+      </c>
+      <c r="AU33" s="31">
+        <f>$J33*$AR33*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="31">
+        <f>$J33*$AR33*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="31">
+        <f>$J33*$AR33*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX33" s="31">
+        <f>$J33*$AR33*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="31">
+        <f>$I33*$AR33*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="31">
+        <f>$I33*$AR33*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA33" s="31">
+        <f>$I33*$AR33*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB33" s="31">
+        <f>$I33*$AR33*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="31">
+        <f>$H33*$AR33*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="31">
+        <f>$H33*$AR33*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE33" s="23"/>
       <c r="BF33" s="23"/>
       <c r="BG33" s="23"/>
@@ -6143,7 +7807,7 @@
     </row>
     <row r="34" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -6281,20 +7945,59 @@
         <f t="shared" si="1"/>
         <v>2.4079945418790387E-8</v>
       </c>
+      <c r="AP34" s="23">
+        <f t="shared" si="2"/>
+        <v>1.6855961793153272E-4</v>
+      </c>
       <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
+      <c r="AR34" s="22">
+        <v>5000.0000027161386</v>
+      </c>
       <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23"/>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
+      <c r="AT34" s="33">
+        <f t="shared" si="3"/>
+        <v>1.2039972715935641E-4</v>
+      </c>
+      <c r="AU34" s="31">
+        <f>$J34*$AR34*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV34" s="31">
+        <f>$J34*$AR34*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="31">
+        <f>$J34*$AR34*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX34" s="31">
+        <f>$J34*$AR34*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="31">
+        <f>$I34*$AR34*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="31">
+        <f>$I34*$AR34*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA34" s="31">
+        <f>$I34*$AR34*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="31">
+        <f>$I34*$AR34*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="31">
+        <f>$H34*$AR34*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="31">
+        <f>$H34*$AR34*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE34" s="23"/>
       <c r="BF34" s="23"/>
       <c r="BG34" s="23"/>
@@ -6362,7 +8065,7 @@
     </row>
     <row r="35" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6500,20 +8203,59 @@
         <f t="shared" si="1"/>
         <v>4.8159890837580781E-8</v>
       </c>
+      <c r="AP35" s="23">
+        <f t="shared" si="2"/>
+        <v>1.4447967251274234E-4</v>
+      </c>
       <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
+      <c r="AR35" s="22">
+        <v>2000.000001659035</v>
+      </c>
       <c r="AS35" s="23"/>
-      <c r="AT35" s="23"/>
-      <c r="AU35" s="23"/>
-      <c r="AV35" s="23"/>
-      <c r="AW35" s="23"/>
-      <c r="AX35" s="23"/>
-      <c r="AY35" s="23"/>
-      <c r="AZ35" s="23"/>
-      <c r="BA35" s="23"/>
-      <c r="BB35" s="23"/>
-      <c r="BC35" s="23"/>
-      <c r="BD35" s="23"/>
+      <c r="AT35" s="33">
+        <f t="shared" si="3"/>
+        <v>9.6319781755060504E-5</v>
+      </c>
+      <c r="AU35" s="31">
+        <f>$J35*$AR35*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV35" s="31">
+        <f>$J35*$AR35*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="31">
+        <f>$J35*$AR35*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="31">
+        <f>$J35*$AR35*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY35" s="31">
+        <f>$I35*$AR35*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="31">
+        <f>$I35*$AR35*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="31">
+        <f>$I35*$AR35*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="31">
+        <f>$I35*$AR35*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="31">
+        <f>$H35*$AR35*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="31">
+        <f>$H35*$AR35*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE35" s="23"/>
       <c r="BF35" s="23"/>
       <c r="BG35" s="23"/>
@@ -6581,7 +8323,7 @@
     </row>
     <row r="36" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -6719,20 +8461,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AP36" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
+      <c r="AR36" s="22">
+        <v>3000.000001468341</v>
+      </c>
       <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
-      <c r="AV36" s="23"/>
-      <c r="AW36" s="23"/>
-      <c r="AX36" s="23"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="23"/>
-      <c r="BA36" s="23"/>
-      <c r="BB36" s="23"/>
-      <c r="BC36" s="23"/>
-      <c r="BD36" s="23"/>
+      <c r="AT36" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="31">
+        <f>$J36*$AR36*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="31">
+        <f>$J36*$AR36*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="31">
+        <f>$J36*$AR36*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="31">
+        <f>$J36*$AR36*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY36" s="31">
+        <f>$I36*$AR36*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="31">
+        <f>$I36*$AR36*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="31">
+        <f>$I36*$AR36*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="31">
+        <f>$I36*$AR36*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="31">
+        <f>$H36*$AR36*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="31">
+        <f>$H36*$AR36*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE36" s="23"/>
       <c r="BF36" s="23"/>
       <c r="BG36" s="23"/>
@@ -6800,7 +8581,7 @@
     </row>
     <row r="37" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -6811,11 +8592,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="D37:E37" si="4">D21</f>
+        <f t="shared" ref="D37:E37" si="6">D21</f>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F37" s="8">
@@ -6930,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="22">
-        <f t="shared" ref="AM37" si="5">SUM(AA37:AL37)</f>
+        <f t="shared" ref="AM37" si="7">SUM(AA37:AL37)</f>
         <v>0</v>
       </c>
       <c r="AN37" s="25">
@@ -6941,20 +8722,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AP37" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
+      <c r="AR37" s="22">
+        <v>-3.9844064699640747E-17</v>
+      </c>
       <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="23"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="23"/>
-      <c r="AX37" s="23"/>
-      <c r="AY37" s="23"/>
-      <c r="AZ37" s="23"/>
-      <c r="BA37" s="23"/>
-      <c r="BB37" s="23"/>
-      <c r="BC37" s="23"/>
-      <c r="BD37" s="23"/>
+      <c r="AT37" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="31">
+        <f>$J37*$AR37*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="31">
+        <f>$J37*$AR37*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="31">
+        <f>$J37*$AR37*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="31">
+        <f>$J37*$AR37*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="31">
+        <f>$I37*$AR37*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="31">
+        <f>$I37*$AR37*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="31">
+        <f>$I37*$AR37*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="31">
+        <f>$I37*$AR37*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="31">
+        <f>$H37*$AR37*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="31">
+        <f>$H37*$AR37*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE37" s="23"/>
       <c r="BF37" s="23"/>
       <c r="BG37" s="23"/>
@@ -7022,7 +8842,7 @@
     </row>
     <row r="38" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -7160,20 +8980,59 @@
         <f t="shared" si="1"/>
         <v>1.4447967251274232E-8</v>
       </c>
+      <c r="AP38" s="23">
+        <f t="shared" si="2"/>
+        <v>7.8019023156880856E-4</v>
+      </c>
       <c r="AQ38" s="23"/>
-      <c r="AR38" s="23"/>
+      <c r="AR38" s="22">
+        <v>63111.359661199131</v>
+      </c>
       <c r="AS38" s="23"/>
-      <c r="AT38" s="23"/>
-      <c r="AU38" s="23"/>
-      <c r="AV38" s="23"/>
-      <c r="AW38" s="23"/>
-      <c r="AX38" s="23"/>
-      <c r="AY38" s="23"/>
-      <c r="AZ38" s="23"/>
-      <c r="BA38" s="23"/>
-      <c r="BB38" s="23"/>
-      <c r="BC38" s="23"/>
-      <c r="BD38" s="23"/>
+      <c r="AT38" s="33">
+        <f t="shared" si="3"/>
+        <v>9.1183085756839464E-4</v>
+      </c>
+      <c r="AU38" s="31">
+        <f>$J38*$AR38*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV38" s="31">
+        <f>$J38*$AR38*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW38" s="31">
+        <f>$J38*$AR38*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX38" s="31">
+        <f>$J38*$AR38*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY38" s="31">
+        <f>$I38*$AR38*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="31">
+        <f>$I38*$AR38*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA38" s="31">
+        <f>$I38*$AR38*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB38" s="31">
+        <f>$I38*$AR38*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="31">
+        <f>$H38*$AR38*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="31">
+        <f>$H38*$AR38*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE38" s="23"/>
       <c r="BF38" s="23"/>
       <c r="BG38" s="23"/>
@@ -7241,7 +9100,7 @@
     </row>
     <row r="39" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -7379,20 +9238,59 @@
         <f t="shared" si="1"/>
         <v>1.4447967251274232E-8</v>
       </c>
+      <c r="AP39" s="23">
+        <f t="shared" si="2"/>
+        <v>1.1558373801019386E-4</v>
+      </c>
       <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
+      <c r="AR39" s="22">
+        <v>11241.98372089214</v>
+      </c>
       <c r="AS39" s="23"/>
-      <c r="AT39" s="23"/>
-      <c r="AU39" s="23"/>
-      <c r="AV39" s="23"/>
-      <c r="AW39" s="23"/>
-      <c r="AX39" s="23"/>
-      <c r="AY39" s="23"/>
-      <c r="AZ39" s="23"/>
-      <c r="BA39" s="23"/>
-      <c r="BB39" s="23"/>
-      <c r="BC39" s="23"/>
-      <c r="BD39" s="23"/>
+      <c r="AT39" s="33">
+        <f t="shared" si="3"/>
+        <v>1.6242381263880767E-4</v>
+      </c>
+      <c r="AU39" s="31">
+        <f>$J39*$AR39*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV39" s="31">
+        <f>$J39*$AR39*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="31">
+        <f>$J39*$AR39*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="31">
+        <f>$J39*$AR39*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY39" s="31">
+        <f>$I39*$AR39*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="31">
+        <f>$I39*$AR39*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA39" s="31">
+        <f>$I39*$AR39*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB39" s="31">
+        <f>$I39*$AR39*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="31">
+        <f>$H39*$AR39*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="31">
+        <f>$H39*$AR39*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE39" s="23"/>
       <c r="BF39" s="23"/>
       <c r="BG39" s="23"/>
@@ -7460,7 +9358,7 @@
     </row>
     <row r="40" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -7598,20 +9496,59 @@
         <f t="shared" si="1"/>
         <v>1.4447967251274234E-8</v>
       </c>
+      <c r="AP40" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5892763976401656E-4</v>
+      </c>
       <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
+      <c r="AR40" s="22">
+        <v>7796.6201677555136</v>
+      </c>
       <c r="AS40" s="23"/>
-      <c r="AT40" s="23"/>
-      <c r="AU40" s="23"/>
-      <c r="AV40" s="23"/>
-      <c r="AW40" s="23"/>
-      <c r="AX40" s="23"/>
-      <c r="AY40" s="23"/>
-      <c r="AZ40" s="23"/>
-      <c r="BA40" s="23"/>
-      <c r="BB40" s="23"/>
-      <c r="BC40" s="23"/>
-      <c r="BD40" s="23"/>
+      <c r="AT40" s="33">
+        <f t="shared" si="3"/>
+        <v>1.1264531285435588E-4</v>
+      </c>
+      <c r="AU40" s="31">
+        <f>$J40*$AR40*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV40" s="31">
+        <f>$J40*$AR40*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="31">
+        <f>$J40*$AR40*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="31">
+        <f>$J40*$AR40*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY40" s="31">
+        <f>$I40*$AR40*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="31">
+        <f>$I40*$AR40*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA40" s="31">
+        <f>$I40*$AR40*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB40" s="31">
+        <f>$I40*$AR40*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC40" s="31">
+        <f>$H40*$AR40*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="31">
+        <f>$H40*$AR40*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE40" s="23"/>
       <c r="BF40" s="23"/>
       <c r="BG40" s="23"/>
@@ -7679,7 +9616,7 @@
     </row>
     <row r="41" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -7817,20 +9754,59 @@
         <f t="shared" si="1"/>
         <v>1.444796725127423E-8</v>
       </c>
+      <c r="AP41" s="23">
+        <f t="shared" si="2"/>
+        <v>6.2126259180479194E-4</v>
+      </c>
       <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
-      <c r="AT41" s="23"/>
-      <c r="AU41" s="23"/>
-      <c r="AV41" s="23"/>
-      <c r="AW41" s="23"/>
-      <c r="AX41" s="23"/>
-      <c r="AY41" s="23"/>
-      <c r="AZ41" s="23"/>
-      <c r="BA41" s="23"/>
-      <c r="BB41" s="23"/>
-      <c r="BC41" s="23"/>
-      <c r="BD41" s="23"/>
+      <c r="AR41" s="22">
+        <v>43516.808886038511</v>
+      </c>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="33">
+        <f t="shared" si="3"/>
+        <v>6.2872942966544381E-4</v>
+      </c>
+      <c r="AU41" s="31">
+        <f>$J41*$AR41*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AV41" s="31">
+        <f>$J41*$AR41*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="AW41" s="31">
+        <f>$J41*$AR41*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="31">
+        <f>$J41*$AR41*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="AY41" s="31">
+        <f>$I41*$AR41*$AT$47</f>
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="31">
+        <f>$I41*$AR41*$AT$48</f>
+        <v>0</v>
+      </c>
+      <c r="BA41" s="31">
+        <f>$I41*$AR41*$AT$49</f>
+        <v>0</v>
+      </c>
+      <c r="BB41" s="31">
+        <f>$I41*$AR41*$AT$50</f>
+        <v>0</v>
+      </c>
+      <c r="BC41" s="31">
+        <f>$H41*$AR41*constraints!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="BD41" s="31">
+        <f>$H41*$AR41*constraints!$C$4</f>
+        <v>0</v>
+      </c>
       <c r="BE41" s="23"/>
       <c r="BF41" s="23"/>
       <c r="BG41" s="23"/>
@@ -7948,16 +9924,16 @@
       <c r="AR42" s="23"/>
       <c r="AS42" s="23"/>
       <c r="AT42" s="23"/>
-      <c r="AU42" s="23"/>
-      <c r="AV42" s="23"/>
-      <c r="AW42" s="23"/>
-      <c r="AX42" s="23"/>
-      <c r="AY42" s="23"/>
-      <c r="AZ42" s="23"/>
-      <c r="BA42" s="23"/>
-      <c r="BB42" s="23"/>
-      <c r="BC42" s="23"/>
-      <c r="BD42" s="23"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
+      <c r="BD42" s="31"/>
       <c r="BE42" s="23"/>
       <c r="BF42" s="23"/>
       <c r="BG42" s="23"/>
@@ -8068,17 +10044,50 @@
       <c r="AQ43" s="23"/>
       <c r="AR43" s="23"/>
       <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="23"/>
-      <c r="AV43" s="23"/>
-      <c r="AW43" s="23"/>
-      <c r="AX43" s="23"/>
-      <c r="AY43" s="23"/>
-      <c r="AZ43" s="23"/>
-      <c r="BA43" s="23"/>
-      <c r="BB43" s="23"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="23"/>
+      <c r="AT43" s="23">
+        <f>SUM(AT2:AT41)</f>
+        <v>3.6022036129756851E-2</v>
+      </c>
+      <c r="AU43" s="31">
+        <f>SUM(AU2:AU41)</f>
+        <v>63111.359661055969</v>
+      </c>
+      <c r="AV43" s="31">
+        <f t="shared" ref="AV43:AX43" si="8">SUM(AV2:AV41)</f>
+        <v>71270.761327279994</v>
+      </c>
+      <c r="AW43" s="31">
+        <f t="shared" si="8"/>
+        <v>82149.963548911983</v>
+      </c>
+      <c r="AX43" s="31">
+        <f>SUM(AX2:AX41)</f>
+        <v>125666.77243544</v>
+      </c>
+      <c r="AY43" s="31">
+        <f>SUM(AY2:AY41)</f>
+        <v>50553.710898161909</v>
+      </c>
+      <c r="AZ43" s="31">
+        <f t="shared" ref="AZ43:BD43" si="9">SUM(AZ2:AZ41)</f>
+        <v>57089.587088305256</v>
+      </c>
+      <c r="BA43" s="31">
+        <f t="shared" si="9"/>
+        <v>65804.088675163031</v>
+      </c>
+      <c r="BB43" s="31">
+        <f t="shared" si="9"/>
+        <v>100662.09502259422</v>
+      </c>
+      <c r="BC43" s="31">
+        <f t="shared" si="9"/>
+        <v>58700.007933106346</v>
+      </c>
+      <c r="BD43" s="31">
+        <f t="shared" si="9"/>
+        <v>74353.343381934697</v>
+      </c>
       <c r="BE43" s="23"/>
       <c r="BF43" s="23"/>
       <c r="BG43" s="23"/>
@@ -8147,12 +10156,15 @@
     <row r="44" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="8">
+        <f>C2+D2</f>
+        <v>23000</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5">
-        <f>-SUMPRODUCT(F2:F41,C2:C41)/10000</f>
-        <v>-10545.75</v>
+      <c r="F44" s="12">
+        <f>-SUMPRODUCT(F2:F41,C2:C41)</f>
+        <v>-105457500</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="12"/>
@@ -8202,16 +10214,16 @@
       <c r="AR44" s="23"/>
       <c r="AS44" s="23"/>
       <c r="AT44" s="23"/>
-      <c r="AU44" s="23"/>
-      <c r="AV44" s="23"/>
-      <c r="AW44" s="23"/>
-      <c r="AX44" s="23"/>
-      <c r="AY44" s="23"/>
-      <c r="AZ44" s="23"/>
-      <c r="BA44" s="23"/>
-      <c r="BB44" s="23"/>
-      <c r="BC44" s="23"/>
-      <c r="BD44" s="23"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+      <c r="BD44" s="31"/>
       <c r="BE44" s="23"/>
       <c r="BF44" s="23"/>
       <c r="BG44" s="23"/>
@@ -8279,7 +10291,10 @@
     </row>
     <row r="45" spans="1:120" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8">
+        <f>2.54340385*10^4</f>
+        <v>25434.038499999999</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -8331,17 +10346,13 @@
       <c r="AQ45" s="23"/>
       <c r="AR45" s="23"/>
       <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="23"/>
-      <c r="AW45" s="23"/>
-      <c r="AX45" s="23"/>
-      <c r="AY45" s="23"/>
-      <c r="AZ45" s="23"/>
-      <c r="BA45" s="23"/>
-      <c r="BB45" s="23"/>
-      <c r="BC45" s="23"/>
-      <c r="BD45" s="23"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+      <c r="BD45" s="31"/>
       <c r="BE45" s="23"/>
       <c r="BF45" s="23"/>
       <c r="BG45" s="23"/>
@@ -8453,9 +10464,11 @@
       <c r="AR46" s="23"/>
       <c r="AS46" s="23"/>
       <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
-      <c r="AV46" s="23"/>
-      <c r="AW46" s="23"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW46" s="31"/>
       <c r="AX46" s="23"/>
       <c r="AY46" s="23"/>
       <c r="AZ46" s="23"/>
@@ -8542,7 +10555,10 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="J47" s="12">
+        <f>SUMPRODUCT(J2:J41,C2:C41)</f>
+        <v>488100</v>
+      </c>
       <c r="K47" s="10"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
@@ -8578,12 +10594,22 @@
       <c r="AQ47" s="23"/>
       <c r="AR47" s="23"/>
       <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
+      <c r="AT47" s="32">
+        <f>8%+AT43</f>
+        <v>0.11602203612975685</v>
+      </c>
       <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
+      <c r="AV47" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW47" s="22">
+        <f>AR38</f>
+        <v>63111.359661199131</v>
+      </c>
       <c r="AX47" s="23"/>
-      <c r="AY47" s="23"/>
+      <c r="AY47" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="AZ47" s="23"/>
       <c r="BA47" s="23"/>
       <c r="BB47" s="23"/>
@@ -8668,7 +10694,10 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="J48" s="12">
+        <f>J47*11%</f>
+        <v>53691</v>
+      </c>
       <c r="K48" s="10"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
@@ -8704,10 +10733,18 @@
       <c r="AQ48" s="23"/>
       <c r="AR48" s="23"/>
       <c r="AS48" s="23"/>
-      <c r="AT48" s="23"/>
+      <c r="AT48" s="32">
+        <f>AT47+1.5%</f>
+        <v>0.13102203612975685</v>
+      </c>
       <c r="AU48" s="23"/>
-      <c r="AV48" s="23"/>
-      <c r="AW48" s="23"/>
+      <c r="AV48" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW48" s="22">
+        <f>AR39</f>
+        <v>11241.98372089214</v>
+      </c>
       <c r="AX48" s="23"/>
       <c r="AY48" s="23"/>
       <c r="AZ48" s="23"/>
@@ -8794,7 +10831,10 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="J49" s="31">
+        <f>C38</f>
+        <v>54000</v>
+      </c>
       <c r="K49" s="10"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
@@ -8830,10 +10870,18 @@
       <c r="AQ49" s="23"/>
       <c r="AR49" s="23"/>
       <c r="AS49" s="23"/>
-      <c r="AT49" s="23"/>
+      <c r="AT49" s="32">
+        <f>AT48+2%</f>
+        <v>0.15102203612975684</v>
+      </c>
       <c r="AU49" s="23"/>
-      <c r="AV49" s="23"/>
-      <c r="AW49" s="23"/>
+      <c r="AV49" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW49" s="22">
+        <f>AR40</f>
+        <v>7796.6201677555136</v>
+      </c>
       <c r="AX49" s="23"/>
       <c r="AY49" s="23"/>
       <c r="AZ49" s="23"/>
@@ -8915,7 +10963,10 @@
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="J50" s="22">
+        <f>J48-J49</f>
+        <v>-309</v>
+      </c>
       <c r="K50" s="10"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
@@ -8951,10 +11002,18 @@
       <c r="AQ50" s="23"/>
       <c r="AR50" s="23"/>
       <c r="AS50" s="23"/>
-      <c r="AT50" s="23"/>
+      <c r="AT50" s="32">
+        <f>AT49+8%</f>
+        <v>0.23102203612975686</v>
+      </c>
       <c r="AU50" s="23"/>
-      <c r="AV50" s="23"/>
-      <c r="AW50" s="23"/>
+      <c r="AV50" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW50" s="22">
+        <f>AR41</f>
+        <v>43516.808886038511</v>
+      </c>
       <c r="AX50" s="23"/>
       <c r="AY50" s="23"/>
       <c r="AZ50" s="23"/>
@@ -41949,7 +44008,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42020,7 +44079,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C4">
-        <v>0.09</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -44108,51 +46167,51 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
-        <f>SUM(A2:A39)</f>
+        <f t="shared" ref="A40:L40" si="0">SUM(A2:A39)</f>
         <v>665000</v>
       </c>
       <c r="B40" s="17">
-        <f>SUM(B2:B39)</f>
+        <f t="shared" si="0"/>
         <v>79100</v>
       </c>
       <c r="C40" s="17">
-        <f>SUM(C2:C39)</f>
+        <f t="shared" si="0"/>
         <v>35500</v>
       </c>
       <c r="D40" s="17">
-        <f>SUM(D2:D39)</f>
+        <f t="shared" si="0"/>
         <v>75150</v>
       </c>
       <c r="E40" s="17">
-        <f>SUM(E2:E39)</f>
+        <f t="shared" si="0"/>
         <v>73500</v>
       </c>
       <c r="F40" s="17">
-        <f>SUM(F2:F39)</f>
+        <f t="shared" si="0"/>
         <v>116000</v>
       </c>
       <c r="G40" s="17">
-        <f>SUM(G2:G39)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H40" s="17">
-        <f>SUM(H2:H39)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="I40" s="17">
-        <f>SUM(I2:I39)</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="J40" s="17">
-        <f>SUM(J2:J39)</f>
+        <f t="shared" si="0"/>
         <v>351000</v>
       </c>
       <c r="K40" s="17">
-        <f>SUM(K2:K39)</f>
+        <f t="shared" si="0"/>
         <v>565000</v>
       </c>
       <c r="L40" s="17">
-        <f>SUM(L2:L39)</f>
+        <f t="shared" si="0"/>
         <v>161000</v>
       </c>
     </row>
@@ -44163,51 +46222,51 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
-        <f>A40*A44</f>
+        <f t="shared" ref="A42:L42" si="1">A40*A44</f>
         <v>133</v>
       </c>
       <c r="B42" s="18">
-        <f>B40*B44</f>
+        <f t="shared" si="1"/>
         <v>39.550000000000004</v>
       </c>
       <c r="C42" s="18">
-        <f>C40*C44</f>
+        <f t="shared" si="1"/>
         <v>17.75</v>
       </c>
       <c r="D42" s="18">
-        <f>D40*D44</f>
+        <f t="shared" si="1"/>
         <v>37.575000000000003</v>
       </c>
       <c r="E42" s="18">
-        <f>E40*E44</f>
+        <f t="shared" si="1"/>
         <v>36.75</v>
       </c>
       <c r="F42" s="18">
-        <f>F40*F44</f>
+        <f t="shared" si="1"/>
         <v>34.799999999999997</v>
       </c>
       <c r="G42" s="18">
-        <f>G40*G44</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H42" s="18">
-        <f>H40*H44</f>
+        <f t="shared" si="1"/>
         <v>44.999999999999993</v>
       </c>
       <c r="I42" s="18">
-        <f>I40*I44</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J42" s="18">
-        <f>J40*J44</f>
+        <f t="shared" si="1"/>
         <v>70.2</v>
       </c>
       <c r="K42" s="18">
-        <f>K40*K44</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="L42" s="18">
-        <f>L40*L44</f>
+        <f t="shared" si="1"/>
         <v>48.3</v>
       </c>
       <c r="N42" s="18">

--- a/data/sample_bs.xlsx
+++ b/data/sample_bs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreymarvel/Projects/bs_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E049DE-63A8-4A43-AB52-5B58B01D3F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BFF34-C938-FA49-A1A6-157E1BCA64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{5975144E-CF9B-8442-B451-9396CF3D45DA}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15760" xr2:uid="{08FDF762-5C88-894F-B85B-E1810BC8B830}"/>
   </bookViews>
   <sheets>
     <sheet name="bs" sheetId="1" r:id="rId1"/>
-    <sheet name="constraints" sheetId="2" r:id="rId2"/>
-    <sheet name="gsib" sheetId="3" r:id="rId3"/>
-    <sheet name="gsib_calibration" sheetId="4" r:id="rId4"/>
+    <sheet name="analysis" sheetId="5" r:id="rId2"/>
+    <sheet name="constraints" sheetId="2" r:id="rId3"/>
+    <sheet name="gsib" sheetId="3" r:id="rId4"/>
+    <sheet name="gsib_calibration" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>Product</t>
   </si>
@@ -330,6 +331,9 @@
     <t>Optimal_balance</t>
   </si>
   <si>
+    <t>TC</t>
+  </si>
+  <si>
     <t>GSIB surcharge</t>
   </si>
   <si>
@@ -377,12 +381,21 @@
   <si>
     <t>Senior Debt</t>
   </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
     <numFmt numFmtId="165" formatCode="0%;\-0%;\-"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
@@ -390,8 +403,9 @@
     <numFmt numFmtId="168" formatCode="#,##0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000000%"/>
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,20 +473,100 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -481,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,6 +618,57 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,13 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C859C2AE-61FB-4947-9EF3-3D4562E34A75}">
-  <dimension ref="A1:DP322"/>
+  <dimension ref="A1:DS322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AT31" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX52" sqref="AX52"/>
+    <sheetView tabSelected="1" topLeftCell="AL28" workbookViewId="0">
+      <selection activeCell="AS44" sqref="AS44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,11 +999,12 @@
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="45" max="45" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.83203125" customWidth="1"/>
+    <col min="47" max="47" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -986,43 +1129,52 @@
         <v>94</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AT1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB1" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="23" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1166,56 +1318,65 @@
         <v>1.4447967251274234E-4</v>
       </c>
       <c r="AQ2" s="23"/>
-      <c r="AR2" s="22">
+      <c r="AR2" s="6">
+        <v>15000</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>8000</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>-5000</v>
+      </c>
+      <c r="AU2" s="22">
         <v>10000.000003090319</v>
       </c>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="33">
-        <f>AO2*AR2</f>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="33">
+        <f>AO2*AU2</f>
         <v>9.6319781704927443E-5</v>
       </c>
-      <c r="AU2" s="31">
-        <f>$J2*$AR2*$AT$47</f>
+      <c r="AX2" s="31">
+        <f>$J2*$AU2*$AW$47</f>
         <v>1160.2203616561137</v>
       </c>
-      <c r="AV2" s="31">
-        <f>$J2*$AR2*$AT$48</f>
+      <c r="AY2" s="31">
+        <f>$I2*$AU2*$AW$47</f>
+        <v>232.04407233122274</v>
+      </c>
+      <c r="AZ2" s="31">
+        <f>$H2*$AU2*constraints!$B$4</f>
+        <v>750.00000023177392</v>
+      </c>
+      <c r="BA2" s="31">
+        <f>$J2*$AU2*$AW$48</f>
         <v>1310.2203617024684</v>
       </c>
-      <c r="AW2" s="31">
-        <f>$J2*$AR2*$AT$49</f>
+      <c r="BB2" s="31">
+        <f>$I2*$AU2*$AW$48</f>
+        <v>262.0440723404937</v>
+      </c>
+      <c r="BC2" s="31">
+        <f>$H2*$AU2*constraints!$C$4</f>
+        <v>950.00000029358034</v>
+      </c>
+      <c r="BD2" s="31">
+        <f>$J2*$AU2*$AW$49</f>
         <v>1510.2203617642747</v>
       </c>
-      <c r="AX2" s="31">
-        <f>$J2*$AR2*$AT$50</f>
+      <c r="BE2" s="31">
+        <f>$I2*$AU2*$AW$49</f>
+        <v>302.04407235285498</v>
+      </c>
+      <c r="BF2" s="31">
+        <f>$J2*$AU2*$AW$50</f>
         <v>2310.2203620115006</v>
       </c>
-      <c r="AY2" s="31">
-        <f>$I2*$AR2*$AT$47</f>
-        <v>232.04407233122274</v>
-      </c>
-      <c r="AZ2" s="31">
-        <f>$I2*$AR2*$AT$48</f>
-        <v>262.0440723404937</v>
-      </c>
-      <c r="BA2" s="31">
-        <f>$I2*$AR2*$AT$49</f>
-        <v>302.04407235285498</v>
-      </c>
-      <c r="BB2" s="31">
-        <f>$I2*$AR2*$AT$50</f>
+      <c r="BG2" s="31">
+        <f>$I2*$AU2*$AW$50</f>
         <v>462.04407240230012</v>
       </c>
-      <c r="BC2" s="31">
-        <f>$H2*$AR2*constraints!$B$4</f>
-        <v>750.00000023177392</v>
-      </c>
-      <c r="BD2" s="31">
-        <f>$H2*$AR2*constraints!$C$4</f>
-        <v>950.00000029358034</v>
-      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -1360,56 +1521,65 @@
         <v>3.8527912670064624E-5</v>
       </c>
       <c r="AQ3" s="23"/>
-      <c r="AR3" s="22">
+      <c r="AR3" s="7">
+        <v>4000</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>-1000</v>
+      </c>
+      <c r="AU3" s="22">
         <v>5999.9999993099746</v>
       </c>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="33">
-        <f t="shared" ref="AT3:AT41" si="3">AO3*AR3</f>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="33">
+        <f t="shared" ref="AW3:AW41" si="3">AO3*AU3</f>
         <v>5.7791868998450621E-5</v>
       </c>
-      <c r="AU3" s="31">
-        <f>$J3*$AR3*$AT$47</f>
+      <c r="AX3" s="31">
+        <f>$J3*$AU3*$AW$47</f>
         <v>696.13221669848292</v>
       </c>
-      <c r="AV3" s="31">
-        <f>$J3*$AR3*$AT$48</f>
+      <c r="AY3" s="31">
+        <f>$I3*$AU3*$AW$47</f>
+        <v>556.90577335878629</v>
+      </c>
+      <c r="AZ3" s="31">
+        <f>$H3*$AU3*constraints!$B$4</f>
+        <v>449.9999999482481</v>
+      </c>
+      <c r="BA3" s="31">
+        <f>$J3*$AU3*$AW$48</f>
         <v>786.13221668813253</v>
       </c>
-      <c r="AW3" s="31">
-        <f>$J3*$AR3*$AT$49</f>
+      <c r="BB3" s="31">
+        <f>$I3*$AU3*$AW$48</f>
+        <v>628.90577335050602</v>
+      </c>
+      <c r="BC3" s="31">
+        <f>$H3*$AU3*constraints!$C$4</f>
+        <v>569.9999999344476</v>
+      </c>
+      <c r="BD3" s="31">
+        <f>$J3*$AU3*$AW$49</f>
         <v>906.13221667433197</v>
       </c>
-      <c r="AX3" s="31">
-        <f>$J3*$AR3*$AT$50</f>
+      <c r="BE3" s="31">
+        <f>$I3*$AU3*$AW$49</f>
+        <v>724.90577333946555</v>
+      </c>
+      <c r="BF3" s="31">
+        <f>$J3*$AU3*$AW$50</f>
         <v>1386.1322166191301</v>
       </c>
-      <c r="AY3" s="31">
-        <f>$I3*$AR3*$AT$47</f>
-        <v>556.90577335878629</v>
-      </c>
-      <c r="AZ3" s="31">
-        <f>$I3*$AR3*$AT$48</f>
-        <v>628.90577335050602</v>
-      </c>
-      <c r="BA3" s="31">
-        <f>$I3*$AR3*$AT$49</f>
-        <v>724.90577333946555</v>
-      </c>
-      <c r="BB3" s="31">
-        <f>$I3*$AR3*$AT$50</f>
+      <c r="BG3" s="31">
+        <f>$I3*$AU3*$AW$50</f>
         <v>1108.905773295304</v>
       </c>
-      <c r="BC3" s="31">
-        <f>$H3*$AR3*constraints!$B$4</f>
-        <v>449.9999999482481</v>
-      </c>
-      <c r="BD3" s="31">
-        <f>$H3*$AR3*constraints!$C$4</f>
-        <v>569.9999999344476</v>
-      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A41" si="4">A3+1</f>
         <v>3</v>
@@ -1554,56 +1724,65 @@
         <v>4.8159890837580775E-4</v>
       </c>
       <c r="AQ4" s="23"/>
-      <c r="AR4" s="22">
+      <c r="AR4" s="7">
+        <v>50000</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>30000</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>-15000</v>
+      </c>
+      <c r="AU4" s="22">
         <v>79999.999992432131</v>
       </c>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="33">
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="33">
         <f t="shared" si="3"/>
         <v>7.7055825332839891E-4</v>
       </c>
-      <c r="AU4" s="31">
-        <f>$J4*$AR4*$AT$47</f>
+      <c r="AX4" s="31">
+        <f>$J4*$AU4*$AW$47</f>
         <v>4640.8814447512541</v>
       </c>
-      <c r="AV4" s="31">
-        <f>$J4*$AR4*$AT$48</f>
+      <c r="AY4" s="31">
+        <f>$I4*$AU4*$AW$47</f>
+        <v>2784.5288668507528</v>
+      </c>
+      <c r="AZ4" s="31">
+        <f>$H4*$AU4*constraints!$B$4</f>
+        <v>5999.9999994324098</v>
+      </c>
+      <c r="BA4" s="31">
+        <f>$J4*$AU4*$AW$48</f>
         <v>5240.8814446944953</v>
       </c>
-      <c r="AW4" s="31">
-        <f>$J4*$AR4*$AT$49</f>
+      <c r="BB4" s="31">
+        <f>$I4*$AU4*$AW$48</f>
+        <v>3144.5288668166972</v>
+      </c>
+      <c r="BC4" s="31">
+        <f>$H4*$AU4*constraints!$C$4</f>
+        <v>7599.9999992810526</v>
+      </c>
+      <c r="BD4" s="31">
+        <f>$J4*$AU4*$AW$49</f>
         <v>6040.8814446188162</v>
       </c>
-      <c r="AX4" s="31">
-        <f>$J4*$AR4*$AT$50</f>
+      <c r="BE4" s="31">
+        <f>$I4*$AU4*$AW$49</f>
+        <v>3624.5288667712898</v>
+      </c>
+      <c r="BF4" s="31">
+        <f>$J4*$AU4*$AW$50</f>
         <v>9240.8814443161027</v>
       </c>
-      <c r="AY4" s="31">
-        <f>$I4*$AR4*$AT$47</f>
-        <v>2784.5288668507528</v>
-      </c>
-      <c r="AZ4" s="31">
-        <f>$I4*$AR4*$AT$48</f>
-        <v>3144.5288668166972</v>
-      </c>
-      <c r="BA4" s="31">
-        <f>$I4*$AR4*$AT$49</f>
-        <v>3624.5288667712898</v>
-      </c>
-      <c r="BB4" s="31">
-        <f>$I4*$AR4*$AT$50</f>
+      <c r="BG4" s="31">
+        <f>$I4*$AU4*$AW$50</f>
         <v>5544.5288665896614</v>
       </c>
-      <c r="BC4" s="31">
-        <f>$H4*$AR4*constraints!$B$4</f>
-        <v>5999.9999994324098</v>
-      </c>
-      <c r="BD4" s="31">
-        <f>$H4*$AR4*constraints!$C$4</f>
-        <v>7599.9999992810526</v>
-      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1748,56 +1927,65 @@
         <v>1.4447967251274234E-4</v>
       </c>
       <c r="AQ5" s="23"/>
-      <c r="AR5" s="22">
+      <c r="AR5" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>-3000</v>
+      </c>
+      <c r="AU5" s="22">
         <v>22999.999995972019</v>
       </c>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="33">
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="33">
         <f t="shared" si="3"/>
         <v>2.2153549781407414E-4</v>
       </c>
-      <c r="AU5" s="31">
-        <f>$J5*$AR5*$AT$47</f>
+      <c r="AX5" s="31">
+        <f>$J5*$AU5*$AW$47</f>
         <v>1334.2534152585365</v>
       </c>
-      <c r="AV5" s="31">
-        <f>$J5*$AR5*$AT$48</f>
+      <c r="AY5" s="31">
+        <f>$I5*$AU5*$AW$47</f>
+        <v>800.55204915512184</v>
+      </c>
+      <c r="AZ5" s="31">
+        <f>$H5*$AU5*constraints!$B$4</f>
+        <v>1724.9999996979013</v>
+      </c>
+      <c r="BA5" s="31">
+        <f>$J5*$AU5*$AW$48</f>
         <v>1506.7534152283267</v>
       </c>
-      <c r="AW5" s="31">
-        <f>$J5*$AR5*$AT$49</f>
+      <c r="BB5" s="31">
+        <f>$I5*$AU5*$AW$48</f>
+        <v>904.05204913699595</v>
+      </c>
+      <c r="BC5" s="31">
+        <f>$H5*$AU5*constraints!$C$4</f>
+        <v>2184.9999996173419</v>
+      </c>
+      <c r="BD5" s="31">
+        <f>$J5*$AU5*$AW$49</f>
         <v>1736.7534151880468</v>
       </c>
-      <c r="AX5" s="31">
-        <f>$J5*$AR5*$AT$50</f>
+      <c r="BE5" s="31">
+        <f>$I5*$AU5*$AW$49</f>
+        <v>1042.0520491128279</v>
+      </c>
+      <c r="BF5" s="31">
+        <f>$J5*$AU5*$AW$50</f>
         <v>2656.7534150269275</v>
       </c>
-      <c r="AY5" s="31">
-        <f>$I5*$AR5*$AT$47</f>
-        <v>800.55204915512184</v>
-      </c>
-      <c r="AZ5" s="31">
-        <f>$I5*$AR5*$AT$48</f>
-        <v>904.05204913699595</v>
-      </c>
-      <c r="BA5" s="31">
-        <f>$I5*$AR5*$AT$49</f>
-        <v>1042.0520491128279</v>
-      </c>
-      <c r="BB5" s="31">
-        <f>$I5*$AR5*$AT$50</f>
+      <c r="BG5" s="31">
+        <f>$I5*$AU5*$AW$50</f>
         <v>1594.0520490161566</v>
       </c>
-      <c r="BC5" s="31">
-        <f>$H5*$AR5*constraints!$B$4</f>
-        <v>1724.9999996979013</v>
-      </c>
-      <c r="BD5" s="31">
-        <f>$H5*$AR5*constraints!$C$4</f>
-        <v>2184.9999996173419</v>
-      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1942,56 +2130,65 @@
         <v>4.8159890837580777E-5</v>
       </c>
       <c r="AQ6" s="23"/>
-      <c r="AR6" s="22">
+      <c r="AR6" s="7">
+        <v>5000</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>2500</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="AU6" s="22">
         <v>7499.9999952946664</v>
       </c>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="33">
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="33">
         <f t="shared" si="3"/>
         <v>7.2239836211049498E-5</v>
       </c>
-      <c r="AU6" s="31">
-        <f>$J6*$AR6*$AT$47</f>
+      <c r="AX6" s="31">
+        <f>$J6*$AU6*$AW$47</f>
         <v>435.08263521362699</v>
       </c>
-      <c r="AV6" s="31">
-        <f>$J6*$AR6*$AT$48</f>
+      <c r="AY6" s="31">
+        <f>$I6*$AU6*$AW$47</f>
+        <v>261.04958112817616</v>
+      </c>
+      <c r="AZ6" s="31">
+        <f>$H6*$AU6*constraints!$B$4</f>
+        <v>562.49999964709991</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>$J6*$AU6*$AW$48</f>
         <v>491.332635178337</v>
       </c>
-      <c r="AW6" s="31">
-        <f>$J6*$AR6*$AT$49</f>
+      <c r="BB6" s="31">
+        <f>$I6*$AU6*$AW$48</f>
+        <v>294.79958110700215</v>
+      </c>
+      <c r="BC6" s="31">
+        <f>$H6*$AU6*constraints!$C$4</f>
+        <v>712.49999955299336</v>
+      </c>
+      <c r="BD6" s="31">
+        <f>$J6*$AU6*$AW$49</f>
         <v>566.33263513128361</v>
       </c>
-      <c r="AX6" s="31">
-        <f>$J6*$AR6*$AT$50</f>
+      <c r="BE6" s="31">
+        <f>$I6*$AU6*$AW$49</f>
+        <v>339.79958107877013</v>
+      </c>
+      <c r="BF6" s="31">
+        <f>$J6*$AU6*$AW$50</f>
         <v>866.33263494307039</v>
       </c>
-      <c r="AY6" s="31">
-        <f>$I6*$AR6*$AT$47</f>
-        <v>261.04958112817616</v>
-      </c>
-      <c r="AZ6" s="31">
-        <f>$I6*$AR6*$AT$48</f>
-        <v>294.79958110700215</v>
-      </c>
-      <c r="BA6" s="31">
-        <f>$I6*$AR6*$AT$49</f>
-        <v>339.79958107877013</v>
-      </c>
-      <c r="BB6" s="31">
-        <f>$I6*$AR6*$AT$50</f>
+      <c r="BG6" s="31">
+        <f>$I6*$AU6*$AW$50</f>
         <v>519.7995809658421</v>
       </c>
-      <c r="BC6" s="31">
-        <f>$H6*$AR6*constraints!$B$4</f>
-        <v>562.49999964709991</v>
-      </c>
-      <c r="BD6" s="31">
-        <f>$H6*$AR6*constraints!$C$4</f>
-        <v>712.49999955299336</v>
-      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2136,56 +2333,65 @@
         <v>1.9263956335032311E-4</v>
       </c>
       <c r="AQ7" s="23"/>
-      <c r="AR7" s="22">
+      <c r="AR7" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>-4000</v>
+      </c>
+      <c r="AU7" s="22">
         <v>29999.999993983249</v>
       </c>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="33">
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="33">
         <f t="shared" si="3"/>
         <v>2.8895934496753147E-4</v>
       </c>
-      <c r="AU7" s="31">
-        <f>$J7*$AR7*$AT$47</f>
+      <c r="AX7" s="31">
+        <f>$J7*$AU7*$AW$47</f>
         <v>1740.330541597315</v>
       </c>
-      <c r="AV7" s="31">
-        <f>$J7*$AR7*$AT$48</f>
+      <c r="AY7" s="31">
+        <f>$I7*$AU7*$AW$47</f>
+        <v>1044.1983249583891</v>
+      </c>
+      <c r="AZ7" s="31">
+        <f>$H7*$AU7*constraints!$B$4</f>
+        <v>2249.9999995487437</v>
+      </c>
+      <c r="BA7" s="31">
+        <f>$J7*$AU7*$AW$48</f>
         <v>1965.3305415521893</v>
       </c>
-      <c r="AW7" s="31">
-        <f>$J7*$AR7*$AT$49</f>
+      <c r="BB7" s="31">
+        <f>$I7*$AU7*$AW$48</f>
+        <v>1179.1983249313137</v>
+      </c>
+      <c r="BC7" s="31">
+        <f>$H7*$AU7*constraints!$C$4</f>
+        <v>2849.9999994284085</v>
+      </c>
+      <c r="BD7" s="31">
+        <f>$J7*$AU7*$AW$49</f>
         <v>2265.3305414920214</v>
       </c>
-      <c r="AX7" s="31">
-        <f>$J7*$AR7*$AT$50</f>
+      <c r="BE7" s="31">
+        <f>$I7*$AU7*$AW$49</f>
+        <v>1359.1983248952131</v>
+      </c>
+      <c r="BF7" s="31">
+        <f>$J7*$AU7*$AW$50</f>
         <v>3465.3305412513519</v>
       </c>
-      <c r="AY7" s="31">
-        <f>$I7*$AR7*$AT$47</f>
-        <v>1044.1983249583891</v>
-      </c>
-      <c r="AZ7" s="31">
-        <f>$I7*$AR7*$AT$48</f>
-        <v>1179.1983249313137</v>
-      </c>
-      <c r="BA7" s="31">
-        <f>$I7*$AR7*$AT$49</f>
-        <v>1359.1983248952131</v>
-      </c>
-      <c r="BB7" s="31">
-        <f>$I7*$AR7*$AT$50</f>
+      <c r="BG7" s="31">
+        <f>$I7*$AU7*$AW$50</f>
         <v>2079.198324750811</v>
       </c>
-      <c r="BC7" s="31">
-        <f>$H7*$AR7*constraints!$B$4</f>
-        <v>2249.9999995487437</v>
-      </c>
-      <c r="BD7" s="31">
-        <f>$H7*$AR7*constraints!$C$4</f>
-        <v>2849.9999994284085</v>
-      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2330,56 +2536,65 @@
         <v>9.6319781675161553E-5</v>
       </c>
       <c r="AQ8" s="23"/>
-      <c r="AR8" s="22">
+      <c r="AR8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>3500</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="AU8" s="22">
         <v>13499.9999949756</v>
       </c>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="33">
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="33">
         <f t="shared" si="3"/>
         <v>1.3003170521307318E-4</v>
       </c>
-      <c r="AU8" s="31">
-        <f>$J8*$AR8*$AT$47</f>
+      <c r="AX8" s="31">
+        <f>$J8*$AU8*$AW$47</f>
         <v>783.14874358438817</v>
       </c>
-      <c r="AV8" s="31">
-        <f>$J8*$AR8*$AT$48</f>
+      <c r="AY8" s="31">
+        <f>$I8*$AU8*$AW$47</f>
+        <v>469.88924615063291</v>
+      </c>
+      <c r="AZ8" s="31">
+        <f>$H8*$AU8*constraints!$B$4</f>
+        <v>1012.49999962317</v>
+      </c>
+      <c r="BA8" s="31">
+        <f>$J8*$AU8*$AW$48</f>
         <v>884.39874354670519</v>
       </c>
-      <c r="AW8" s="31">
-        <f>$J8*$AR8*$AT$49</f>
+      <c r="BB8" s="31">
+        <f>$I8*$AU8*$AW$48</f>
+        <v>530.63924612802305</v>
+      </c>
+      <c r="BC8" s="31">
+        <f>$H8*$AU8*constraints!$C$4</f>
+        <v>1282.4999995226819</v>
+      </c>
+      <c r="BD8" s="31">
+        <f>$J8*$AU8*$AW$49</f>
         <v>1019.3987434964612</v>
       </c>
-      <c r="AX8" s="31">
-        <f>$J8*$AR8*$AT$50</f>
+      <c r="BE8" s="31">
+        <f>$I8*$AU8*$AW$49</f>
+        <v>611.63924609787671</v>
+      </c>
+      <c r="BF8" s="31">
+        <f>$J8*$AU8*$AW$50</f>
         <v>1559.3987432954852</v>
       </c>
-      <c r="AY8" s="31">
-        <f>$I8*$AR8*$AT$47</f>
-        <v>469.88924615063291</v>
-      </c>
-      <c r="AZ8" s="31">
-        <f>$I8*$AR8*$AT$48</f>
-        <v>530.63924612802305</v>
-      </c>
-      <c r="BA8" s="31">
-        <f>$I8*$AR8*$AT$49</f>
-        <v>611.63924609787671</v>
-      </c>
-      <c r="BB8" s="31">
-        <f>$I8*$AR8*$AT$50</f>
+      <c r="BG8" s="31">
+        <f>$I8*$AU8*$AW$50</f>
         <v>935.63924597729113</v>
       </c>
-      <c r="BC8" s="31">
-        <f>$H8*$AR8*constraints!$B$4</f>
-        <v>1012.49999962317</v>
-      </c>
-      <c r="BD8" s="31">
-        <f>$H8*$AR8*constraints!$C$4</f>
-        <v>1282.4999995226819</v>
-      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2524,56 +2739,65 @@
         <v>5.7791869005096935E-4</v>
       </c>
       <c r="AQ9" s="23"/>
-      <c r="AR9" s="22">
+      <c r="AR9" s="7">
+        <v>60000</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>-10000</v>
+      </c>
+      <c r="AU9" s="22">
         <v>79999.999999831722</v>
       </c>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="33">
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="33">
         <f t="shared" si="3"/>
         <v>7.7055825339967154E-4</v>
       </c>
-      <c r="AU9" s="31">
-        <f>$J9*$AR9*$AT$47</f>
+      <c r="AX9" s="31">
+        <f>$J9*$AU9*$AW$47</f>
         <v>9281.7628903610239</v>
       </c>
-      <c r="AV9" s="31">
-        <f>$J9*$AR9*$AT$48</f>
+      <c r="AY9" s="31">
+        <f>$I9*$AU9*$AW$47</f>
+        <v>11138.115468433229</v>
+      </c>
+      <c r="AZ9" s="31">
+        <f>$H9*$AU9*constraints!$B$4</f>
+        <v>5999.9999999873789</v>
+      </c>
+      <c r="BA9" s="31">
+        <f>$J9*$AU9*$AW$48</f>
         <v>10481.762890358499</v>
       </c>
-      <c r="AW9" s="31">
-        <f>$J9*$AR9*$AT$49</f>
+      <c r="BB9" s="31">
+        <f>$I9*$AU9*$AW$48</f>
+        <v>12578.1154684302</v>
+      </c>
+      <c r="BC9" s="31">
+        <f>$H9*$AU9*constraints!$C$4</f>
+        <v>7599.9999999840138</v>
+      </c>
+      <c r="BD9" s="31">
+        <f>$J9*$AU9*$AW$49</f>
         <v>12081.762890355134</v>
       </c>
-      <c r="AX9" s="31">
-        <f>$J9*$AR9*$AT$50</f>
+      <c r="BE9" s="31">
+        <f>$I9*$AU9*$AW$49</f>
+        <v>14498.11546842616</v>
+      </c>
+      <c r="BF9" s="31">
+        <f>$J9*$AU9*$AW$50</f>
         <v>18481.762890341673</v>
       </c>
-      <c r="AY9" s="31">
-        <f>$I9*$AR9*$AT$47</f>
-        <v>11138.115468433229</v>
-      </c>
-      <c r="AZ9" s="31">
-        <f>$I9*$AR9*$AT$48</f>
-        <v>12578.1154684302</v>
-      </c>
-      <c r="BA9" s="31">
-        <f>$I9*$AR9*$AT$49</f>
-        <v>14498.11546842616</v>
-      </c>
-      <c r="BB9" s="31">
-        <f>$I9*$AR9*$AT$50</f>
+      <c r="BG9" s="31">
+        <f>$I9*$AU9*$AW$50</f>
         <v>22178.115468410007</v>
       </c>
-      <c r="BC9" s="31">
-        <f>$H9*$AR9*constraints!$B$4</f>
-        <v>5999.9999999873789</v>
-      </c>
-      <c r="BD9" s="31">
-        <f>$H9*$AR9*constraints!$C$4</f>
-        <v>7599.9999999840138</v>
-      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2718,56 +2942,65 @@
         <v>1.4447967251274234E-4</v>
       </c>
       <c r="AQ10" s="23"/>
-      <c r="AR10" s="22">
+      <c r="AR10" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>2500</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="AU10" s="22">
         <v>17499.999999750329</v>
       </c>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="33">
-        <f t="shared" si="3"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="33">
+        <f>AO10*AU10</f>
         <v>1.6855961792912788E-4</v>
       </c>
-      <c r="AU10" s="31">
-        <f>$J10*$AR10*$AT$47</f>
+      <c r="AX10" s="31">
+        <f>$J10*$AU10*$AW$47</f>
         <v>2030.3856322417776</v>
       </c>
-      <c r="AV10" s="31">
-        <f>$J10*$AR10*$AT$48</f>
+      <c r="AY10" s="31">
+        <f>$I10*$AU10*$AW$47</f>
+        <v>1928.8663506296884</v>
+      </c>
+      <c r="AZ10" s="31">
+        <f>$H10*$AU10*constraints!$B$4</f>
+        <v>1312.4999999812746</v>
+      </c>
+      <c r="BA10" s="31">
+        <f>$J10*$AU10*$AW$48</f>
         <v>2292.8856322380325</v>
       </c>
-      <c r="AW10" s="31">
-        <f>$J10*$AR10*$AT$49</f>
+      <c r="BB10" s="31">
+        <f>$I10*$AU10*$AW$48</f>
+        <v>2178.2413506261305</v>
+      </c>
+      <c r="BC10" s="31">
+        <f>$H10*$AU10*constraints!$C$4</f>
+        <v>1662.4999999762813</v>
+      </c>
+      <c r="BD10" s="31">
+        <f>$J10*$AU10*$AW$49</f>
         <v>2642.8856322330389</v>
       </c>
-      <c r="AX10" s="31">
-        <f>$J10*$AR10*$AT$50</f>
+      <c r="BE10" s="31">
+        <f>$I10*$AU10*$AW$49</f>
+        <v>2510.7413506213866</v>
+      </c>
+      <c r="BF10" s="31">
+        <f>$J10*$AU10*$AW$50</f>
         <v>4042.8856322130655</v>
       </c>
-      <c r="AY10" s="31">
-        <f>$I10*$AR10*$AT$47</f>
-        <v>1928.8663506296884</v>
-      </c>
-      <c r="AZ10" s="31">
-        <f>$I10*$AR10*$AT$48</f>
-        <v>2178.2413506261305</v>
-      </c>
-      <c r="BA10" s="31">
-        <f>$I10*$AR10*$AT$49</f>
-        <v>2510.7413506213866</v>
-      </c>
-      <c r="BB10" s="31">
-        <f>$I10*$AR10*$AT$50</f>
+      <c r="BG10" s="31">
+        <f>$I10*$AU10*$AW$50</f>
         <v>3840.7413506024118</v>
       </c>
-      <c r="BC10" s="31">
-        <f>$H10*$AR10*constraints!$B$4</f>
-        <v>1312.4999999812746</v>
-      </c>
-      <c r="BD10" s="31">
-        <f>$H10*$AR10*constraints!$C$4</f>
-        <v>1662.4999999762813</v>
-      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2912,56 +3145,65 @@
         <v>2.7451137777421042E-4</v>
       </c>
       <c r="AQ11" s="23"/>
-      <c r="AR11" s="22">
+      <c r="AR11" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>-5000</v>
+      </c>
+      <c r="AU11" s="22">
         <v>32166.77245667743</v>
       </c>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="33">
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="33">
         <f t="shared" si="3"/>
         <v>4.4150725128160224E-4</v>
       </c>
-      <c r="AU11" s="31">
-        <f>$J11*$AR11*$AT$47</f>
+      <c r="AX11" s="31">
+        <f>$J11*$AU11*$AW$47</f>
         <v>3918.6571579536117</v>
       </c>
-      <c r="AV11" s="31">
-        <f>$J11*$AR11*$AT$48</f>
+      <c r="AY11" s="31">
+        <f>$I11*$AU11*$AW$47</f>
+        <v>2799.0408271097226</v>
+      </c>
+      <c r="AZ11" s="31">
+        <f>$H11*$AU11*constraints!$B$4</f>
+        <v>2412.507934250807</v>
+      </c>
+      <c r="BA11" s="31">
+        <f>$J11*$AU11*$AW$48</f>
         <v>4425.2838241462814</v>
       </c>
-      <c r="AW11" s="31">
-        <f>$J11*$AR11*$AT$49</f>
+      <c r="BB11" s="31">
+        <f>$I11*$AU11*$AW$48</f>
+        <v>3160.9170172473437</v>
+      </c>
+      <c r="BC11" s="31">
+        <f>$H11*$AU11*constraints!$C$4</f>
+        <v>3055.843383384356</v>
+      </c>
+      <c r="BD11" s="31">
+        <f>$J11*$AU11*$AW$49</f>
         <v>5100.7860457365068</v>
       </c>
-      <c r="AX11" s="31">
-        <f>$J11*$AR11*$AT$50</f>
+      <c r="BE11" s="31">
+        <f>$I11*$AU11*$AW$49</f>
+        <v>3643.4186040975046</v>
+      </c>
+      <c r="BF11" s="31">
+        <f>$J11*$AU11*$AW$50</f>
         <v>7802.7949320974121</v>
       </c>
-      <c r="AY11" s="31">
-        <f>$I11*$AR11*$AT$47</f>
-        <v>2799.0408271097226</v>
-      </c>
-      <c r="AZ11" s="31">
-        <f>$I11*$AR11*$AT$48</f>
-        <v>3160.9170172473437</v>
-      </c>
-      <c r="BA11" s="31">
-        <f>$I11*$AR11*$AT$49</f>
-        <v>3643.4186040975046</v>
-      </c>
-      <c r="BB11" s="31">
-        <f>$I11*$AR11*$AT$50</f>
+      <c r="BG11" s="31">
+        <f>$I11*$AU11*$AW$50</f>
         <v>5573.4249514981511</v>
       </c>
-      <c r="BC11" s="31">
-        <f>$H11*$AR11*constraints!$B$4</f>
-        <v>2412.507934250807</v>
-      </c>
-      <c r="BD11" s="31">
-        <f>$H11*$AR11*constraints!$C$4</f>
-        <v>3055.843383384356</v>
-      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3106,56 +3348,65 @@
         <v>8.8734598868242575E-4</v>
       </c>
       <c r="AQ12" s="23"/>
-      <c r="AR12" s="22">
+      <c r="AR12" s="7">
+        <v>55000</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>-8500</v>
+      </c>
+      <c r="AU12" s="22">
         <v>46500.000010577751</v>
       </c>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="33">
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="33">
         <f t="shared" si="3"/>
         <v>7.5021069969307135E-4</v>
       </c>
-      <c r="AU12" s="31">
-        <f>$J12*$AR12*$AT$47</f>
+      <c r="AX12" s="31">
+        <f>$J12*$AU12*$AW$47</f>
         <v>5395.0246812609457</v>
       </c>
-      <c r="AV12" s="31">
-        <f>$J12*$AR12*$AT$48</f>
+      <c r="AY12" s="31">
+        <f>$I12*$AU12*$AW$47</f>
+        <v>3776.5172768826615</v>
+      </c>
+      <c r="AZ12" s="31">
+        <f>$H12*$AU12*constraints!$B$4</f>
+        <v>3487.5000007933313</v>
+      </c>
+      <c r="BA12" s="31">
+        <f>$J12*$AU12*$AW$48</f>
         <v>6092.5246814196125</v>
       </c>
-      <c r="AW12" s="31">
-        <f>$J12*$AR12*$AT$49</f>
+      <c r="BB12" s="31">
+        <f>$I12*$AU12*$AW$48</f>
+        <v>4264.767276993728</v>
+      </c>
+      <c r="BC12" s="31">
+        <f>$H12*$AU12*constraints!$C$4</f>
+        <v>4417.5000010048861</v>
+      </c>
+      <c r="BD12" s="31">
+        <f>$J12*$AU12*$AW$49</f>
         <v>7022.5246816311665</v>
       </c>
-      <c r="AX12" s="31">
-        <f>$J12*$AR12*$AT$50</f>
+      <c r="BE12" s="31">
+        <f>$I12*$AU12*$AW$49</f>
+        <v>4915.7672771418165</v>
+      </c>
+      <c r="BF12" s="31">
+        <f>$J12*$AU12*$AW$50</f>
         <v>10742.524682477388</v>
       </c>
-      <c r="AY12" s="31">
-        <f>$I12*$AR12*$AT$47</f>
-        <v>3776.5172768826615</v>
-      </c>
-      <c r="AZ12" s="31">
-        <f>$I12*$AR12*$AT$48</f>
-        <v>4264.767276993728</v>
-      </c>
-      <c r="BA12" s="31">
-        <f>$I12*$AR12*$AT$49</f>
-        <v>4915.7672771418165</v>
-      </c>
-      <c r="BB12" s="31">
-        <f>$I12*$AR12*$AT$50</f>
+      <c r="BG12" s="31">
+        <f>$I12*$AU12*$AW$50</f>
         <v>7519.7672777341704</v>
       </c>
-      <c r="BC12" s="31">
-        <f>$H12*$AR12*constraints!$B$4</f>
-        <v>3487.5000007933313</v>
-      </c>
-      <c r="BD12" s="31">
-        <f>$H12*$AR12*constraints!$C$4</f>
-        <v>4417.5000010048861</v>
-      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3300,56 +3551,65 @@
         <v>7.2239836256371166E-4</v>
       </c>
       <c r="AQ13" s="23"/>
-      <c r="AR13" s="22">
+      <c r="AR13" s="7">
+        <v>40000</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>-12000</v>
+      </c>
+      <c r="AU13" s="22">
         <v>28000.000003243458</v>
       </c>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="33">
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="33">
         <f t="shared" si="3"/>
         <v>5.0567885385317487E-4</v>
       </c>
-      <c r="AU13" s="31">
-        <f>$J13*$AR13*$AT$47</f>
+      <c r="AX13" s="31">
+        <f>$J13*$AU13*$AW$47</f>
         <v>3476.0202028501699</v>
       </c>
-      <c r="AV13" s="31">
-        <f>$J13*$AR13*$AT$48</f>
+      <c r="AY13" s="31">
+        <f>$I13*$AU13*$AW$47</f>
+        <v>2436.4627590071282</v>
+      </c>
+      <c r="AZ13" s="31">
+        <f>$H13*$AU13*constraints!$B$4</f>
+        <v>2100.0000002432594</v>
+      </c>
+      <c r="BA13" s="31">
+        <f>$J13*$AU13*$AW$48</f>
         <v>3925.4202029022272</v>
       </c>
-      <c r="AW13" s="31">
-        <f>$J13*$AR13*$AT$49</f>
+      <c r="BB13" s="31">
+        <f>$I13*$AU13*$AW$48</f>
+        <v>2751.4627590436171</v>
+      </c>
+      <c r="BC13" s="31">
+        <f>$H13*$AU13*constraints!$C$4</f>
+        <v>2660.0000003081286</v>
+      </c>
+      <c r="BD13" s="31">
+        <f>$J13*$AU13*$AW$49</f>
         <v>4524.6202029716369</v>
       </c>
-      <c r="AX13" s="31">
-        <f>$J13*$AR13*$AT$50</f>
+      <c r="BE13" s="31">
+        <f>$I13*$AU13*$AW$49</f>
+        <v>3171.4627590922687</v>
+      </c>
+      <c r="BF13" s="31">
+        <f>$J13*$AU13*$AW$50</f>
         <v>6921.4202032492776</v>
       </c>
-      <c r="AY13" s="31">
-        <f>$I13*$AR13*$AT$47</f>
-        <v>2436.4627590071282</v>
-      </c>
-      <c r="AZ13" s="31">
-        <f>$I13*$AR13*$AT$48</f>
-        <v>2751.4627590436171</v>
-      </c>
-      <c r="BA13" s="31">
-        <f>$I13*$AR13*$AT$49</f>
-        <v>3171.4627590922687</v>
-      </c>
-      <c r="BB13" s="31">
-        <f>$I13*$AR13*$AT$50</f>
+      <c r="BG13" s="31">
+        <f>$I13*$AU13*$AW$50</f>
         <v>4851.4627592868765</v>
       </c>
-      <c r="BC13" s="31">
-        <f>$H13*$AR13*constraints!$B$4</f>
-        <v>2100.0000002432594</v>
-      </c>
-      <c r="BD13" s="31">
-        <f>$H13*$AR13*constraints!$C$4</f>
-        <v>2660.0000003081286</v>
-      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3494,56 +3754,65 @@
         <v>2.094955251434764E-3</v>
       </c>
       <c r="AQ14" s="23"/>
-      <c r="AR14" s="22">
+      <c r="AR14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>40000</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>-15000</v>
+      </c>
+      <c r="AU14" s="22">
         <v>85000.000002869579</v>
       </c>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="33">
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="33">
         <f t="shared" si="3"/>
         <v>1.7807119637796658E-3</v>
       </c>
-      <c r="AU14" s="31">
-        <f>$J14*$AR14*$AT$47</f>
+      <c r="AX14" s="31">
+        <f>$J14*$AU14*$AW$47</f>
         <v>9861.8730713622663</v>
       </c>
-      <c r="AV14" s="31">
-        <f>$J14*$AR14*$AT$48</f>
+      <c r="AY14" s="31">
+        <f>$I14*$AU14*$AW$47</f>
+        <v>6410.2174963854741</v>
+      </c>
+      <c r="AZ14" s="31">
+        <f>$H14*$AU14*constraints!$B$4</f>
+        <v>6375.0000002152183</v>
+      </c>
+      <c r="BA14" s="31">
+        <f>$J14*$AU14*$AW$48</f>
         <v>11136.873071405311</v>
       </c>
-      <c r="AW14" s="31">
-        <f>$J14*$AR14*$AT$49</f>
+      <c r="BB14" s="31">
+        <f>$I14*$AU14*$AW$48</f>
+        <v>7238.967496413452</v>
+      </c>
+      <c r="BC14" s="31">
+        <f>$H14*$AU14*constraints!$C$4</f>
+        <v>8075.0000002726101</v>
+      </c>
+      <c r="BD14" s="31">
+        <f>$J14*$AU14*$AW$49</f>
         <v>12836.873071462702</v>
       </c>
-      <c r="AX14" s="31">
-        <f>$J14*$AR14*$AT$50</f>
+      <c r="BE14" s="31">
+        <f>$I14*$AU14*$AW$49</f>
+        <v>8343.9674964507558</v>
+      </c>
+      <c r="BF14" s="31">
+        <f>$J14*$AU14*$AW$50</f>
         <v>19636.873071692269</v>
       </c>
-      <c r="AY14" s="31">
-        <f>$I14*$AR14*$AT$47</f>
-        <v>6410.2174963854741</v>
-      </c>
-      <c r="AZ14" s="31">
-        <f>$I14*$AR14*$AT$48</f>
-        <v>7238.967496413452</v>
-      </c>
-      <c r="BA14" s="31">
-        <f>$I14*$AR14*$AT$49</f>
-        <v>8343.9674964507558</v>
-      </c>
-      <c r="BB14" s="31">
-        <f>$I14*$AR14*$AT$50</f>
+      <c r="BG14" s="31">
+        <f>$I14*$AU14*$AW$50</f>
         <v>12763.967496599975</v>
       </c>
-      <c r="BC14" s="31">
-        <f>$H14*$AR14*constraints!$B$4</f>
-        <v>6375.0000002152183</v>
-      </c>
-      <c r="BD14" s="31">
-        <f>$H14*$AR14*constraints!$C$4</f>
-        <v>8075.0000002726101</v>
-      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -3688,56 +3957,65 @@
         <v>4.1224866556969142E-3</v>
       </c>
       <c r="AQ15" s="23"/>
-      <c r="AR15" s="22">
+      <c r="AR15" s="8">
+        <v>80000</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>25000</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>-10000</v>
+      </c>
+      <c r="AU15" s="22">
         <v>104999.9999979961</v>
       </c>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="33">
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="33">
         <f t="shared" si="3"/>
         <v>5.4107637354989368E-3</v>
       </c>
-      <c r="AU15" s="31">
-        <f>$J15*$AR15*$AT$47</f>
+      <c r="AX15" s="31">
+        <f>$J15*$AU15*$AW$47</f>
         <v>6700.272586365586</v>
       </c>
-      <c r="AV15" s="31">
-        <f>$J15*$AR15*$AT$48</f>
+      <c r="AY15" s="31">
+        <f>$I15*$AU15*$AW$47</f>
+        <v>4872.9255173567899</v>
+      </c>
+      <c r="AZ15" s="31">
+        <f>$H15*$AU15*constraints!$B$4</f>
+        <v>7874.9999998497069</v>
+      </c>
+      <c r="BA15" s="31">
+        <f>$J15*$AU15*$AW$48</f>
         <v>7566.5225863490532</v>
       </c>
-      <c r="AW15" s="31">
-        <f>$J15*$AR15*$AT$49</f>
+      <c r="BB15" s="31">
+        <f>$I15*$AU15*$AW$48</f>
+        <v>5502.9255173447664</v>
+      </c>
+      <c r="BC15" s="31">
+        <f>$H15*$AU15*constraints!$C$4</f>
+        <v>9974.99999980963</v>
+      </c>
+      <c r="BD15" s="31">
+        <f>$J15*$AU15*$AW$49</f>
         <v>8721.5225863270098</v>
       </c>
-      <c r="AX15" s="31">
-        <f>$J15*$AR15*$AT$50</f>
+      <c r="BE15" s="31">
+        <f>$I15*$AU15*$AW$49</f>
+        <v>6342.9255173287347</v>
+      </c>
+      <c r="BF15" s="31">
+        <f>$J15*$AU15*$AW$50</f>
         <v>13341.52258623884</v>
       </c>
-      <c r="AY15" s="31">
-        <f>$I15*$AR15*$AT$47</f>
-        <v>4872.9255173567899</v>
-      </c>
-      <c r="AZ15" s="31">
-        <f>$I15*$AR15*$AT$48</f>
-        <v>5502.9255173447664</v>
-      </c>
-      <c r="BA15" s="31">
-        <f>$I15*$AR15*$AT$49</f>
-        <v>6342.9255173287347</v>
-      </c>
-      <c r="BB15" s="31">
-        <f>$I15*$AR15*$AT$50</f>
+      <c r="BG15" s="31">
+        <f>$I15*$AU15*$AW$50</f>
         <v>9702.9255172646117</v>
       </c>
-      <c r="BC15" s="31">
-        <f>$H15*$AR15*constraints!$B$4</f>
-        <v>7874.9999998497069</v>
-      </c>
-      <c r="BD15" s="31">
-        <f>$H15*$AR15*constraints!$C$4</f>
-        <v>9974.99999980963</v>
-      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -3882,56 +4160,65 @@
         <v>3.3952723040494449E-3</v>
       </c>
       <c r="AQ16" s="23"/>
-      <c r="AR16" s="22">
+      <c r="AR16" s="8">
+        <v>60000</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>-12000</v>
+      </c>
+      <c r="AU16" s="22">
         <v>74999.999998053099</v>
       </c>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="33">
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="33">
         <f t="shared" si="3"/>
         <v>4.2440903799516351E-3</v>
       </c>
-      <c r="AU16" s="31">
-        <f>$J16*$AR16*$AT$47</f>
+      <c r="AX16" s="31">
+        <f>$J16*$AU16*$AW$47</f>
         <v>3915.7437192776461</v>
       </c>
-      <c r="AV16" s="31">
-        <f>$J16*$AR16*$AT$48</f>
+      <c r="AY16" s="31">
+        <f>$I16*$AU16*$AW$47</f>
+        <v>4350.8263547529405</v>
+      </c>
+      <c r="AZ16" s="31">
+        <f>$H16*$AU16*constraints!$B$4</f>
+        <v>5624.9999998539824</v>
+      </c>
+      <c r="BA16" s="31">
+        <f>$J16*$AU16*$AW$48</f>
         <v>4421.9937192645048</v>
       </c>
-      <c r="AW16" s="31">
-        <f>$J16*$AR16*$AT$49</f>
+      <c r="BB16" s="31">
+        <f>$I16*$AU16*$AW$48</f>
+        <v>4913.3263547383385</v>
+      </c>
+      <c r="BC16" s="31">
+        <f>$H16*$AU16*constraints!$C$4</f>
+        <v>7124.9999998150442</v>
+      </c>
+      <c r="BD16" s="31">
+        <f>$J16*$AU16*$AW$49</f>
         <v>5096.9937192469824</v>
       </c>
-      <c r="AX16" s="31">
-        <f>$J16*$AR16*$AT$50</f>
+      <c r="BE16" s="31">
+        <f>$I16*$AU16*$AW$49</f>
+        <v>5663.326354718869</v>
+      </c>
+      <c r="BF16" s="31">
+        <f>$J16*$AU16*$AW$50</f>
         <v>7796.993719176894</v>
       </c>
-      <c r="AY16" s="31">
-        <f>$I16*$AR16*$AT$47</f>
-        <v>4350.8263547529405</v>
-      </c>
-      <c r="AZ16" s="31">
-        <f>$I16*$AR16*$AT$48</f>
-        <v>4913.3263547383385</v>
-      </c>
-      <c r="BA16" s="31">
-        <f>$I16*$AR16*$AT$49</f>
-        <v>5663.326354718869</v>
-      </c>
-      <c r="BB16" s="31">
-        <f>$I16*$AR16*$AT$50</f>
+      <c r="BG16" s="31">
+        <f>$I16*$AU16*$AW$50</f>
         <v>8663.3263546409944</v>
       </c>
-      <c r="BC16" s="31">
-        <f>$H16*$AR16*constraints!$B$4</f>
-        <v>5624.9999998539824</v>
-      </c>
-      <c r="BD16" s="31">
-        <f>$H16*$AR16*constraints!$C$4</f>
-        <v>7124.9999998150442</v>
-      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4076,56 +4363,65 @@
         <v>7.0975639121884674E-3</v>
       </c>
       <c r="AQ17" s="23"/>
-      <c r="AR17" s="22">
+      <c r="AR17" s="8">
+        <v>75000</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>-10000</v>
+      </c>
+      <c r="AU17" s="22">
         <v>94999.999998706335</v>
       </c>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="33">
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="33">
         <f t="shared" si="3"/>
         <v>8.9902476219829667E-3</v>
       </c>
-      <c r="AU17" s="31">
-        <f>$J17*$AR17*$AT$47</f>
+      <c r="AX17" s="31">
+        <f>$J17*$AU17*$AW$47</f>
         <v>4959.9420444795633</v>
       </c>
-      <c r="AV17" s="31">
-        <f>$J17*$AR17*$AT$48</f>
+      <c r="AY17" s="31">
+        <f>$I17*$AU17*$AW$47</f>
+        <v>4408.8373728707229</v>
+      </c>
+      <c r="AZ17" s="31">
+        <f>$H17*$AU17*constraints!$B$4</f>
+        <v>7124.9999999029751</v>
+      </c>
+      <c r="BA17" s="31">
+        <f>$J17*$AU17*$AW$48</f>
         <v>5601.1920444708312</v>
       </c>
-      <c r="AW17" s="31">
-        <f>$J17*$AR17*$AT$49</f>
+      <c r="BB17" s="31">
+        <f>$I17*$AU17*$AW$48</f>
+        <v>4978.8373728629613</v>
+      </c>
+      <c r="BC17" s="31">
+        <f>$H17*$AU17*constraints!$C$4</f>
+        <v>9024.9999998771018</v>
+      </c>
+      <c r="BD17" s="31">
+        <f>$J17*$AU17*$AW$49</f>
         <v>6456.1920444591879</v>
       </c>
-      <c r="AX17" s="31">
-        <f>$J17*$AR17*$AT$50</f>
+      <c r="BE17" s="31">
+        <f>$I17*$AU17*$AW$49</f>
+        <v>5738.8373728526112</v>
+      </c>
+      <c r="BF17" s="31">
+        <f>$J17*$AU17*$AW$50</f>
         <v>9876.1920444126172</v>
       </c>
-      <c r="AY17" s="31">
-        <f>$I17*$AR17*$AT$47</f>
-        <v>4408.8373728707229</v>
-      </c>
-      <c r="AZ17" s="31">
-        <f>$I17*$AR17*$AT$48</f>
-        <v>4978.8373728629613</v>
-      </c>
-      <c r="BA17" s="31">
-        <f>$I17*$AR17*$AT$49</f>
-        <v>5738.8373728526112</v>
-      </c>
-      <c r="BB17" s="31">
-        <f>$I17*$AR17*$AT$50</f>
+      <c r="BG17" s="31">
+        <f>$I17*$AU17*$AW$50</f>
         <v>8778.8373728112147</v>
       </c>
-      <c r="BC17" s="31">
-        <f>$H17*$AR17*constraints!$B$4</f>
-        <v>7124.9999999029751</v>
-      </c>
-      <c r="BD17" s="31">
-        <f>$H17*$AR17*constraints!$C$4</f>
-        <v>9024.9999998771018</v>
-      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4270,56 +4566,65 @@
         <v>2.802905646747201E-3</v>
       </c>
       <c r="AQ18" s="23"/>
-      <c r="AR18" s="22">
+      <c r="AR18" s="8">
+        <v>30000</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>4000</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>-2500</v>
+      </c>
+      <c r="AU18" s="22">
         <v>33999.999999297688</v>
       </c>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="33">
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="33">
         <f t="shared" si="3"/>
         <v>3.1766263995812102E-3</v>
       </c>
-      <c r="AU18" s="31">
-        <f>$J18*$AR18*$AT$47</f>
+      <c r="AX18" s="31">
+        <f>$J18*$AU18*$AW$47</f>
         <v>2169.6120755816373</v>
       </c>
-      <c r="AV18" s="31">
-        <f>$J18*$AR18*$AT$48</f>
+      <c r="AY18" s="31">
+        <f>$I18*$AU18*$AW$47</f>
+        <v>1972.3746141651247</v>
+      </c>
+      <c r="AZ18" s="31">
+        <f>$H18*$AU18*constraints!$B$4</f>
+        <v>2549.9999999473266</v>
+      </c>
+      <c r="BA18" s="31">
+        <f>$J18*$AU18*$AW$48</f>
         <v>2450.1120755758434</v>
       </c>
-      <c r="AW18" s="31">
-        <f>$J18*$AR18*$AT$49</f>
+      <c r="BB18" s="31">
+        <f>$I18*$AU18*$AW$48</f>
+        <v>2227.3746141598572</v>
+      </c>
+      <c r="BC18" s="31">
+        <f>$H18*$AU18*constraints!$C$4</f>
+        <v>3229.9999999332804</v>
+      </c>
+      <c r="BD18" s="31">
+        <f>$J18*$AU18*$AW$49</f>
         <v>2824.1120755681177</v>
       </c>
-      <c r="AX18" s="31">
-        <f>$J18*$AR18*$AT$50</f>
+      <c r="BE18" s="31">
+        <f>$I18*$AU18*$AW$49</f>
+        <v>2567.3746141528341</v>
+      </c>
+      <c r="BF18" s="31">
+        <f>$J18*$AU18*$AW$50</f>
         <v>4320.1120755372167</v>
       </c>
-      <c r="AY18" s="31">
-        <f>$I18*$AR18*$AT$47</f>
-        <v>1972.3746141651247</v>
-      </c>
-      <c r="AZ18" s="31">
-        <f>$I18*$AR18*$AT$48</f>
-        <v>2227.3746141598572</v>
-      </c>
-      <c r="BA18" s="31">
-        <f>$I18*$AR18*$AT$49</f>
-        <v>2567.3746141528341</v>
-      </c>
-      <c r="BB18" s="31">
-        <f>$I18*$AR18*$AT$50</f>
+      <c r="BG18" s="31">
+        <f>$I18*$AU18*$AW$50</f>
         <v>3927.374614124742</v>
       </c>
-      <c r="BC18" s="31">
-        <f>$H18*$AR18*constraints!$B$4</f>
-        <v>2549.9999999473266</v>
-      </c>
-      <c r="BD18" s="31">
-        <f>$H18*$AR18*constraints!$C$4</f>
-        <v>3229.9999999332804</v>
-      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4464,56 +4769,65 @@
         <v>1.8902757153750455E-3</v>
       </c>
       <c r="AQ19" s="23"/>
-      <c r="AR19" s="22">
+      <c r="AR19" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AT19" s="8">
+        <v>-300</v>
+      </c>
+      <c r="AU19" s="22">
         <v>12999.999999539241</v>
       </c>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="33">
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="33">
         <f t="shared" si="3"/>
         <v>2.4573584299004631E-3</v>
       </c>
-      <c r="AU19" s="31">
-        <f>$J19*$AR19*$AT$47</f>
+      <c r="AX19" s="31">
+        <f>$J19*$AU19*$AW$47</f>
         <v>603.31458785335235</v>
       </c>
-      <c r="AV19" s="31">
-        <f>$J19*$AR19*$AT$48</f>
+      <c r="AY19" s="31">
+        <f>$I19*$AU19*$AW$47</f>
+        <v>301.65729392667618</v>
+      </c>
+      <c r="AZ19" s="31">
+        <f>$H19*$AU19*constraints!$B$4</f>
+        <v>974.99999996544307</v>
+      </c>
+      <c r="BA19" s="31">
+        <f>$J19*$AU19*$AW$48</f>
         <v>681.31458785058783</v>
       </c>
-      <c r="AW19" s="31">
-        <f>$J19*$AR19*$AT$49</f>
+      <c r="BB19" s="31">
+        <f>$I19*$AU19*$AW$48</f>
+        <v>340.65729392529391</v>
+      </c>
+      <c r="BC19" s="31">
+        <f>$H19*$AU19*constraints!$C$4</f>
+        <v>1234.9999999562278</v>
+      </c>
+      <c r="BD19" s="31">
+        <f>$J19*$AU19*$AW$49</f>
         <v>785.31458784690165</v>
       </c>
-      <c r="AX19" s="31">
-        <f>$J19*$AR19*$AT$50</f>
+      <c r="BE19" s="31">
+        <f>$I19*$AU19*$AW$49</f>
+        <v>392.65729392345082</v>
+      </c>
+      <c r="BF19" s="31">
+        <f>$J19*$AU19*$AW$50</f>
         <v>1201.3145878321575</v>
       </c>
-      <c r="AY19" s="31">
-        <f>$I19*$AR19*$AT$47</f>
-        <v>301.65729392667618</v>
-      </c>
-      <c r="AZ19" s="31">
-        <f>$I19*$AR19*$AT$48</f>
-        <v>340.65729392529391</v>
-      </c>
-      <c r="BA19" s="31">
-        <f>$I19*$AR19*$AT$49</f>
-        <v>392.65729392345082</v>
-      </c>
-      <c r="BB19" s="31">
-        <f>$I19*$AR19*$AT$50</f>
+      <c r="BG19" s="31">
+        <f>$I19*$AU19*$AW$50</f>
         <v>600.65729391607874</v>
       </c>
-      <c r="BC19" s="31">
-        <f>$H19*$AR19*constraints!$B$4</f>
-        <v>974.99999996544307</v>
-      </c>
-      <c r="BD19" s="31">
-        <f>$H19*$AR19*constraints!$C$4</f>
-        <v>1234.9999999562278</v>
-      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4658,56 +4972,65 @@
         <v>5.4300276919372326E-4</v>
       </c>
       <c r="AQ20" s="23"/>
-      <c r="AR20" s="22">
+      <c r="AR20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>500</v>
+      </c>
+      <c r="AT20" s="8">
+        <v>-250</v>
+      </c>
+      <c r="AU20" s="22">
         <v>1499.9999998170979</v>
       </c>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="33">
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="33">
         <f t="shared" si="3"/>
         <v>8.1450415369126845E-4</v>
       </c>
-      <c r="AU20" s="31">
-        <f>$J20*$AR20*$AT$47</f>
+      <c r="AX20" s="31">
+        <f>$J20*$AU20*$AW$47</f>
         <v>8.701652708670732</v>
       </c>
-      <c r="AV20" s="31">
-        <f>$J20*$AR20*$AT$48</f>
+      <c r="AY20" s="31">
+        <f>$I20*$AU20*$AW$47</f>
+        <v>8.701652708670732</v>
+      </c>
+      <c r="AZ20" s="31">
+        <f>$H20*$AU20*constraints!$B$4</f>
+        <v>112.49999998628233</v>
+      </c>
+      <c r="BA20" s="31">
+        <f>$J20*$AU20*$AW$48</f>
         <v>9.8266527085335547</v>
       </c>
-      <c r="AW20" s="31">
-        <f>$J20*$AR20*$AT$49</f>
+      <c r="BB20" s="31">
+        <f>$I20*$AU20*$AW$48</f>
+        <v>9.8266527085335547</v>
+      </c>
+      <c r="BC20" s="31">
+        <f>$H20*$AU20*constraints!$C$4</f>
+        <v>142.4999999826243</v>
+      </c>
+      <c r="BD20" s="31">
+        <f>$J20*$AU20*$AW$49</f>
         <v>11.326652708350652</v>
       </c>
-      <c r="AX20" s="31">
-        <f>$J20*$AR20*$AT$50</f>
+      <c r="BE20" s="31">
+        <f>$I20*$AU20*$AW$49</f>
+        <v>11.326652708350652</v>
+      </c>
+      <c r="BF20" s="31">
+        <f>$J20*$AU20*$AW$50</f>
         <v>17.326652707619047</v>
       </c>
-      <c r="AY20" s="31">
-        <f>$I20*$AR20*$AT$47</f>
-        <v>8.701652708670732</v>
-      </c>
-      <c r="AZ20" s="31">
-        <f>$I20*$AR20*$AT$48</f>
-        <v>9.8266527085335547</v>
-      </c>
-      <c r="BA20" s="31">
-        <f>$I20*$AR20*$AT$49</f>
-        <v>11.326652708350652</v>
-      </c>
-      <c r="BB20" s="31">
-        <f>$I20*$AR20*$AT$50</f>
+      <c r="BG20" s="31">
+        <f>$I20*$AU20*$AW$50</f>
         <v>17.326652707619047</v>
       </c>
-      <c r="BC20" s="31">
-        <f>$H20*$AR20*constraints!$B$4</f>
-        <v>112.49999998628233</v>
-      </c>
-      <c r="BD20" s="31">
-        <f>$H20*$AR20*constraints!$C$4</f>
-        <v>142.4999999826243</v>
-      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -4852,56 +5175,65 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="23"/>
-      <c r="AR21" s="22">
+      <c r="AR21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="22">
         <v>1.2376909779863341E-16</v>
       </c>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="33">
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU21" s="31">
-        <f>$J21*$AR21*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV21" s="31">
-        <f>$J21*$AR21*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW21" s="31">
-        <f>$J21*$AR21*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX21" s="31">
-        <f>$J21*$AR21*$AT$50</f>
+        <f>$J21*$AU21*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY21" s="31">
-        <f>$I21*$AR21*$AT$47</f>
+        <f>$I21*$AU21*$AW$47</f>
         <v>1.4359942736540456E-17</v>
       </c>
       <c r="AZ21" s="31">
-        <f>$I21*$AR21*$AT$48</f>
+        <f>$H21*$AU21*constraints!$B$4</f>
+        <v>9.2826823348975054E-18</v>
+      </c>
+      <c r="BA21" s="31">
+        <f>$J21*$AU21*$AW$48</f>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="31">
+        <f>$I21*$AU21*$AW$48</f>
         <v>1.6216479203519956E-17</v>
       </c>
-      <c r="BA21" s="31">
-        <f>$I21*$AR21*$AT$49</f>
+      <c r="BC21" s="31">
+        <f>$H21*$AU21*constraints!$C$4</f>
+        <v>1.1758064290870173E-17</v>
+      </c>
+      <c r="BD21" s="31">
+        <f>$J21*$AU21*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="31">
+        <f>$I21*$AU21*$AW$49</f>
         <v>1.8691861159492622E-17</v>
       </c>
-      <c r="BB21" s="31">
-        <f>$I21*$AR21*$AT$50</f>
+      <c r="BF21" s="31">
+        <f>$J21*$AU21*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="31">
+        <f>$I21*$AU21*$AW$50</f>
         <v>2.8593388983383297E-17</v>
       </c>
-      <c r="BC21" s="31">
-        <f>$H21*$AR21*constraints!$B$4</f>
-        <v>9.2826823348975054E-18</v>
-      </c>
-      <c r="BD21" s="31">
-        <f>$H21*$AR21*constraints!$C$4</f>
-        <v>1.1758064290870173E-17</v>
-      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5046,56 +5378,65 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="23"/>
-      <c r="AR22" s="22">
+      <c r="AR22" s="8">
+        <v>180000</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>60000</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>-40000</v>
+      </c>
+      <c r="AU22" s="22">
         <v>239999.99999956001</v>
       </c>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="33">
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="31">
-        <f>$J22*$AR22*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="31">
-        <f>$J22*$AR22*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="31">
-        <f>$J22*$AR22*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX22" s="31">
-        <f>$J22*$AR22*$AT$50</f>
+        <f>$J22*$AU22*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY22" s="31">
-        <f>$I22*$AR22*$AT$47</f>
+        <f>$I22*$AU22*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ22" s="31">
-        <f>$I22*$AR22*$AT$48</f>
+        <f>$H22*$AU22*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA22" s="31">
-        <f>$I22*$AR22*$AT$49</f>
+        <f>$J22*$AU22*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB22" s="31">
-        <f>$I22*$AR22*$AT$50</f>
+        <f>$I22*$AU22*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC22" s="31">
-        <f>$H22*$AR22*constraints!$B$4</f>
+        <f>$H22*$AU22*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD22" s="31">
-        <f>$H22*$AR22*constraints!$C$4</f>
+        <f>$J22*$AU22*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="31">
+        <f>$I22*$AU22*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="31">
+        <f>$J22*$AU22*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="31">
+        <f>$I22*$AU22*$AW$50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5240,56 +5581,65 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="23"/>
-      <c r="AR23" s="22">
+      <c r="AR23" s="8">
+        <v>63500</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>25000</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>-10000</v>
+      </c>
+      <c r="AU23" s="22">
         <v>88499.99999951628</v>
       </c>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="33">
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU23" s="31">
-        <f>$J23*$AR23*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV23" s="31">
-        <f>$J23*$AR23*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW23" s="31">
-        <f>$J23*$AR23*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX23" s="31">
-        <f>$J23*$AR23*$AT$50</f>
+        <f>$J23*$AU23*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY23" s="31">
-        <f>$I23*$AR23*$AT$47</f>
+        <f>$I23*$AU23*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ23" s="31">
-        <f>$I23*$AR23*$AT$48</f>
+        <f>$H23*$AU23*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA23" s="31">
-        <f>$I23*$AR23*$AT$49</f>
+        <f>$J23*$AU23*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB23" s="31">
-        <f>$I23*$AR23*$AT$50</f>
+        <f>$I23*$AU23*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC23" s="31">
-        <f>$H23*$AR23*constraints!$B$4</f>
+        <f>$H23*$AU23*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD23" s="31">
-        <f>$H23*$AR23*constraints!$C$4</f>
+        <f>$J23*$AU23*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="31">
+        <f>$I23*$AU23*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="31">
+        <f>$J23*$AU23*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="31">
+        <f>$I23*$AU23*$AW$50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5434,56 +5784,65 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="23"/>
-      <c r="AR24" s="22">
+      <c r="AR24" s="8">
+        <v>80000</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>30000</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>-15000</v>
+      </c>
+      <c r="AU24" s="22">
         <v>109999.9999993815</v>
       </c>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="33">
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU24" s="31">
-        <f>$J24*$AR24*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV24" s="31">
-        <f>$J24*$AR24*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW24" s="31">
-        <f>$J24*$AR24*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX24" s="31">
-        <f>$J24*$AR24*$AT$50</f>
+        <f>$J24*$AU24*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY24" s="31">
-        <f>$I24*$AR24*$AT$47</f>
+        <f>$I24*$AU24*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ24" s="31">
-        <f>$I24*$AR24*$AT$48</f>
+        <f>$H24*$AU24*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA24" s="31">
-        <f>$I24*$AR24*$AT$49</f>
+        <f>$J24*$AU24*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB24" s="31">
-        <f>$I24*$AR24*$AT$50</f>
+        <f>$I24*$AU24*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC24" s="31">
-        <f>$H24*$AR24*constraints!$B$4</f>
+        <f>$H24*$AU24*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD24" s="31">
-        <f>$H24*$AR24*constraints!$C$4</f>
+        <f>$J24*$AU24*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="31">
+        <f>$I24*$AU24*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="31">
+        <f>$J24*$AU24*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG24" s="31">
+        <f>$I24*$AU24*$AW$50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -5628,60 +5987,63 @@
         <v>4.8159890837580775E-4</v>
       </c>
       <c r="AQ25" s="23"/>
-      <c r="AR25" s="22">
+      <c r="AR25" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>-5000</v>
+      </c>
+      <c r="AU25" s="22">
         <v>25999.99999914318</v>
       </c>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="33">
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="33">
         <f t="shared" si="3"/>
         <v>6.2607858086791786E-4</v>
       </c>
-      <c r="AU25" s="31">
-        <f>$J25*$AR25*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="31">
-        <f>$J25*$AR25*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW25" s="31">
-        <f>$J25*$AR25*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX25" s="31">
-        <f>$J25*$AR25*$AT$50</f>
+        <f>$J25*$AU25*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY25" s="31">
-        <f>$I25*$AR25*$AT$47</f>
+        <f>$I25*$AU25*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ25" s="31">
-        <f>$I25*$AR25*$AT$48</f>
+        <f>$H25*$AU25*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA25" s="31">
-        <f>$I25*$AR25*$AT$49</f>
+        <f>$J25*$AU25*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB25" s="31">
-        <f>$I25*$AR25*$AT$50</f>
+        <f>$I25*$AU25*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC25" s="31">
-        <f>$H25*$AR25*constraints!$B$4</f>
+        <f>$H25*$AU25*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD25" s="31">
-        <f>$H25*$AR25*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="23"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
+        <f>$J25*$AU25*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="31">
+        <f>$I25*$AU25*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="31">
+        <f>$J25*$AU25*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG25" s="31">
+        <f>$I25*$AU25*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK25" s="23"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
@@ -5740,8 +6102,11 @@
       <c r="DN25" s="23"/>
       <c r="DO25" s="23"/>
       <c r="DP25" s="23"/>
+      <c r="DQ25" s="23"/>
+      <c r="DR25" s="23"/>
+      <c r="DS25" s="23"/>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -5886,60 +6251,63 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="23"/>
-      <c r="AR26" s="22">
+      <c r="AR26" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AT26" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="AU26" s="22">
         <v>12000.00000026704</v>
       </c>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="33">
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="31">
-        <f>$J26*$AR26*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV26" s="31">
-        <f>$J26*$AR26*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="31">
-        <f>$J26*$AR26*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX26" s="31">
-        <f>$J26*$AR26*$AT$50</f>
+        <f>$J26*$AU26*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY26" s="31">
-        <f>$I26*$AR26*$AT$47</f>
+        <f>$I26*$AU26*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ26" s="31">
-        <f>$I26*$AR26*$AT$48</f>
+        <f>$H26*$AU26*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA26" s="31">
-        <f>$I26*$AR26*$AT$49</f>
+        <f>$J26*$AU26*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB26" s="31">
-        <f>$I26*$AR26*$AT$50</f>
+        <f>$I26*$AU26*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC26" s="31">
-        <f>$H26*$AR26*constraints!$B$4</f>
+        <f>$H26*$AU26*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD26" s="31">
-        <f>$H26*$AR26*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="23"/>
-      <c r="BF26" s="23"/>
-      <c r="BG26" s="23"/>
-      <c r="BH26" s="23"/>
-      <c r="BI26" s="23"/>
-      <c r="BJ26" s="23"/>
+        <f>$J26*$AU26*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="31">
+        <f>$I26*$AU26*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="31">
+        <f>$J26*$AU26*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="31">
+        <f>$I26*$AU26*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK26" s="23"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
@@ -5998,8 +6366,11 @@
       <c r="DN26" s="23"/>
       <c r="DO26" s="23"/>
       <c r="DP26" s="23"/>
+      <c r="DQ26" s="23"/>
+      <c r="DR26" s="23"/>
+      <c r="DS26" s="23"/>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -6144,60 +6515,63 @@
         <v>1.2039972709395194E-4</v>
       </c>
       <c r="AQ27" s="23"/>
-      <c r="AR27" s="22">
+      <c r="AR27" s="8">
+        <v>5000</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>-1500</v>
+      </c>
+      <c r="AU27" s="22">
         <v>3500.00000395712</v>
       </c>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="33">
+      <c r="AV27" s="23"/>
+      <c r="AW27" s="33">
         <f t="shared" si="3"/>
         <v>8.4279809061053596E-5</v>
       </c>
-      <c r="AU27" s="31">
-        <f>$J27*$AR27*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="31">
-        <f>$J27*$AR27*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW27" s="31">
-        <f>$J27*$AR27*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX27" s="31">
-        <f>$J27*$AR27*$AT$50</f>
+        <f>$J27*$AU27*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY27" s="31">
-        <f>$I27*$AR27*$AT$47</f>
+        <f>$I27*$AU27*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ27" s="31">
-        <f>$I27*$AR27*$AT$48</f>
+        <f>$H27*$AU27*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA27" s="31">
-        <f>$I27*$AR27*$AT$49</f>
+        <f>$J27*$AU27*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB27" s="31">
-        <f>$I27*$AR27*$AT$50</f>
+        <f>$I27*$AU27*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC27" s="31">
-        <f>$H27*$AR27*constraints!$B$4</f>
+        <f>$H27*$AU27*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD27" s="31">
-        <f>$H27*$AR27*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="23"/>
-      <c r="BF27" s="23"/>
-      <c r="BG27" s="23"/>
-      <c r="BH27" s="23"/>
-      <c r="BI27" s="23"/>
-      <c r="BJ27" s="23"/>
+        <f>$J27*$AU27*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="31">
+        <f>$I27*$AU27*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="31">
+        <f>$J27*$AU27*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG27" s="31">
+        <f>$I27*$AU27*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK27" s="23"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
@@ -6256,8 +6630,11 @@
       <c r="DN27" s="23"/>
       <c r="DO27" s="23"/>
       <c r="DP27" s="23"/>
+      <c r="DQ27" s="23"/>
+      <c r="DR27" s="23"/>
+      <c r="DS27" s="23"/>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -6402,60 +6779,63 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="23"/>
-      <c r="AR28" s="22">
+      <c r="AR28" s="8">
+        <v>40000</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>35000</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>-10000</v>
+      </c>
+      <c r="AU28" s="22">
         <v>74999.999998929445</v>
       </c>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="33">
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="31">
-        <f>$J28*$AR28*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV28" s="31">
-        <f>$J28*$AR28*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="31">
-        <f>$J28*$AR28*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX28" s="31">
-        <f>$J28*$AR28*$AT$50</f>
+        <f>$J28*$AU28*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY28" s="31">
-        <f>$I28*$AR28*$AT$47</f>
+        <f>$I28*$AU28*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ28" s="31">
-        <f>$I28*$AR28*$AT$48</f>
+        <f>$H28*$AU28*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA28" s="31">
-        <f>$I28*$AR28*$AT$49</f>
+        <f>$J28*$AU28*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB28" s="31">
-        <f>$I28*$AR28*$AT$50</f>
+        <f>$I28*$AU28*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC28" s="31">
-        <f>$H28*$AR28*constraints!$B$4</f>
+        <f>$H28*$AU28*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD28" s="31">
-        <f>$H28*$AR28*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="23"/>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="23"/>
+        <f>$J28*$AU28*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="31">
+        <f>$I28*$AU28*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF28" s="31">
+        <f>$J28*$AU28*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG28" s="31">
+        <f>$I28*$AU28*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK28" s="23"/>
       <c r="BL28" s="23"/>
       <c r="BM28" s="23"/>
@@ -6514,8 +6894,11 @@
       <c r="DN28" s="23"/>
       <c r="DO28" s="23"/>
       <c r="DP28" s="23"/>
+      <c r="DQ28" s="23"/>
+      <c r="DR28" s="23"/>
+      <c r="DS28" s="23"/>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -6660,60 +7043,63 @@
         <v>6.0199863546975968E-4</v>
       </c>
       <c r="AQ29" s="23"/>
-      <c r="AR29" s="22">
+      <c r="AR29" s="8">
+        <v>25000</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>7000</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>-8000</v>
+      </c>
+      <c r="AU29" s="22">
         <v>31999.9999980512</v>
       </c>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="33">
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="33">
         <f t="shared" si="3"/>
         <v>7.7055825335436545E-4</v>
       </c>
-      <c r="AU29" s="31">
-        <f>$J29*$AR29*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV29" s="31">
-        <f>$J29*$AR29*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW29" s="31">
-        <f>$J29*$AR29*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX29" s="31">
-        <f>$J29*$AR29*$AT$50</f>
+        <f>$J29*$AU29*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY29" s="31">
-        <f>$I29*$AR29*$AT$47</f>
+        <f>$I29*$AU29*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ29" s="31">
-        <f>$I29*$AR29*$AT$48</f>
+        <f>$H29*$AU29*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA29" s="31">
-        <f>$I29*$AR29*$AT$49</f>
+        <f>$J29*$AU29*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB29" s="31">
-        <f>$I29*$AR29*$AT$50</f>
+        <f>$I29*$AU29*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC29" s="31">
-        <f>$H29*$AR29*constraints!$B$4</f>
+        <f>$H29*$AU29*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD29" s="31">
-        <f>$H29*$AR29*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="23"/>
-      <c r="BF29" s="23"/>
-      <c r="BG29" s="23"/>
-      <c r="BH29" s="23"/>
-      <c r="BI29" s="23"/>
-      <c r="BJ29" s="23"/>
+        <f>$J29*$AU29*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="31">
+        <f>$I29*$AU29*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="31">
+        <f>$J29*$AU29*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="31">
+        <f>$I29*$AU29*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK29" s="23"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
@@ -6772,8 +7158,11 @@
       <c r="DN29" s="23"/>
       <c r="DO29" s="23"/>
       <c r="DP29" s="23"/>
+      <c r="DQ29" s="23"/>
+      <c r="DR29" s="23"/>
+      <c r="DS29" s="23"/>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -6918,60 +7307,63 @@
         <v>4.093590721194366E-4</v>
       </c>
       <c r="AQ30" s="23"/>
-      <c r="AR30" s="22">
+      <c r="AR30" s="8">
+        <v>17000</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="AT30" s="8">
+        <v>-5000</v>
+      </c>
+      <c r="AU30" s="22">
         <v>21999.999998720232</v>
       </c>
-      <c r="AS30" s="23"/>
-      <c r="AT30" s="33">
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="33">
         <f t="shared" si="3"/>
         <v>5.2975879918257176E-4</v>
       </c>
-      <c r="AU30" s="31">
-        <f>$J30*$AR30*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV30" s="31">
-        <f>$J30*$AR30*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW30" s="31">
-        <f>$J30*$AR30*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX30" s="31">
-        <f>$J30*$AR30*$AT$50</f>
+        <f>$J30*$AU30*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY30" s="31">
-        <f>$I30*$AR30*$AT$47</f>
+        <f>$I30*$AU30*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ30" s="31">
-        <f>$I30*$AR30*$AT$48</f>
+        <f>$H30*$AU30*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA30" s="31">
-        <f>$I30*$AR30*$AT$49</f>
+        <f>$J30*$AU30*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB30" s="31">
-        <f>$I30*$AR30*$AT$50</f>
+        <f>$I30*$AU30*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC30" s="31">
-        <f>$H30*$AR30*constraints!$B$4</f>
+        <f>$H30*$AU30*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD30" s="31">
-        <f>$H30*$AR30*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="23"/>
-      <c r="BF30" s="23"/>
-      <c r="BG30" s="23"/>
-      <c r="BH30" s="23"/>
-      <c r="BI30" s="23"/>
-      <c r="BJ30" s="23"/>
+        <f>$J30*$AU30*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="31">
+        <f>$I30*$AU30*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="31">
+        <f>$J30*$AU30*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="31">
+        <f>$I30*$AU30*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK30" s="23"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
@@ -7030,8 +7422,11 @@
       <c r="DN30" s="23"/>
       <c r="DO30" s="23"/>
       <c r="DP30" s="23"/>
+      <c r="DQ30" s="23"/>
+      <c r="DR30" s="23"/>
+      <c r="DS30" s="23"/>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -7176,60 +7571,63 @@
         <v>4.093590721194366E-4</v>
       </c>
       <c r="AQ31" s="23"/>
-      <c r="AR31" s="22">
+      <c r="AR31" s="8">
+        <v>8500</v>
+      </c>
+      <c r="AS31" s="8">
+        <v>4000</v>
+      </c>
+      <c r="AT31" s="8">
+        <v>-2000</v>
+      </c>
+      <c r="AU31" s="22">
         <v>12499.99999723202</v>
       </c>
-      <c r="AS31" s="23"/>
-      <c r="AT31" s="33">
+      <c r="AV31" s="23"/>
+      <c r="AW31" s="33">
         <f t="shared" si="3"/>
         <v>6.0199863533645409E-4</v>
       </c>
-      <c r="AU31" s="31">
-        <f>$J31*$AR31*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV31" s="31">
-        <f>$J31*$AR31*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW31" s="31">
-        <f>$J31*$AR31*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX31" s="31">
-        <f>$J31*$AR31*$AT$50</f>
+        <f>$J31*$AU31*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY31" s="31">
-        <f>$I31*$AR31*$AT$47</f>
+        <f>$I31*$AU31*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ31" s="31">
-        <f>$I31*$AR31*$AT$48</f>
+        <f>$H31*$AU31*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA31" s="31">
-        <f>$I31*$AR31*$AT$49</f>
+        <f>$J31*$AU31*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB31" s="31">
-        <f>$I31*$AR31*$AT$50</f>
+        <f>$I31*$AU31*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC31" s="31">
-        <f>$H31*$AR31*constraints!$B$4</f>
+        <f>$H31*$AU31*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD31" s="31">
-        <f>$H31*$AR31*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="23"/>
-      <c r="BF31" s="23"/>
-      <c r="BG31" s="23"/>
-      <c r="BH31" s="23"/>
-      <c r="BI31" s="23"/>
-      <c r="BJ31" s="23"/>
+        <f>$J31*$AU31*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="31">
+        <f>$I31*$AU31*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="31">
+        <f>$J31*$AU31*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="31">
+        <f>$I31*$AU31*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK31" s="23"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
@@ -7288,8 +7686,11 @@
       <c r="DN31" s="23"/>
       <c r="DO31" s="23"/>
       <c r="DP31" s="23"/>
+      <c r="DQ31" s="23"/>
+      <c r="DR31" s="23"/>
+      <c r="DS31" s="23"/>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -7434,60 +7835,63 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="23"/>
-      <c r="AR32" s="22">
+      <c r="AR32" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>-4000</v>
+      </c>
+      <c r="AU32" s="22">
         <v>16000.000002676939</v>
       </c>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="33">
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="31">
-        <f>$J32*$AR32*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV32" s="31">
-        <f>$J32*$AR32*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW32" s="31">
-        <f>$J32*$AR32*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX32" s="31">
-        <f>$J32*$AR32*$AT$50</f>
+        <f>$J32*$AU32*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY32" s="31">
-        <f>$I32*$AR32*$AT$47</f>
+        <f>$I32*$AU32*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ32" s="31">
-        <f>$I32*$AR32*$AT$48</f>
+        <f>$H32*$AU32*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA32" s="31">
-        <f>$I32*$AR32*$AT$49</f>
+        <f>$J32*$AU32*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB32" s="31">
-        <f>$I32*$AR32*$AT$50</f>
+        <f>$I32*$AU32*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC32" s="31">
-        <f>$H32*$AR32*constraints!$B$4</f>
+        <f>$H32*$AU32*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD32" s="31">
-        <f>$H32*$AR32*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="23"/>
-      <c r="BF32" s="23"/>
-      <c r="BG32" s="23"/>
-      <c r="BH32" s="23"/>
-      <c r="BI32" s="23"/>
-      <c r="BJ32" s="23"/>
+        <f>$J32*$AU32*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="31">
+        <f>$I32*$AU32*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="31">
+        <f>$J32*$AU32*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG32" s="31">
+        <f>$I32*$AU32*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK32" s="23"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
@@ -7546,8 +7950,11 @@
       <c r="DN32" s="23"/>
       <c r="DO32" s="23"/>
       <c r="DP32" s="23"/>
+      <c r="DQ32" s="23"/>
+      <c r="DR32" s="23"/>
+      <c r="DS32" s="23"/>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -7692,60 +8099,63 @@
         <v>2.8895934502548467E-4</v>
       </c>
       <c r="AQ33" s="23"/>
-      <c r="AR33" s="22">
+      <c r="AR33" s="8">
+        <v>12000</v>
+      </c>
+      <c r="AS33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="AT33" s="8">
+        <v>-2500</v>
+      </c>
+      <c r="AU33" s="22">
         <v>9500.0000022538261</v>
       </c>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="33">
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="33">
         <f t="shared" si="3"/>
         <v>2.2875948153278073E-4</v>
       </c>
-      <c r="AU33" s="31">
-        <f>$J33*$AR33*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV33" s="31">
-        <f>$J33*$AR33*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW33" s="31">
-        <f>$J33*$AR33*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX33" s="31">
-        <f>$J33*$AR33*$AT$50</f>
+        <f>$J33*$AU33*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY33" s="31">
-        <f>$I33*$AR33*$AT$47</f>
+        <f>$I33*$AU33*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ33" s="31">
-        <f>$I33*$AR33*$AT$48</f>
+        <f>$H33*$AU33*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA33" s="31">
-        <f>$I33*$AR33*$AT$49</f>
+        <f>$J33*$AU33*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB33" s="31">
-        <f>$I33*$AR33*$AT$50</f>
+        <f>$I33*$AU33*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC33" s="31">
-        <f>$H33*$AR33*constraints!$B$4</f>
+        <f>$H33*$AU33*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD33" s="31">
-        <f>$H33*$AR33*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="23"/>
-      <c r="BG33" s="23"/>
-      <c r="BH33" s="23"/>
-      <c r="BI33" s="23"/>
-      <c r="BJ33" s="23"/>
+        <f>$J33*$AU33*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="31">
+        <f>$I33*$AU33*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF33" s="31">
+        <f>$J33*$AU33*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG33" s="31">
+        <f>$I33*$AU33*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK33" s="23"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
@@ -7804,8 +8214,11 @@
       <c r="DN33" s="23"/>
       <c r="DO33" s="23"/>
       <c r="DP33" s="23"/>
+      <c r="DQ33" s="23"/>
+      <c r="DR33" s="23"/>
+      <c r="DS33" s="23"/>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -7950,60 +8363,63 @@
         <v>1.6855961793153272E-4</v>
       </c>
       <c r="AQ34" s="23"/>
-      <c r="AR34" s="22">
+      <c r="AR34" s="8">
+        <v>7000</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>-2000</v>
+      </c>
+      <c r="AU34" s="22">
         <v>5000.0000027161386</v>
       </c>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="33">
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="33">
         <f t="shared" si="3"/>
         <v>1.2039972715935641E-4</v>
       </c>
-      <c r="AU34" s="31">
-        <f>$J34*$AR34*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV34" s="31">
-        <f>$J34*$AR34*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW34" s="31">
-        <f>$J34*$AR34*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX34" s="31">
-        <f>$J34*$AR34*$AT$50</f>
+        <f>$J34*$AU34*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY34" s="31">
-        <f>$I34*$AR34*$AT$47</f>
+        <f>$I34*$AU34*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ34" s="31">
-        <f>$I34*$AR34*$AT$48</f>
+        <f>$H34*$AU34*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA34" s="31">
-        <f>$I34*$AR34*$AT$49</f>
+        <f>$J34*$AU34*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB34" s="31">
-        <f>$I34*$AR34*$AT$50</f>
+        <f>$I34*$AU34*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC34" s="31">
-        <f>$H34*$AR34*constraints!$B$4</f>
+        <f>$H34*$AU34*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD34" s="31">
-        <f>$H34*$AR34*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23"/>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
+        <f>$J34*$AU34*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="31">
+        <f>$I34*$AU34*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF34" s="31">
+        <f>$J34*$AU34*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG34" s="31">
+        <f>$I34*$AU34*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK34" s="23"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
@@ -8062,8 +8478,11 @@
       <c r="DN34" s="23"/>
       <c r="DO34" s="23"/>
       <c r="DP34" s="23"/>
+      <c r="DQ34" s="23"/>
+      <c r="DR34" s="23"/>
+      <c r="DS34" s="23"/>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -8208,60 +8627,63 @@
         <v>1.4447967251274234E-4</v>
       </c>
       <c r="AQ35" s="23"/>
-      <c r="AR35" s="22">
+      <c r="AR35" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AS35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AT35" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="AU35" s="22">
         <v>2000.000001659035</v>
       </c>
-      <c r="AS35" s="23"/>
-      <c r="AT35" s="33">
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="33">
         <f t="shared" si="3"/>
         <v>9.6319781755060504E-5</v>
       </c>
-      <c r="AU35" s="31">
-        <f>$J35*$AR35*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV35" s="31">
-        <f>$J35*$AR35*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW35" s="31">
-        <f>$J35*$AR35*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX35" s="31">
-        <f>$J35*$AR35*$AT$50</f>
+        <f>$J35*$AU35*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY35" s="31">
-        <f>$I35*$AR35*$AT$47</f>
+        <f>$I35*$AU35*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ35" s="31">
-        <f>$I35*$AR35*$AT$48</f>
+        <f>$H35*$AU35*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA35" s="31">
-        <f>$I35*$AR35*$AT$49</f>
+        <f>$J35*$AU35*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB35" s="31">
-        <f>$I35*$AR35*$AT$50</f>
+        <f>$I35*$AU35*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC35" s="31">
-        <f>$H35*$AR35*constraints!$B$4</f>
+        <f>$H35*$AU35*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD35" s="31">
-        <f>$H35*$AR35*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="23"/>
-      <c r="BF35" s="23"/>
-      <c r="BG35" s="23"/>
-      <c r="BH35" s="23"/>
-      <c r="BI35" s="23"/>
-      <c r="BJ35" s="23"/>
+        <f>$J35*$AU35*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="31">
+        <f>$I35*$AU35*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="31">
+        <f>$J35*$AU35*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="31">
+        <f>$I35*$AU35*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK35" s="23"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
@@ -8320,8 +8742,11 @@
       <c r="DN35" s="23"/>
       <c r="DO35" s="23"/>
       <c r="DP35" s="23"/>
+      <c r="DQ35" s="23"/>
+      <c r="DR35" s="23"/>
+      <c r="DS35" s="23"/>
     </row>
-    <row r="36" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -8466,60 +8891,63 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="23"/>
-      <c r="AR36" s="22">
+      <c r="AR36" s="8">
+        <v>53000</v>
+      </c>
+      <c r="AS36" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AT36" s="8">
+        <v>-50000</v>
+      </c>
+      <c r="AU36" s="22">
         <v>3000.000001468341</v>
       </c>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="33">
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="31">
-        <f>$J36*$AR36*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV36" s="31">
-        <f>$J36*$AR36*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW36" s="31">
-        <f>$J36*$AR36*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX36" s="31">
-        <f>$J36*$AR36*$AT$50</f>
+        <f>$J36*$AU36*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY36" s="31">
-        <f>$I36*$AR36*$AT$47</f>
+        <f>$I36*$AU36*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ36" s="31">
-        <f>$I36*$AR36*$AT$48</f>
+        <f>$H36*$AU36*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA36" s="31">
-        <f>$I36*$AR36*$AT$49</f>
+        <f>$J36*$AU36*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB36" s="31">
-        <f>$I36*$AR36*$AT$50</f>
+        <f>$I36*$AU36*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC36" s="31">
-        <f>$H36*$AR36*constraints!$B$4</f>
+        <f>$H36*$AU36*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD36" s="31">
-        <f>$H36*$AR36*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="23"/>
-      <c r="BF36" s="23"/>
-      <c r="BG36" s="23"/>
-      <c r="BH36" s="23"/>
-      <c r="BI36" s="23"/>
-      <c r="BJ36" s="23"/>
+        <f>$J36*$AU36*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="31">
+        <f>$I36*$AU36*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="31">
+        <f>$J36*$AU36*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="31">
+        <f>$I36*$AU36*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK36" s="23"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
@@ -8578,8 +9006,11 @@
       <c r="DN36" s="23"/>
       <c r="DO36" s="23"/>
       <c r="DP36" s="23"/>
+      <c r="DQ36" s="23"/>
+      <c r="DR36" s="23"/>
+      <c r="DS36" s="23"/>
     </row>
-    <row r="37" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -8727,60 +9158,66 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="23"/>
-      <c r="AR37" s="22">
+      <c r="AR37" s="8">
+        <f>AR21</f>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="8">
+        <f t="shared" ref="AS37:AT37" si="8">AS21</f>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="22">
         <v>-3.9844064699640747E-17</v>
       </c>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="33">
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="31">
-        <f>$J37*$AR37*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV37" s="31">
-        <f>$J37*$AR37*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW37" s="31">
-        <f>$J37*$AR37*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX37" s="31">
-        <f>$J37*$AR37*$AT$50</f>
+        <f>$J37*$AU37*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY37" s="31">
-        <f>$I37*$AR37*$AT$47</f>
+        <f>$I37*$AU37*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ37" s="31">
-        <f>$I37*$AR37*$AT$48</f>
+        <f>$H37*$AU37*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA37" s="31">
-        <f>$I37*$AR37*$AT$49</f>
+        <f>$J37*$AU37*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB37" s="31">
-        <f>$I37*$AR37*$AT$50</f>
+        <f>$I37*$AU37*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC37" s="31">
-        <f>$H37*$AR37*constraints!$B$4</f>
+        <f>$H37*$AU37*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD37" s="31">
-        <f>$H37*$AR37*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="23"/>
-      <c r="BF37" s="23"/>
-      <c r="BG37" s="23"/>
-      <c r="BH37" s="23"/>
-      <c r="BI37" s="23"/>
-      <c r="BJ37" s="23"/>
+        <f>$J37*$AU37*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="31">
+        <f>$I37*$AU37*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="31">
+        <f>$J37*$AU37*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="31">
+        <f>$I37*$AU37*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK37" s="23"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
@@ -8839,8 +9276,11 @@
       <c r="DN37" s="23"/>
       <c r="DO37" s="23"/>
       <c r="DP37" s="23"/>
+      <c r="DQ37" s="23"/>
+      <c r="DR37" s="23"/>
+      <c r="DS37" s="23"/>
     </row>
-    <row r="38" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -8985,60 +9425,63 @@
         <v>7.8019023156880856E-4</v>
       </c>
       <c r="AQ38" s="23"/>
-      <c r="AR38" s="22">
+      <c r="AR38" s="8">
+        <v>54000</v>
+      </c>
+      <c r="AS38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AT38" s="8">
+        <v>-52500</v>
+      </c>
+      <c r="AU38" s="22">
         <v>63111.359661199131</v>
       </c>
-      <c r="AS38" s="23"/>
-      <c r="AT38" s="33">
+      <c r="AV38" s="23"/>
+      <c r="AW38" s="33">
         <f t="shared" si="3"/>
         <v>9.1183085756839464E-4</v>
       </c>
-      <c r="AU38" s="31">
-        <f>$J38*$AR38*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV38" s="31">
-        <f>$J38*$AR38*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW38" s="31">
-        <f>$J38*$AR38*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX38" s="31">
-        <f>$J38*$AR38*$AT$50</f>
+        <f>$J38*$AU38*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY38" s="31">
-        <f>$I38*$AR38*$AT$47</f>
+        <f>$I38*$AU38*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ38" s="31">
-        <f>$I38*$AR38*$AT$48</f>
+        <f>$H38*$AU38*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA38" s="31">
-        <f>$I38*$AR38*$AT$49</f>
+        <f>$J38*$AU38*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB38" s="31">
-        <f>$I38*$AR38*$AT$50</f>
+        <f>$I38*$AU38*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC38" s="31">
-        <f>$H38*$AR38*constraints!$B$4</f>
+        <f>$H38*$AU38*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD38" s="31">
-        <f>$H38*$AR38*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="23"/>
-      <c r="BF38" s="23"/>
-      <c r="BG38" s="23"/>
-      <c r="BH38" s="23"/>
-      <c r="BI38" s="23"/>
-      <c r="BJ38" s="23"/>
+        <f>$J38*$AU38*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="31">
+        <f>$I38*$AU38*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="31">
+        <f>$J38*$AU38*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG38" s="31">
+        <f>$I38*$AU38*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK38" s="23"/>
       <c r="BL38" s="23"/>
       <c r="BM38" s="23"/>
@@ -9097,8 +9540,11 @@
       <c r="DN38" s="23"/>
       <c r="DO38" s="23"/>
       <c r="DP38" s="23"/>
+      <c r="DQ38" s="23"/>
+      <c r="DR38" s="23"/>
+      <c r="DS38" s="23"/>
     </row>
-    <row r="39" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -9243,60 +9689,63 @@
         <v>1.1558373801019386E-4</v>
       </c>
       <c r="AQ39" s="23"/>
-      <c r="AR39" s="22">
+      <c r="AR39" s="8">
+        <v>8000</v>
+      </c>
+      <c r="AS39" s="8">
+        <v>13000</v>
+      </c>
+      <c r="AT39" s="8">
+        <v>-7000</v>
+      </c>
+      <c r="AU39" s="22">
         <v>11241.98372089214</v>
       </c>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="33">
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="33">
         <f t="shared" si="3"/>
         <v>1.6242381263880767E-4</v>
       </c>
-      <c r="AU39" s="31">
-        <f>$J39*$AR39*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="31">
-        <f>$J39*$AR39*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="31">
-        <f>$J39*$AR39*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX39" s="31">
-        <f>$J39*$AR39*$AT$50</f>
+        <f>$J39*$AU39*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY39" s="31">
-        <f>$I39*$AR39*$AT$47</f>
+        <f>$I39*$AU39*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ39" s="31">
-        <f>$I39*$AR39*$AT$48</f>
+        <f>$H39*$AU39*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA39" s="31">
-        <f>$I39*$AR39*$AT$49</f>
+        <f>$J39*$AU39*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB39" s="31">
-        <f>$I39*$AR39*$AT$50</f>
+        <f>$I39*$AU39*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC39" s="31">
-        <f>$H39*$AR39*constraints!$B$4</f>
+        <f>$H39*$AU39*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD39" s="31">
-        <f>$H39*$AR39*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="23"/>
-      <c r="BF39" s="23"/>
-      <c r="BG39" s="23"/>
-      <c r="BH39" s="23"/>
-      <c r="BI39" s="23"/>
-      <c r="BJ39" s="23"/>
+        <f>$J39*$AU39*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="31">
+        <f>$I39*$AU39*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="31">
+        <f>$J39*$AU39*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="31">
+        <f>$I39*$AU39*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK39" s="23"/>
       <c r="BL39" s="23"/>
       <c r="BM39" s="23"/>
@@ -9355,8 +9804,11 @@
       <c r="DN39" s="23"/>
       <c r="DO39" s="23"/>
       <c r="DP39" s="23"/>
+      <c r="DQ39" s="23"/>
+      <c r="DR39" s="23"/>
+      <c r="DS39" s="23"/>
     </row>
-    <row r="40" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -9501,60 +9953,63 @@
         <v>1.5892763976401656E-4</v>
       </c>
       <c r="AQ40" s="23"/>
-      <c r="AR40" s="22">
+      <c r="AR40" s="8">
+        <v>11000</v>
+      </c>
+      <c r="AS40" s="8">
+        <v>20000</v>
+      </c>
+      <c r="AT40" s="8">
+        <v>-9500</v>
+      </c>
+      <c r="AU40" s="22">
         <v>7796.6201677555136</v>
       </c>
-      <c r="AS40" s="23"/>
-      <c r="AT40" s="33">
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="33">
         <f t="shared" si="3"/>
         <v>1.1264531285435588E-4</v>
       </c>
-      <c r="AU40" s="31">
-        <f>$J40*$AR40*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV40" s="31">
-        <f>$J40*$AR40*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="31">
-        <f>$J40*$AR40*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX40" s="31">
-        <f>$J40*$AR40*$AT$50</f>
+        <f>$J40*$AU40*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY40" s="31">
-        <f>$I40*$AR40*$AT$47</f>
+        <f>$I40*$AU40*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ40" s="31">
-        <f>$I40*$AR40*$AT$48</f>
+        <f>$H40*$AU40*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA40" s="31">
-        <f>$I40*$AR40*$AT$49</f>
+        <f>$J40*$AU40*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB40" s="31">
-        <f>$I40*$AR40*$AT$50</f>
+        <f>$I40*$AU40*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC40" s="31">
-        <f>$H40*$AR40*constraints!$B$4</f>
+        <f>$H40*$AU40*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD40" s="31">
-        <f>$H40*$AR40*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE40" s="23"/>
-      <c r="BF40" s="23"/>
-      <c r="BG40" s="23"/>
-      <c r="BH40" s="23"/>
-      <c r="BI40" s="23"/>
-      <c r="BJ40" s="23"/>
+        <f>$J40*$AU40*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE40" s="31">
+        <f>$I40*$AU40*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="31">
+        <f>$J40*$AU40*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="31">
+        <f>$I40*$AU40*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK40" s="23"/>
       <c r="BL40" s="23"/>
       <c r="BM40" s="23"/>
@@ -9613,8 +10068,11 @@
       <c r="DN40" s="23"/>
       <c r="DO40" s="23"/>
       <c r="DP40" s="23"/>
+      <c r="DQ40" s="23"/>
+      <c r="DR40" s="23"/>
+      <c r="DS40" s="23"/>
     </row>
-    <row r="41" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -9759,60 +10217,63 @@
         <v>6.2126259180479194E-4</v>
       </c>
       <c r="AQ41" s="23"/>
-      <c r="AR41" s="22">
+      <c r="AR41" s="8">
+        <v>43000</v>
+      </c>
+      <c r="AS41" s="8">
+        <v>60000</v>
+      </c>
+      <c r="AT41" s="8">
+        <v>-40000</v>
+      </c>
+      <c r="AU41" s="22">
         <v>43516.808886038511</v>
       </c>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="33">
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="33">
         <f t="shared" si="3"/>
         <v>6.2872942966544381E-4</v>
       </c>
-      <c r="AU41" s="31">
-        <f>$J41*$AR41*$AT$47</f>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="31">
-        <f>$J41*$AR41*$AT$48</f>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="31">
-        <f>$J41*$AR41*$AT$49</f>
-        <v>0</v>
-      </c>
       <c r="AX41" s="31">
-        <f>$J41*$AR41*$AT$50</f>
+        <f>$J41*$AU41*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AY41" s="31">
-        <f>$I41*$AR41*$AT$47</f>
+        <f>$I41*$AU41*$AW$47</f>
         <v>0</v>
       </c>
       <c r="AZ41" s="31">
-        <f>$I41*$AR41*$AT$48</f>
+        <f>$H41*$AU41*constraints!$B$4</f>
         <v>0</v>
       </c>
       <c r="BA41" s="31">
-        <f>$I41*$AR41*$AT$49</f>
+        <f>$J41*$AU41*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BB41" s="31">
-        <f>$I41*$AR41*$AT$50</f>
+        <f>$I41*$AU41*$AW$48</f>
         <v>0</v>
       </c>
       <c r="BC41" s="31">
-        <f>$H41*$AR41*constraints!$B$4</f>
+        <f>$H41*$AU41*constraints!$C$4</f>
         <v>0</v>
       </c>
       <c r="BD41" s="31">
-        <f>$H41*$AR41*constraints!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="BE41" s="23"/>
-      <c r="BF41" s="23"/>
-      <c r="BG41" s="23"/>
-      <c r="BH41" s="23"/>
-      <c r="BI41" s="23"/>
-      <c r="BJ41" s="23"/>
+        <f>$J41*$AU41*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BE41" s="31">
+        <f>$I41*$AU41*$AW$49</f>
+        <v>0</v>
+      </c>
+      <c r="BF41" s="31">
+        <f>$J41*$AU41*$AW$50</f>
+        <v>0</v>
+      </c>
+      <c r="BG41" s="31">
+        <f>$I41*$AU41*$AW$50</f>
+        <v>0</v>
+      </c>
       <c r="BK41" s="23"/>
       <c r="BL41" s="23"/>
       <c r="BM41" s="23"/>
@@ -9871,8 +10332,11 @@
       <c r="DN41" s="23"/>
       <c r="DO41" s="23"/>
       <c r="DP41" s="23"/>
+      <c r="DQ41" s="23"/>
+      <c r="DR41" s="23"/>
+      <c r="DS41" s="23"/>
     </row>
-    <row r="42" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -9924,9 +10388,9 @@
       <c r="AR42" s="23"/>
       <c r="AS42" s="23"/>
       <c r="AT42" s="23"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
       <c r="AX42" s="31"/>
       <c r="AY42" s="31"/>
       <c r="AZ42" s="31"/>
@@ -9934,9 +10398,9 @@
       <c r="BB42" s="31"/>
       <c r="BC42" s="31"/>
       <c r="BD42" s="31"/>
-      <c r="BE42" s="23"/>
-      <c r="BF42" s="23"/>
-      <c r="BG42" s="23"/>
+      <c r="BE42" s="31"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
       <c r="BH42" s="23"/>
       <c r="BI42" s="23"/>
       <c r="BJ42" s="23"/>
@@ -9998,8 +10462,11 @@
       <c r="DN42" s="23"/>
       <c r="DO42" s="23"/>
       <c r="DP42" s="23"/>
+      <c r="DQ42" s="23"/>
+      <c r="DR42" s="23"/>
+      <c r="DS42" s="23"/>
     </row>
-    <row r="43" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -10007,14 +10474,14 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="5"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="23"/>
@@ -10044,53 +10511,53 @@
       <c r="AQ43" s="23"/>
       <c r="AR43" s="23"/>
       <c r="AS43" s="23"/>
-      <c r="AT43" s="23">
-        <f>SUM(AT2:AT41)</f>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="34"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23">
+        <f>SUM(AW2:AW41)</f>
         <v>3.6022036129756851E-2</v>
-      </c>
-      <c r="AU43" s="31">
-        <f>SUM(AU2:AU41)</f>
-        <v>63111.359661055969</v>
-      </c>
-      <c r="AV43" s="31">
-        <f t="shared" ref="AV43:AX43" si="8">SUM(AV2:AV41)</f>
-        <v>71270.761327279994</v>
-      </c>
-      <c r="AW43" s="31">
-        <f t="shared" si="8"/>
-        <v>82149.963548911983</v>
       </c>
       <c r="AX43" s="31">
         <f>SUM(AX2:AX41)</f>
-        <v>125666.77243544</v>
+        <v>63111.359661055969</v>
       </c>
       <c r="AY43" s="31">
-        <f>SUM(AY2:AY41)</f>
+        <f t="shared" ref="AY43:BG43" si="9">SUM(AY2:AY41)</f>
         <v>50553.710898161909</v>
       </c>
       <c r="AZ43" s="31">
-        <f t="shared" ref="AZ43:BD43" si="9">SUM(AZ2:AZ41)</f>
-        <v>57089.587088305256</v>
+        <f t="shared" si="9"/>
+        <v>58700.007933106346</v>
       </c>
       <c r="BA43" s="31">
         <f t="shared" si="9"/>
-        <v>65804.088675163031</v>
+        <v>71270.761327279994</v>
       </c>
       <c r="BB43" s="31">
         <f t="shared" si="9"/>
-        <v>100662.09502259422</v>
+        <v>57089.587088305256</v>
       </c>
       <c r="BC43" s="31">
         <f t="shared" si="9"/>
-        <v>58700.007933106346</v>
+        <v>74353.343381934697</v>
       </c>
       <c r="BD43" s="31">
         <f t="shared" si="9"/>
-        <v>74353.343381934697</v>
-      </c>
-      <c r="BE43" s="23"/>
-      <c r="BF43" s="23"/>
-      <c r="BG43" s="23"/>
+        <v>82149.963548911983</v>
+      </c>
+      <c r="BE43" s="31">
+        <f t="shared" si="9"/>
+        <v>65804.088675163031</v>
+      </c>
+      <c r="BF43" s="31">
+        <f t="shared" si="9"/>
+        <v>125666.77243544</v>
+      </c>
+      <c r="BG43" s="31">
+        <f t="shared" si="9"/>
+        <v>100662.09502259422</v>
+      </c>
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
       <c r="BJ43" s="23"/>
@@ -10152,35 +10619,26 @@
       <c r="DN43" s="23"/>
       <c r="DO43" s="23"/>
       <c r="DP43" s="23"/>
+      <c r="DQ43" s="23"/>
+      <c r="DR43" s="23"/>
+      <c r="DS43" s="23"/>
     </row>
-    <row r="44" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="8">
-        <f>C2+D2</f>
-        <v>23000</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="12">
-        <f>-SUMPRODUCT(F2:F41,C2:C41)</f>
-        <v>-105457500</v>
-      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="5">
-        <f>SUMPRODUCT(I2:I41,C2:C41)*constraints!B3</f>
-        <v>30400</v>
-      </c>
-      <c r="J44" s="5">
-        <f>SUMPRODUCT(J2:J41,C2:C41)*constraints!B2</f>
-        <v>39048</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="5"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
@@ -10204,9 +10662,7 @@
       <c r="AJ44" s="23"/>
       <c r="AK44" s="23"/>
       <c r="AL44" s="23"/>
-      <c r="AM44" s="24">
-        <v>0.03</v>
-      </c>
+      <c r="AM44" s="24"/>
       <c r="AN44" s="23"/>
       <c r="AO44" s="23"/>
       <c r="AP44" s="23"/>
@@ -10214,19 +10670,28 @@
       <c r="AR44" s="23"/>
       <c r="AS44" s="23"/>
       <c r="AT44" s="23"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
-      <c r="AW44" s="31"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="23"/>
+      <c r="AW44" s="23"/>
       <c r="AX44" s="31"/>
       <c r="AY44" s="31"/>
       <c r="AZ44" s="31"/>
       <c r="BA44" s="31"/>
       <c r="BB44" s="31"/>
-      <c r="BC44" s="31"/>
-      <c r="BD44" s="31"/>
-      <c r="BE44" s="23"/>
-      <c r="BF44" s="23"/>
-      <c r="BG44" s="23"/>
+      <c r="BC44" s="31">
+        <f>BC43-AX43</f>
+        <v>11241.983720878728</v>
+      </c>
+      <c r="BD44" s="31">
+        <f>BD43-BC43</f>
+        <v>7796.6201669772854</v>
+      </c>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31">
+        <f>BF43-BD43</f>
+        <v>43516.808886528015</v>
+      </c>
+      <c r="BG44" s="31"/>
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
       <c r="BJ44" s="23"/>
@@ -10288,31 +10753,25 @@
       <c r="DN44" s="23"/>
       <c r="DO44" s="23"/>
       <c r="DP44" s="23"/>
+      <c r="DQ44" s="23"/>
+      <c r="DR44" s="23"/>
+      <c r="DS44" s="23"/>
     </row>
-    <row r="45" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:123" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
-      <c r="C45" s="8">
-        <f>2.54340385*10^4</f>
-        <v>25434.038499999999</v>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5">
-        <f>SUMPRODUCT(I2:I41,C2:C41)*11%</f>
-        <v>41800</v>
-      </c>
-      <c r="J45" s="5">
-        <f>SUMPRODUCT(J2:J41,C2:C41)*11%</f>
-        <v>53691</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="5"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
@@ -10336,26 +10795,23 @@
       <c r="AJ45" s="23"/>
       <c r="AK45" s="23"/>
       <c r="AL45" s="23"/>
-      <c r="AM45" s="26">
-        <f>AM44/AM42</f>
-        <v>4.8159890837580777E-5</v>
-      </c>
+      <c r="AM45" s="26"/>
       <c r="AN45" s="23"/>
       <c r="AO45" s="23"/>
       <c r="AP45" s="23"/>
       <c r="AQ45" s="23"/>
       <c r="AR45" s="23"/>
       <c r="AS45" s="23"/>
-      <c r="AX45" s="31"/>
-      <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
+      <c r="AV45" s="23"/>
       <c r="BA45" s="31"/>
       <c r="BB45" s="31"/>
       <c r="BC45" s="31"/>
       <c r="BD45" s="31"/>
-      <c r="BE45" s="23"/>
-      <c r="BF45" s="23"/>
-      <c r="BG45" s="23"/>
+      <c r="BE45" s="31"/>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="31"/>
       <c r="BH45" s="23"/>
       <c r="BI45" s="23"/>
       <c r="BJ45" s="23"/>
@@ -10417,22 +10873,25 @@
       <c r="DN45" s="23"/>
       <c r="DO45" s="23"/>
       <c r="DP45" s="23"/>
+      <c r="DQ45" s="23"/>
+      <c r="DR45" s="23"/>
+      <c r="DS45" s="23"/>
     </row>
-    <row r="46" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:123" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="5"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
@@ -10464,14 +10923,14 @@
       <c r="AR46" s="23"/>
       <c r="AS46" s="23"/>
       <c r="AT46" s="23"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="23"/>
-      <c r="AY46" s="23"/>
-      <c r="AZ46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="23"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ46" s="31"/>
       <c r="BA46" s="23"/>
       <c r="BB46" s="23"/>
       <c r="BC46" s="23"/>
@@ -10540,8 +10999,11 @@
       <c r="DN46" s="23"/>
       <c r="DO46" s="23"/>
       <c r="DP46" s="23"/>
+      <c r="DQ46" s="23"/>
+      <c r="DR46" s="23"/>
+      <c r="DS46" s="23"/>
     </row>
-    <row r="47" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:123" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>29</v>
       </c>
@@ -10553,16 +11015,13 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="12">
-        <f>SUMPRODUCT(J2:J41,C2:C41)</f>
-        <v>488100</v>
-      </c>
-      <c r="K47" s="10"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
@@ -10594,25 +11053,25 @@
       <c r="AQ47" s="23"/>
       <c r="AR47" s="23"/>
       <c r="AS47" s="23"/>
-      <c r="AT47" s="32">
-        <f>8%+AT43</f>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="32">
+        <f>8%+AW43</f>
         <v>0.11602203612975685</v>
-      </c>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW47" s="22">
-        <f>AR38</f>
-        <v>63111.359661199131</v>
       </c>
       <c r="AX47" s="23"/>
       <c r="AY47" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ47" s="22">
+        <f>AU38</f>
+        <v>63111.359661199131</v>
+      </c>
+      <c r="BA47" s="23"/>
+      <c r="BB47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23"/>
       <c r="BC47" s="23"/>
       <c r="BD47" s="23"/>
       <c r="BE47" s="23"/>
@@ -10679,8 +11138,11 @@
       <c r="DN47" s="23"/>
       <c r="DO47" s="23"/>
       <c r="DP47" s="23"/>
+      <c r="DQ47" s="23"/>
+      <c r="DR47" s="23"/>
+      <c r="DS47" s="23"/>
     </row>
-    <row r="48" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:123" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>30</v>
       </c>
@@ -10692,16 +11154,13 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="12">
-        <f>J47*11%</f>
-        <v>53691</v>
-      </c>
-      <c r="K48" s="10"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
@@ -10733,21 +11192,21 @@
       <c r="AQ48" s="23"/>
       <c r="AR48" s="23"/>
       <c r="AS48" s="23"/>
-      <c r="AT48" s="32">
-        <f>AT47+1.5%</f>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="23"/>
+      <c r="AV48" s="23"/>
+      <c r="AW48" s="32">
+        <f>AW47+1.5%</f>
         <v>0.13102203612975685</v>
       </c>
-      <c r="AU48" s="23"/>
-      <c r="AV48" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW48" s="22">
-        <f>AR39</f>
+      <c r="AX48" s="23"/>
+      <c r="AY48" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ48" s="22">
+        <f>AU39</f>
         <v>11241.98372089214</v>
       </c>
-      <c r="AX48" s="23"/>
-      <c r="AY48" s="23"/>
-      <c r="AZ48" s="23"/>
       <c r="BA48" s="23"/>
       <c r="BB48" s="23"/>
       <c r="BC48" s="23"/>
@@ -10816,8 +11275,11 @@
       <c r="DN48" s="23"/>
       <c r="DO48" s="23"/>
       <c r="DP48" s="23"/>
+      <c r="DQ48" s="23"/>
+      <c r="DR48" s="23"/>
+      <c r="DS48" s="23"/>
     </row>
-    <row r="49" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
@@ -10831,14 +11293,11 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="31">
-        <f>C38</f>
-        <v>54000</v>
-      </c>
-      <c r="K49" s="10"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
@@ -10870,21 +11329,21 @@
       <c r="AQ49" s="23"/>
       <c r="AR49" s="23"/>
       <c r="AS49" s="23"/>
-      <c r="AT49" s="32">
-        <f>AT48+2%</f>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="32">
+        <f>AW48+2%</f>
         <v>0.15102203612975684</v>
       </c>
-      <c r="AU49" s="23"/>
-      <c r="AV49" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW49" s="22">
-        <f>AR40</f>
+      <c r="AX49" s="23"/>
+      <c r="AY49" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ49" s="22">
+        <f>AU40</f>
         <v>7796.6201677555136</v>
       </c>
-      <c r="AX49" s="23"/>
-      <c r="AY49" s="23"/>
-      <c r="AZ49" s="23"/>
       <c r="BA49" s="23"/>
       <c r="BB49" s="23"/>
       <c r="BC49" s="23"/>
@@ -10953,8 +11412,11 @@
       <c r="DN49" s="23"/>
       <c r="DO49" s="23"/>
       <c r="DP49" s="23"/>
+      <c r="DQ49" s="23"/>
+      <c r="DR49" s="23"/>
+      <c r="DS49" s="23"/>
     </row>
-    <row r="50" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -10963,14 +11425,11 @@
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="22">
-        <f>J48-J49</f>
-        <v>-309</v>
-      </c>
-      <c r="K50" s="10"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
@@ -11002,21 +11461,21 @@
       <c r="AQ50" s="23"/>
       <c r="AR50" s="23"/>
       <c r="AS50" s="23"/>
-      <c r="AT50" s="32">
-        <f>AT49+8%</f>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="AV50" s="23"/>
+      <c r="AW50" s="32">
+        <f>AW49+8%</f>
         <v>0.23102203612975686</v>
       </c>
-      <c r="AU50" s="23"/>
-      <c r="AV50" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW50" s="22">
-        <f>AR41</f>
+      <c r="AX50" s="23"/>
+      <c r="AY50" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ50" s="22">
+        <f>AU41</f>
         <v>43516.808886038511</v>
       </c>
-      <c r="AX50" s="23"/>
-      <c r="AY50" s="23"/>
-      <c r="AZ50" s="23"/>
       <c r="BA50" s="23"/>
       <c r="BB50" s="23"/>
       <c r="BC50" s="23"/>
@@ -11085,8 +11544,11 @@
       <c r="DN50" s="23"/>
       <c r="DO50" s="23"/>
       <c r="DP50" s="23"/>
+      <c r="DQ50" s="23"/>
+      <c r="DR50" s="23"/>
+      <c r="DS50" s="23"/>
     </row>
-    <row r="51" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -11206,8 +11668,11 @@
       <c r="DN51" s="23"/>
       <c r="DO51" s="23"/>
       <c r="DP51" s="23"/>
+      <c r="DQ51" s="23"/>
+      <c r="DR51" s="23"/>
+      <c r="DS51" s="23"/>
     </row>
-    <row r="52" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -11327,8 +11792,11 @@
       <c r="DN52" s="23"/>
       <c r="DO52" s="23"/>
       <c r="DP52" s="23"/>
+      <c r="DQ52" s="23"/>
+      <c r="DR52" s="23"/>
+      <c r="DS52" s="23"/>
     </row>
-    <row r="53" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -11448,8 +11916,11 @@
       <c r="DN53" s="23"/>
       <c r="DO53" s="23"/>
       <c r="DP53" s="23"/>
+      <c r="DQ53" s="23"/>
+      <c r="DR53" s="23"/>
+      <c r="DS53" s="23"/>
     </row>
-    <row r="54" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -11569,8 +12040,11 @@
       <c r="DN54" s="23"/>
       <c r="DO54" s="23"/>
       <c r="DP54" s="23"/>
+      <c r="DQ54" s="23"/>
+      <c r="DR54" s="23"/>
+      <c r="DS54" s="23"/>
     </row>
-    <row r="55" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -11690,8 +12164,11 @@
       <c r="DN55" s="23"/>
       <c r="DO55" s="23"/>
       <c r="DP55" s="23"/>
+      <c r="DQ55" s="23"/>
+      <c r="DR55" s="23"/>
+      <c r="DS55" s="23"/>
     </row>
-    <row r="56" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -11811,8 +12288,11 @@
       <c r="DN56" s="23"/>
       <c r="DO56" s="23"/>
       <c r="DP56" s="23"/>
+      <c r="DQ56" s="23"/>
+      <c r="DR56" s="23"/>
+      <c r="DS56" s="23"/>
     </row>
-    <row r="57" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -11932,8 +12412,11 @@
       <c r="DN57" s="23"/>
       <c r="DO57" s="23"/>
       <c r="DP57" s="23"/>
+      <c r="DQ57" s="23"/>
+      <c r="DR57" s="23"/>
+      <c r="DS57" s="23"/>
     </row>
-    <row r="58" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -12053,8 +12536,11 @@
       <c r="DN58" s="23"/>
       <c r="DO58" s="23"/>
       <c r="DP58" s="23"/>
+      <c r="DQ58" s="23"/>
+      <c r="DR58" s="23"/>
+      <c r="DS58" s="23"/>
     </row>
-    <row r="59" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -12174,8 +12660,11 @@
       <c r="DN59" s="23"/>
       <c r="DO59" s="23"/>
       <c r="DP59" s="23"/>
+      <c r="DQ59" s="23"/>
+      <c r="DR59" s="23"/>
+      <c r="DS59" s="23"/>
     </row>
-    <row r="60" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -12295,8 +12784,11 @@
       <c r="DN60" s="23"/>
       <c r="DO60" s="23"/>
       <c r="DP60" s="23"/>
+      <c r="DQ60" s="23"/>
+      <c r="DR60" s="23"/>
+      <c r="DS60" s="23"/>
     </row>
-    <row r="61" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -12416,8 +12908,11 @@
       <c r="DN61" s="23"/>
       <c r="DO61" s="23"/>
       <c r="DP61" s="23"/>
+      <c r="DQ61" s="23"/>
+      <c r="DR61" s="23"/>
+      <c r="DS61" s="23"/>
     </row>
-    <row r="62" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -12537,8 +13032,11 @@
       <c r="DN62" s="23"/>
       <c r="DO62" s="23"/>
       <c r="DP62" s="23"/>
+      <c r="DQ62" s="23"/>
+      <c r="DR62" s="23"/>
+      <c r="DS62" s="23"/>
     </row>
-    <row r="63" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -12658,8 +13156,11 @@
       <c r="DN63" s="23"/>
       <c r="DO63" s="23"/>
       <c r="DP63" s="23"/>
+      <c r="DQ63" s="23"/>
+      <c r="DR63" s="23"/>
+      <c r="DS63" s="23"/>
     </row>
-    <row r="64" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -12779,8 +13280,11 @@
       <c r="DN64" s="23"/>
       <c r="DO64" s="23"/>
       <c r="DP64" s="23"/>
+      <c r="DQ64" s="23"/>
+      <c r="DR64" s="23"/>
+      <c r="DS64" s="23"/>
     </row>
-    <row r="65" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -12900,8 +13404,11 @@
       <c r="DN65" s="23"/>
       <c r="DO65" s="23"/>
       <c r="DP65" s="23"/>
+      <c r="DQ65" s="23"/>
+      <c r="DR65" s="23"/>
+      <c r="DS65" s="23"/>
     </row>
-    <row r="66" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -13021,8 +13528,11 @@
       <c r="DN66" s="23"/>
       <c r="DO66" s="23"/>
       <c r="DP66" s="23"/>
+      <c r="DQ66" s="23"/>
+      <c r="DR66" s="23"/>
+      <c r="DS66" s="23"/>
     </row>
-    <row r="67" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -13142,8 +13652,11 @@
       <c r="DN67" s="23"/>
       <c r="DO67" s="23"/>
       <c r="DP67" s="23"/>
+      <c r="DQ67" s="23"/>
+      <c r="DR67" s="23"/>
+      <c r="DS67" s="23"/>
     </row>
-    <row r="68" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -13263,8 +13776,11 @@
       <c r="DN68" s="23"/>
       <c r="DO68" s="23"/>
       <c r="DP68" s="23"/>
+      <c r="DQ68" s="23"/>
+      <c r="DR68" s="23"/>
+      <c r="DS68" s="23"/>
     </row>
-    <row r="69" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -13384,8 +13900,11 @@
       <c r="DN69" s="23"/>
       <c r="DO69" s="23"/>
       <c r="DP69" s="23"/>
+      <c r="DQ69" s="23"/>
+      <c r="DR69" s="23"/>
+      <c r="DS69" s="23"/>
     </row>
-    <row r="70" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -13505,8 +14024,11 @@
       <c r="DN70" s="23"/>
       <c r="DO70" s="23"/>
       <c r="DP70" s="23"/>
+      <c r="DQ70" s="23"/>
+      <c r="DR70" s="23"/>
+      <c r="DS70" s="23"/>
     </row>
-    <row r="71" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -13626,8 +14148,11 @@
       <c r="DN71" s="23"/>
       <c r="DO71" s="23"/>
       <c r="DP71" s="23"/>
+      <c r="DQ71" s="23"/>
+      <c r="DR71" s="23"/>
+      <c r="DS71" s="23"/>
     </row>
-    <row r="72" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -13747,8 +14272,11 @@
       <c r="DN72" s="23"/>
       <c r="DO72" s="23"/>
       <c r="DP72" s="23"/>
+      <c r="DQ72" s="23"/>
+      <c r="DR72" s="23"/>
+      <c r="DS72" s="23"/>
     </row>
-    <row r="73" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -13868,8 +14396,11 @@
       <c r="DN73" s="23"/>
       <c r="DO73" s="23"/>
       <c r="DP73" s="23"/>
+      <c r="DQ73" s="23"/>
+      <c r="DR73" s="23"/>
+      <c r="DS73" s="23"/>
     </row>
-    <row r="74" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -13989,8 +14520,11 @@
       <c r="DN74" s="23"/>
       <c r="DO74" s="23"/>
       <c r="DP74" s="23"/>
+      <c r="DQ74" s="23"/>
+      <c r="DR74" s="23"/>
+      <c r="DS74" s="23"/>
     </row>
-    <row r="75" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -14110,8 +14644,11 @@
       <c r="DN75" s="23"/>
       <c r="DO75" s="23"/>
       <c r="DP75" s="23"/>
+      <c r="DQ75" s="23"/>
+      <c r="DR75" s="23"/>
+      <c r="DS75" s="23"/>
     </row>
-    <row r="76" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -14231,8 +14768,11 @@
       <c r="DN76" s="23"/>
       <c r="DO76" s="23"/>
       <c r="DP76" s="23"/>
+      <c r="DQ76" s="23"/>
+      <c r="DR76" s="23"/>
+      <c r="DS76" s="23"/>
     </row>
-    <row r="77" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -14352,8 +14892,11 @@
       <c r="DN77" s="23"/>
       <c r="DO77" s="23"/>
       <c r="DP77" s="23"/>
+      <c r="DQ77" s="23"/>
+      <c r="DR77" s="23"/>
+      <c r="DS77" s="23"/>
     </row>
-    <row r="78" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -14473,8 +15016,11 @@
       <c r="DN78" s="23"/>
       <c r="DO78" s="23"/>
       <c r="DP78" s="23"/>
+      <c r="DQ78" s="23"/>
+      <c r="DR78" s="23"/>
+      <c r="DS78" s="23"/>
     </row>
-    <row r="79" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -14594,8 +15140,11 @@
       <c r="DN79" s="23"/>
       <c r="DO79" s="23"/>
       <c r="DP79" s="23"/>
+      <c r="DQ79" s="23"/>
+      <c r="DR79" s="23"/>
+      <c r="DS79" s="23"/>
     </row>
-    <row r="80" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -14715,8 +15264,11 @@
       <c r="DN80" s="23"/>
       <c r="DO80" s="23"/>
       <c r="DP80" s="23"/>
+      <c r="DQ80" s="23"/>
+      <c r="DR80" s="23"/>
+      <c r="DS80" s="23"/>
     </row>
-    <row r="81" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -14836,8 +15388,11 @@
       <c r="DN81" s="23"/>
       <c r="DO81" s="23"/>
       <c r="DP81" s="23"/>
+      <c r="DQ81" s="23"/>
+      <c r="DR81" s="23"/>
+      <c r="DS81" s="23"/>
     </row>
-    <row r="82" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -14957,8 +15512,11 @@
       <c r="DN82" s="23"/>
       <c r="DO82" s="23"/>
       <c r="DP82" s="23"/>
+      <c r="DQ82" s="23"/>
+      <c r="DR82" s="23"/>
+      <c r="DS82" s="23"/>
     </row>
-    <row r="83" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -15078,8 +15636,11 @@
       <c r="DN83" s="23"/>
       <c r="DO83" s="23"/>
       <c r="DP83" s="23"/>
+      <c r="DQ83" s="23"/>
+      <c r="DR83" s="23"/>
+      <c r="DS83" s="23"/>
     </row>
-    <row r="84" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -15199,8 +15760,11 @@
       <c r="DN84" s="23"/>
       <c r="DO84" s="23"/>
       <c r="DP84" s="23"/>
+      <c r="DQ84" s="23"/>
+      <c r="DR84" s="23"/>
+      <c r="DS84" s="23"/>
     </row>
-    <row r="85" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -15320,8 +15884,11 @@
       <c r="DN85" s="23"/>
       <c r="DO85" s="23"/>
       <c r="DP85" s="23"/>
+      <c r="DQ85" s="23"/>
+      <c r="DR85" s="23"/>
+      <c r="DS85" s="23"/>
     </row>
-    <row r="86" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -15441,8 +16008,11 @@
       <c r="DN86" s="23"/>
       <c r="DO86" s="23"/>
       <c r="DP86" s="23"/>
+      <c r="DQ86" s="23"/>
+      <c r="DR86" s="23"/>
+      <c r="DS86" s="23"/>
     </row>
-    <row r="87" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -15562,8 +16132,11 @@
       <c r="DN87" s="23"/>
       <c r="DO87" s="23"/>
       <c r="DP87" s="23"/>
+      <c r="DQ87" s="23"/>
+      <c r="DR87" s="23"/>
+      <c r="DS87" s="23"/>
     </row>
-    <row r="88" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -15683,8 +16256,11 @@
       <c r="DN88" s="23"/>
       <c r="DO88" s="23"/>
       <c r="DP88" s="23"/>
+      <c r="DQ88" s="23"/>
+      <c r="DR88" s="23"/>
+      <c r="DS88" s="23"/>
     </row>
-    <row r="89" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -15804,8 +16380,11 @@
       <c r="DN89" s="23"/>
       <c r="DO89" s="23"/>
       <c r="DP89" s="23"/>
+      <c r="DQ89" s="23"/>
+      <c r="DR89" s="23"/>
+      <c r="DS89" s="23"/>
     </row>
-    <row r="90" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -15925,8 +16504,11 @@
       <c r="DN90" s="23"/>
       <c r="DO90" s="23"/>
       <c r="DP90" s="23"/>
+      <c r="DQ90" s="23"/>
+      <c r="DR90" s="23"/>
+      <c r="DS90" s="23"/>
     </row>
-    <row r="91" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -16046,8 +16628,11 @@
       <c r="DN91" s="23"/>
       <c r="DO91" s="23"/>
       <c r="DP91" s="23"/>
+      <c r="DQ91" s="23"/>
+      <c r="DR91" s="23"/>
+      <c r="DS91" s="23"/>
     </row>
-    <row r="92" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -16167,8 +16752,11 @@
       <c r="DN92" s="23"/>
       <c r="DO92" s="23"/>
       <c r="DP92" s="23"/>
+      <c r="DQ92" s="23"/>
+      <c r="DR92" s="23"/>
+      <c r="DS92" s="23"/>
     </row>
-    <row r="93" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -16288,8 +16876,11 @@
       <c r="DN93" s="23"/>
       <c r="DO93" s="23"/>
       <c r="DP93" s="23"/>
+      <c r="DQ93" s="23"/>
+      <c r="DR93" s="23"/>
+      <c r="DS93" s="23"/>
     </row>
-    <row r="94" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -16409,8 +17000,11 @@
       <c r="DN94" s="23"/>
       <c r="DO94" s="23"/>
       <c r="DP94" s="23"/>
+      <c r="DQ94" s="23"/>
+      <c r="DR94" s="23"/>
+      <c r="DS94" s="23"/>
     </row>
-    <row r="95" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
@@ -16530,8 +17124,11 @@
       <c r="DN95" s="23"/>
       <c r="DO95" s="23"/>
       <c r="DP95" s="23"/>
+      <c r="DQ95" s="23"/>
+      <c r="DR95" s="23"/>
+      <c r="DS95" s="23"/>
     </row>
-    <row r="96" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
@@ -16651,8 +17248,11 @@
       <c r="DN96" s="23"/>
       <c r="DO96" s="23"/>
       <c r="DP96" s="23"/>
+      <c r="DQ96" s="23"/>
+      <c r="DR96" s="23"/>
+      <c r="DS96" s="23"/>
     </row>
-    <row r="97" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -16772,8 +17372,11 @@
       <c r="DN97" s="23"/>
       <c r="DO97" s="23"/>
       <c r="DP97" s="23"/>
+      <c r="DQ97" s="23"/>
+      <c r="DR97" s="23"/>
+      <c r="DS97" s="23"/>
     </row>
-    <row r="98" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -16893,8 +17496,11 @@
       <c r="DN98" s="23"/>
       <c r="DO98" s="23"/>
       <c r="DP98" s="23"/>
+      <c r="DQ98" s="23"/>
+      <c r="DR98" s="23"/>
+      <c r="DS98" s="23"/>
     </row>
-    <row r="99" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -17014,8 +17620,11 @@
       <c r="DN99" s="23"/>
       <c r="DO99" s="23"/>
       <c r="DP99" s="23"/>
+      <c r="DQ99" s="23"/>
+      <c r="DR99" s="23"/>
+      <c r="DS99" s="23"/>
     </row>
-    <row r="100" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -17135,8 +17744,11 @@
       <c r="DN100" s="23"/>
       <c r="DO100" s="23"/>
       <c r="DP100" s="23"/>
+      <c r="DQ100" s="23"/>
+      <c r="DR100" s="23"/>
+      <c r="DS100" s="23"/>
     </row>
-    <row r="101" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -17256,8 +17868,11 @@
       <c r="DN101" s="23"/>
       <c r="DO101" s="23"/>
       <c r="DP101" s="23"/>
+      <c r="DQ101" s="23"/>
+      <c r="DR101" s="23"/>
+      <c r="DS101" s="23"/>
     </row>
-    <row r="102" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -17377,8 +17992,11 @@
       <c r="DN102" s="23"/>
       <c r="DO102" s="23"/>
       <c r="DP102" s="23"/>
+      <c r="DQ102" s="23"/>
+      <c r="DR102" s="23"/>
+      <c r="DS102" s="23"/>
     </row>
-    <row r="103" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -17498,8 +18116,11 @@
       <c r="DN103" s="23"/>
       <c r="DO103" s="23"/>
       <c r="DP103" s="23"/>
+      <c r="DQ103" s="23"/>
+      <c r="DR103" s="23"/>
+      <c r="DS103" s="23"/>
     </row>
-    <row r="104" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -17619,8 +18240,11 @@
       <c r="DN104" s="23"/>
       <c r="DO104" s="23"/>
       <c r="DP104" s="23"/>
+      <c r="DQ104" s="23"/>
+      <c r="DR104" s="23"/>
+      <c r="DS104" s="23"/>
     </row>
-    <row r="105" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -17740,8 +18364,11 @@
       <c r="DN105" s="23"/>
       <c r="DO105" s="23"/>
       <c r="DP105" s="23"/>
+      <c r="DQ105" s="23"/>
+      <c r="DR105" s="23"/>
+      <c r="DS105" s="23"/>
     </row>
-    <row r="106" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
@@ -17861,8 +18488,11 @@
       <c r="DN106" s="23"/>
       <c r="DO106" s="23"/>
       <c r="DP106" s="23"/>
+      <c r="DQ106" s="23"/>
+      <c r="DR106" s="23"/>
+      <c r="DS106" s="23"/>
     </row>
-    <row r="107" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
@@ -17982,8 +18612,11 @@
       <c r="DN107" s="23"/>
       <c r="DO107" s="23"/>
       <c r="DP107" s="23"/>
+      <c r="DQ107" s="23"/>
+      <c r="DR107" s="23"/>
+      <c r="DS107" s="23"/>
     </row>
-    <row r="108" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
@@ -18103,8 +18736,11 @@
       <c r="DN108" s="23"/>
       <c r="DO108" s="23"/>
       <c r="DP108" s="23"/>
+      <c r="DQ108" s="23"/>
+      <c r="DR108" s="23"/>
+      <c r="DS108" s="23"/>
     </row>
-    <row r="109" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -18224,8 +18860,11 @@
       <c r="DN109" s="23"/>
       <c r="DO109" s="23"/>
       <c r="DP109" s="23"/>
+      <c r="DQ109" s="23"/>
+      <c r="DR109" s="23"/>
+      <c r="DS109" s="23"/>
     </row>
-    <row r="110" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -18345,8 +18984,11 @@
       <c r="DN110" s="23"/>
       <c r="DO110" s="23"/>
       <c r="DP110" s="23"/>
+      <c r="DQ110" s="23"/>
+      <c r="DR110" s="23"/>
+      <c r="DS110" s="23"/>
     </row>
-    <row r="111" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
@@ -18466,8 +19108,11 @@
       <c r="DN111" s="23"/>
       <c r="DO111" s="23"/>
       <c r="DP111" s="23"/>
+      <c r="DQ111" s="23"/>
+      <c r="DR111" s="23"/>
+      <c r="DS111" s="23"/>
     </row>
-    <row r="112" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -18587,8 +19232,11 @@
       <c r="DN112" s="23"/>
       <c r="DO112" s="23"/>
       <c r="DP112" s="23"/>
+      <c r="DQ112" s="23"/>
+      <c r="DR112" s="23"/>
+      <c r="DS112" s="23"/>
     </row>
-    <row r="113" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -18708,8 +19356,11 @@
       <c r="DN113" s="23"/>
       <c r="DO113" s="23"/>
       <c r="DP113" s="23"/>
+      <c r="DQ113" s="23"/>
+      <c r="DR113" s="23"/>
+      <c r="DS113" s="23"/>
     </row>
-    <row r="114" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -18829,8 +19480,11 @@
       <c r="DN114" s="23"/>
       <c r="DO114" s="23"/>
       <c r="DP114" s="23"/>
+      <c r="DQ114" s="23"/>
+      <c r="DR114" s="23"/>
+      <c r="DS114" s="23"/>
     </row>
-    <row r="115" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -18950,8 +19604,11 @@
       <c r="DN115" s="23"/>
       <c r="DO115" s="23"/>
       <c r="DP115" s="23"/>
+      <c r="DQ115" s="23"/>
+      <c r="DR115" s="23"/>
+      <c r="DS115" s="23"/>
     </row>
-    <row r="116" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -19071,8 +19728,11 @@
       <c r="DN116" s="23"/>
       <c r="DO116" s="23"/>
       <c r="DP116" s="23"/>
+      <c r="DQ116" s="23"/>
+      <c r="DR116" s="23"/>
+      <c r="DS116" s="23"/>
     </row>
-    <row r="117" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -19192,8 +19852,11 @@
       <c r="DN117" s="23"/>
       <c r="DO117" s="23"/>
       <c r="DP117" s="23"/>
+      <c r="DQ117" s="23"/>
+      <c r="DR117" s="23"/>
+      <c r="DS117" s="23"/>
     </row>
-    <row r="118" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -19313,8 +19976,11 @@
       <c r="DN118" s="23"/>
       <c r="DO118" s="23"/>
       <c r="DP118" s="23"/>
+      <c r="DQ118" s="23"/>
+      <c r="DR118" s="23"/>
+      <c r="DS118" s="23"/>
     </row>
-    <row r="119" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -19434,8 +20100,11 @@
       <c r="DN119" s="23"/>
       <c r="DO119" s="23"/>
       <c r="DP119" s="23"/>
+      <c r="DQ119" s="23"/>
+      <c r="DR119" s="23"/>
+      <c r="DS119" s="23"/>
     </row>
-    <row r="120" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -19555,8 +20224,11 @@
       <c r="DN120" s="23"/>
       <c r="DO120" s="23"/>
       <c r="DP120" s="23"/>
+      <c r="DQ120" s="23"/>
+      <c r="DR120" s="23"/>
+      <c r="DS120" s="23"/>
     </row>
-    <row r="121" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -19676,8 +20348,11 @@
       <c r="DN121" s="23"/>
       <c r="DO121" s="23"/>
       <c r="DP121" s="23"/>
+      <c r="DQ121" s="23"/>
+      <c r="DR121" s="23"/>
+      <c r="DS121" s="23"/>
     </row>
-    <row r="122" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -19797,8 +20472,11 @@
       <c r="DN122" s="23"/>
       <c r="DO122" s="23"/>
       <c r="DP122" s="23"/>
+      <c r="DQ122" s="23"/>
+      <c r="DR122" s="23"/>
+      <c r="DS122" s="23"/>
     </row>
-    <row r="123" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -19918,8 +20596,11 @@
       <c r="DN123" s="23"/>
       <c r="DO123" s="23"/>
       <c r="DP123" s="23"/>
+      <c r="DQ123" s="23"/>
+      <c r="DR123" s="23"/>
+      <c r="DS123" s="23"/>
     </row>
-    <row r="124" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -20039,8 +20720,11 @@
       <c r="DN124" s="23"/>
       <c r="DO124" s="23"/>
       <c r="DP124" s="23"/>
+      <c r="DQ124" s="23"/>
+      <c r="DR124" s="23"/>
+      <c r="DS124" s="23"/>
     </row>
-    <row r="125" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -20160,8 +20844,11 @@
       <c r="DN125" s="23"/>
       <c r="DO125" s="23"/>
       <c r="DP125" s="23"/>
+      <c r="DQ125" s="23"/>
+      <c r="DR125" s="23"/>
+      <c r="DS125" s="23"/>
     </row>
-    <row r="126" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
@@ -20281,8 +20968,11 @@
       <c r="DN126" s="23"/>
       <c r="DO126" s="23"/>
       <c r="DP126" s="23"/>
+      <c r="DQ126" s="23"/>
+      <c r="DR126" s="23"/>
+      <c r="DS126" s="23"/>
     </row>
-    <row r="127" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -20402,8 +21092,11 @@
       <c r="DN127" s="23"/>
       <c r="DO127" s="23"/>
       <c r="DP127" s="23"/>
+      <c r="DQ127" s="23"/>
+      <c r="DR127" s="23"/>
+      <c r="DS127" s="23"/>
     </row>
-    <row r="128" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
@@ -20523,8 +21216,11 @@
       <c r="DN128" s="23"/>
       <c r="DO128" s="23"/>
       <c r="DP128" s="23"/>
+      <c r="DQ128" s="23"/>
+      <c r="DR128" s="23"/>
+      <c r="DS128" s="23"/>
     </row>
-    <row r="129" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -20644,8 +21340,11 @@
       <c r="DN129" s="23"/>
       <c r="DO129" s="23"/>
       <c r="DP129" s="23"/>
+      <c r="DQ129" s="23"/>
+      <c r="DR129" s="23"/>
+      <c r="DS129" s="23"/>
     </row>
-    <row r="130" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -20765,8 +21464,11 @@
       <c r="DN130" s="23"/>
       <c r="DO130" s="23"/>
       <c r="DP130" s="23"/>
+      <c r="DQ130" s="23"/>
+      <c r="DR130" s="23"/>
+      <c r="DS130" s="23"/>
     </row>
-    <row r="131" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -20886,8 +21588,11 @@
       <c r="DN131" s="23"/>
       <c r="DO131" s="23"/>
       <c r="DP131" s="23"/>
+      <c r="DQ131" s="23"/>
+      <c r="DR131" s="23"/>
+      <c r="DS131" s="23"/>
     </row>
-    <row r="132" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -21007,8 +21712,11 @@
       <c r="DN132" s="23"/>
       <c r="DO132" s="23"/>
       <c r="DP132" s="23"/>
+      <c r="DQ132" s="23"/>
+      <c r="DR132" s="23"/>
+      <c r="DS132" s="23"/>
     </row>
-    <row r="133" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -21128,8 +21836,11 @@
       <c r="DN133" s="23"/>
       <c r="DO133" s="23"/>
       <c r="DP133" s="23"/>
+      <c r="DQ133" s="23"/>
+      <c r="DR133" s="23"/>
+      <c r="DS133" s="23"/>
     </row>
-    <row r="134" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -21249,8 +21960,11 @@
       <c r="DN134" s="23"/>
       <c r="DO134" s="23"/>
       <c r="DP134" s="23"/>
+      <c r="DQ134" s="23"/>
+      <c r="DR134" s="23"/>
+      <c r="DS134" s="23"/>
     </row>
-    <row r="135" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -21370,8 +22084,11 @@
       <c r="DN135" s="23"/>
       <c r="DO135" s="23"/>
       <c r="DP135" s="23"/>
+      <c r="DQ135" s="23"/>
+      <c r="DR135" s="23"/>
+      <c r="DS135" s="23"/>
     </row>
-    <row r="136" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -21491,8 +22208,11 @@
       <c r="DN136" s="23"/>
       <c r="DO136" s="23"/>
       <c r="DP136" s="23"/>
+      <c r="DQ136" s="23"/>
+      <c r="DR136" s="23"/>
+      <c r="DS136" s="23"/>
     </row>
-    <row r="137" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -21612,8 +22332,11 @@
       <c r="DN137" s="23"/>
       <c r="DO137" s="23"/>
       <c r="DP137" s="23"/>
+      <c r="DQ137" s="23"/>
+      <c r="DR137" s="23"/>
+      <c r="DS137" s="23"/>
     </row>
-    <row r="138" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
@@ -21733,8 +22456,11 @@
       <c r="DN138" s="23"/>
       <c r="DO138" s="23"/>
       <c r="DP138" s="23"/>
+      <c r="DQ138" s="23"/>
+      <c r="DR138" s="23"/>
+      <c r="DS138" s="23"/>
     </row>
-    <row r="139" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
@@ -21854,8 +22580,11 @@
       <c r="DN139" s="23"/>
       <c r="DO139" s="23"/>
       <c r="DP139" s="23"/>
+      <c r="DQ139" s="23"/>
+      <c r="DR139" s="23"/>
+      <c r="DS139" s="23"/>
     </row>
-    <row r="140" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -21975,8 +22704,11 @@
       <c r="DN140" s="23"/>
       <c r="DO140" s="23"/>
       <c r="DP140" s="23"/>
+      <c r="DQ140" s="23"/>
+      <c r="DR140" s="23"/>
+      <c r="DS140" s="23"/>
     </row>
-    <row r="141" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
@@ -22096,8 +22828,11 @@
       <c r="DN141" s="23"/>
       <c r="DO141" s="23"/>
       <c r="DP141" s="23"/>
+      <c r="DQ141" s="23"/>
+      <c r="DR141" s="23"/>
+      <c r="DS141" s="23"/>
     </row>
-    <row r="142" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -22217,8 +22952,11 @@
       <c r="DN142" s="23"/>
       <c r="DO142" s="23"/>
       <c r="DP142" s="23"/>
+      <c r="DQ142" s="23"/>
+      <c r="DR142" s="23"/>
+      <c r="DS142" s="23"/>
     </row>
-    <row r="143" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
@@ -22338,8 +23076,11 @@
       <c r="DN143" s="23"/>
       <c r="DO143" s="23"/>
       <c r="DP143" s="23"/>
+      <c r="DQ143" s="23"/>
+      <c r="DR143" s="23"/>
+      <c r="DS143" s="23"/>
     </row>
-    <row r="144" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
@@ -22459,8 +23200,11 @@
       <c r="DN144" s="23"/>
       <c r="DO144" s="23"/>
       <c r="DP144" s="23"/>
+      <c r="DQ144" s="23"/>
+      <c r="DR144" s="23"/>
+      <c r="DS144" s="23"/>
     </row>
-    <row r="145" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -22580,8 +23324,11 @@
       <c r="DN145" s="23"/>
       <c r="DO145" s="23"/>
       <c r="DP145" s="23"/>
+      <c r="DQ145" s="23"/>
+      <c r="DR145" s="23"/>
+      <c r="DS145" s="23"/>
     </row>
-    <row r="146" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -22701,8 +23448,11 @@
       <c r="DN146" s="23"/>
       <c r="DO146" s="23"/>
       <c r="DP146" s="23"/>
+      <c r="DQ146" s="23"/>
+      <c r="DR146" s="23"/>
+      <c r="DS146" s="23"/>
     </row>
-    <row r="147" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -22822,8 +23572,11 @@
       <c r="DN147" s="23"/>
       <c r="DO147" s="23"/>
       <c r="DP147" s="23"/>
+      <c r="DQ147" s="23"/>
+      <c r="DR147" s="23"/>
+      <c r="DS147" s="23"/>
     </row>
-    <row r="148" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -22943,8 +23696,11 @@
       <c r="DN148" s="23"/>
       <c r="DO148" s="23"/>
       <c r="DP148" s="23"/>
+      <c r="DQ148" s="23"/>
+      <c r="DR148" s="23"/>
+      <c r="DS148" s="23"/>
     </row>
-    <row r="149" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -23064,8 +23820,11 @@
       <c r="DN149" s="23"/>
       <c r="DO149" s="23"/>
       <c r="DP149" s="23"/>
+      <c r="DQ149" s="23"/>
+      <c r="DR149" s="23"/>
+      <c r="DS149" s="23"/>
     </row>
-    <row r="150" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -23185,8 +23944,11 @@
       <c r="DN150" s="23"/>
       <c r="DO150" s="23"/>
       <c r="DP150" s="23"/>
+      <c r="DQ150" s="23"/>
+      <c r="DR150" s="23"/>
+      <c r="DS150" s="23"/>
     </row>
-    <row r="151" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -23306,8 +24068,11 @@
       <c r="DN151" s="23"/>
       <c r="DO151" s="23"/>
       <c r="DP151" s="23"/>
+      <c r="DQ151" s="23"/>
+      <c r="DR151" s="23"/>
+      <c r="DS151" s="23"/>
     </row>
-    <row r="152" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -23427,8 +24192,11 @@
       <c r="DN152" s="23"/>
       <c r="DO152" s="23"/>
       <c r="DP152" s="23"/>
+      <c r="DQ152" s="23"/>
+      <c r="DR152" s="23"/>
+      <c r="DS152" s="23"/>
     </row>
-    <row r="153" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -23548,8 +24316,11 @@
       <c r="DN153" s="23"/>
       <c r="DO153" s="23"/>
       <c r="DP153" s="23"/>
+      <c r="DQ153" s="23"/>
+      <c r="DR153" s="23"/>
+      <c r="DS153" s="23"/>
     </row>
-    <row r="154" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -23669,8 +24440,11 @@
       <c r="DN154" s="23"/>
       <c r="DO154" s="23"/>
       <c r="DP154" s="23"/>
+      <c r="DQ154" s="23"/>
+      <c r="DR154" s="23"/>
+      <c r="DS154" s="23"/>
     </row>
-    <row r="155" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -23790,8 +24564,11 @@
       <c r="DN155" s="23"/>
       <c r="DO155" s="23"/>
       <c r="DP155" s="23"/>
+      <c r="DQ155" s="23"/>
+      <c r="DR155" s="23"/>
+      <c r="DS155" s="23"/>
     </row>
-    <row r="156" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -23911,8 +24688,11 @@
       <c r="DN156" s="23"/>
       <c r="DO156" s="23"/>
       <c r="DP156" s="23"/>
+      <c r="DQ156" s="23"/>
+      <c r="DR156" s="23"/>
+      <c r="DS156" s="23"/>
     </row>
-    <row r="157" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -24032,8 +24812,11 @@
       <c r="DN157" s="23"/>
       <c r="DO157" s="23"/>
       <c r="DP157" s="23"/>
+      <c r="DQ157" s="23"/>
+      <c r="DR157" s="23"/>
+      <c r="DS157" s="23"/>
     </row>
-    <row r="158" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -24153,8 +24936,11 @@
       <c r="DN158" s="23"/>
       <c r="DO158" s="23"/>
       <c r="DP158" s="23"/>
+      <c r="DQ158" s="23"/>
+      <c r="DR158" s="23"/>
+      <c r="DS158" s="23"/>
     </row>
-    <row r="159" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -24274,8 +25060,11 @@
       <c r="DN159" s="23"/>
       <c r="DO159" s="23"/>
       <c r="DP159" s="23"/>
+      <c r="DQ159" s="23"/>
+      <c r="DR159" s="23"/>
+      <c r="DS159" s="23"/>
     </row>
-    <row r="160" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -24395,8 +25184,11 @@
       <c r="DN160" s="23"/>
       <c r="DO160" s="23"/>
       <c r="DP160" s="23"/>
+      <c r="DQ160" s="23"/>
+      <c r="DR160" s="23"/>
+      <c r="DS160" s="23"/>
     </row>
-    <row r="161" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -24516,8 +25308,11 @@
       <c r="DN161" s="23"/>
       <c r="DO161" s="23"/>
       <c r="DP161" s="23"/>
+      <c r="DQ161" s="23"/>
+      <c r="DR161" s="23"/>
+      <c r="DS161" s="23"/>
     </row>
-    <row r="162" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -24637,8 +25432,11 @@
       <c r="DN162" s="23"/>
       <c r="DO162" s="23"/>
       <c r="DP162" s="23"/>
+      <c r="DQ162" s="23"/>
+      <c r="DR162" s="23"/>
+      <c r="DS162" s="23"/>
     </row>
-    <row r="163" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -24758,8 +25556,11 @@
       <c r="DN163" s="23"/>
       <c r="DO163" s="23"/>
       <c r="DP163" s="23"/>
+      <c r="DQ163" s="23"/>
+      <c r="DR163" s="23"/>
+      <c r="DS163" s="23"/>
     </row>
-    <row r="164" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -24879,8 +25680,11 @@
       <c r="DN164" s="23"/>
       <c r="DO164" s="23"/>
       <c r="DP164" s="23"/>
+      <c r="DQ164" s="23"/>
+      <c r="DR164" s="23"/>
+      <c r="DS164" s="23"/>
     </row>
-    <row r="165" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -25000,8 +25804,11 @@
       <c r="DN165" s="23"/>
       <c r="DO165" s="23"/>
       <c r="DP165" s="23"/>
+      <c r="DQ165" s="23"/>
+      <c r="DR165" s="23"/>
+      <c r="DS165" s="23"/>
     </row>
-    <row r="166" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -25121,8 +25928,11 @@
       <c r="DN166" s="23"/>
       <c r="DO166" s="23"/>
       <c r="DP166" s="23"/>
+      <c r="DQ166" s="23"/>
+      <c r="DR166" s="23"/>
+      <c r="DS166" s="23"/>
     </row>
-    <row r="167" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -25242,8 +26052,11 @@
       <c r="DN167" s="23"/>
       <c r="DO167" s="23"/>
       <c r="DP167" s="23"/>
+      <c r="DQ167" s="23"/>
+      <c r="DR167" s="23"/>
+      <c r="DS167" s="23"/>
     </row>
-    <row r="168" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -25363,8 +26176,11 @@
       <c r="DN168" s="23"/>
       <c r="DO168" s="23"/>
       <c r="DP168" s="23"/>
+      <c r="DQ168" s="23"/>
+      <c r="DR168" s="23"/>
+      <c r="DS168" s="23"/>
     </row>
-    <row r="169" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -25484,8 +26300,11 @@
       <c r="DN169" s="23"/>
       <c r="DO169" s="23"/>
       <c r="DP169" s="23"/>
+      <c r="DQ169" s="23"/>
+      <c r="DR169" s="23"/>
+      <c r="DS169" s="23"/>
     </row>
-    <row r="170" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -25605,8 +26424,11 @@
       <c r="DN170" s="23"/>
       <c r="DO170" s="23"/>
       <c r="DP170" s="23"/>
+      <c r="DQ170" s="23"/>
+      <c r="DR170" s="23"/>
+      <c r="DS170" s="23"/>
     </row>
-    <row r="171" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -25726,8 +26548,11 @@
       <c r="DN171" s="23"/>
       <c r="DO171" s="23"/>
       <c r="DP171" s="23"/>
+      <c r="DQ171" s="23"/>
+      <c r="DR171" s="23"/>
+      <c r="DS171" s="23"/>
     </row>
-    <row r="172" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -25847,8 +26672,11 @@
       <c r="DN172" s="23"/>
       <c r="DO172" s="23"/>
       <c r="DP172" s="23"/>
+      <c r="DQ172" s="23"/>
+      <c r="DR172" s="23"/>
+      <c r="DS172" s="23"/>
     </row>
-    <row r="173" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -25968,8 +26796,11 @@
       <c r="DN173" s="23"/>
       <c r="DO173" s="23"/>
       <c r="DP173" s="23"/>
+      <c r="DQ173" s="23"/>
+      <c r="DR173" s="23"/>
+      <c r="DS173" s="23"/>
     </row>
-    <row r="174" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -26089,8 +26920,11 @@
       <c r="DN174" s="23"/>
       <c r="DO174" s="23"/>
       <c r="DP174" s="23"/>
+      <c r="DQ174" s="23"/>
+      <c r="DR174" s="23"/>
+      <c r="DS174" s="23"/>
     </row>
-    <row r="175" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -26210,8 +27044,11 @@
       <c r="DN175" s="23"/>
       <c r="DO175" s="23"/>
       <c r="DP175" s="23"/>
+      <c r="DQ175" s="23"/>
+      <c r="DR175" s="23"/>
+      <c r="DS175" s="23"/>
     </row>
-    <row r="176" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -26331,8 +27168,11 @@
       <c r="DN176" s="23"/>
       <c r="DO176" s="23"/>
       <c r="DP176" s="23"/>
+      <c r="DQ176" s="23"/>
+      <c r="DR176" s="23"/>
+      <c r="DS176" s="23"/>
     </row>
-    <row r="177" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -26452,8 +27292,11 @@
       <c r="DN177" s="23"/>
       <c r="DO177" s="23"/>
       <c r="DP177" s="23"/>
+      <c r="DQ177" s="23"/>
+      <c r="DR177" s="23"/>
+      <c r="DS177" s="23"/>
     </row>
-    <row r="178" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -26573,8 +27416,11 @@
       <c r="DN178" s="23"/>
       <c r="DO178" s="23"/>
       <c r="DP178" s="23"/>
+      <c r="DQ178" s="23"/>
+      <c r="DR178" s="23"/>
+      <c r="DS178" s="23"/>
     </row>
-    <row r="179" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -26694,8 +27540,11 @@
       <c r="DN179" s="23"/>
       <c r="DO179" s="23"/>
       <c r="DP179" s="23"/>
+      <c r="DQ179" s="23"/>
+      <c r="DR179" s="23"/>
+      <c r="DS179" s="23"/>
     </row>
-    <row r="180" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -26815,8 +27664,11 @@
       <c r="DN180" s="23"/>
       <c r="DO180" s="23"/>
       <c r="DP180" s="23"/>
+      <c r="DQ180" s="23"/>
+      <c r="DR180" s="23"/>
+      <c r="DS180" s="23"/>
     </row>
-    <row r="181" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -26936,8 +27788,11 @@
       <c r="DN181" s="23"/>
       <c r="DO181" s="23"/>
       <c r="DP181" s="23"/>
+      <c r="DQ181" s="23"/>
+      <c r="DR181" s="23"/>
+      <c r="DS181" s="23"/>
     </row>
-    <row r="182" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -27057,8 +27912,11 @@
       <c r="DN182" s="23"/>
       <c r="DO182" s="23"/>
       <c r="DP182" s="23"/>
+      <c r="DQ182" s="23"/>
+      <c r="DR182" s="23"/>
+      <c r="DS182" s="23"/>
     </row>
-    <row r="183" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -27178,8 +28036,11 @@
       <c r="DN183" s="23"/>
       <c r="DO183" s="23"/>
       <c r="DP183" s="23"/>
+      <c r="DQ183" s="23"/>
+      <c r="DR183" s="23"/>
+      <c r="DS183" s="23"/>
     </row>
-    <row r="184" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -27299,8 +28160,11 @@
       <c r="DN184" s="23"/>
       <c r="DO184" s="23"/>
       <c r="DP184" s="23"/>
+      <c r="DQ184" s="23"/>
+      <c r="DR184" s="23"/>
+      <c r="DS184" s="23"/>
     </row>
-    <row r="185" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -27420,8 +28284,11 @@
       <c r="DN185" s="23"/>
       <c r="DO185" s="23"/>
       <c r="DP185" s="23"/>
+      <c r="DQ185" s="23"/>
+      <c r="DR185" s="23"/>
+      <c r="DS185" s="23"/>
     </row>
-    <row r="186" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -27541,8 +28408,11 @@
       <c r="DN186" s="23"/>
       <c r="DO186" s="23"/>
       <c r="DP186" s="23"/>
+      <c r="DQ186" s="23"/>
+      <c r="DR186" s="23"/>
+      <c r="DS186" s="23"/>
     </row>
-    <row r="187" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -27662,8 +28532,11 @@
       <c r="DN187" s="23"/>
       <c r="DO187" s="23"/>
       <c r="DP187" s="23"/>
+      <c r="DQ187" s="23"/>
+      <c r="DR187" s="23"/>
+      <c r="DS187" s="23"/>
     </row>
-    <row r="188" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -27783,8 +28656,11 @@
       <c r="DN188" s="23"/>
       <c r="DO188" s="23"/>
       <c r="DP188" s="23"/>
+      <c r="DQ188" s="23"/>
+      <c r="DR188" s="23"/>
+      <c r="DS188" s="23"/>
     </row>
-    <row r="189" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -27904,8 +28780,11 @@
       <c r="DN189" s="23"/>
       <c r="DO189" s="23"/>
       <c r="DP189" s="23"/>
+      <c r="DQ189" s="23"/>
+      <c r="DR189" s="23"/>
+      <c r="DS189" s="23"/>
     </row>
-    <row r="190" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -28025,8 +28904,11 @@
       <c r="DN190" s="23"/>
       <c r="DO190" s="23"/>
       <c r="DP190" s="23"/>
+      <c r="DQ190" s="23"/>
+      <c r="DR190" s="23"/>
+      <c r="DS190" s="23"/>
     </row>
-    <row r="191" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -28146,8 +29028,11 @@
       <c r="DN191" s="23"/>
       <c r="DO191" s="23"/>
       <c r="DP191" s="23"/>
+      <c r="DQ191" s="23"/>
+      <c r="DR191" s="23"/>
+      <c r="DS191" s="23"/>
     </row>
-    <row r="192" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -28267,8 +29152,11 @@
       <c r="DN192" s="23"/>
       <c r="DO192" s="23"/>
       <c r="DP192" s="23"/>
+      <c r="DQ192" s="23"/>
+      <c r="DR192" s="23"/>
+      <c r="DS192" s="23"/>
     </row>
-    <row r="193" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -28388,8 +29276,11 @@
       <c r="DN193" s="23"/>
       <c r="DO193" s="23"/>
       <c r="DP193" s="23"/>
+      <c r="DQ193" s="23"/>
+      <c r="DR193" s="23"/>
+      <c r="DS193" s="23"/>
     </row>
-    <row r="194" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -28509,8 +29400,11 @@
       <c r="DN194" s="23"/>
       <c r="DO194" s="23"/>
       <c r="DP194" s="23"/>
+      <c r="DQ194" s="23"/>
+      <c r="DR194" s="23"/>
+      <c r="DS194" s="23"/>
     </row>
-    <row r="195" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -28630,8 +29524,11 @@
       <c r="DN195" s="23"/>
       <c r="DO195" s="23"/>
       <c r="DP195" s="23"/>
+      <c r="DQ195" s="23"/>
+      <c r="DR195" s="23"/>
+      <c r="DS195" s="23"/>
     </row>
-    <row r="196" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -28751,8 +29648,11 @@
       <c r="DN196" s="23"/>
       <c r="DO196" s="23"/>
       <c r="DP196" s="23"/>
+      <c r="DQ196" s="23"/>
+      <c r="DR196" s="23"/>
+      <c r="DS196" s="23"/>
     </row>
-    <row r="197" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -28872,8 +29772,11 @@
       <c r="DN197" s="23"/>
       <c r="DO197" s="23"/>
       <c r="DP197" s="23"/>
+      <c r="DQ197" s="23"/>
+      <c r="DR197" s="23"/>
+      <c r="DS197" s="23"/>
     </row>
-    <row r="198" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -28993,8 +29896,11 @@
       <c r="DN198" s="23"/>
       <c r="DO198" s="23"/>
       <c r="DP198" s="23"/>
+      <c r="DQ198" s="23"/>
+      <c r="DR198" s="23"/>
+      <c r="DS198" s="23"/>
     </row>
-    <row r="199" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -29114,8 +30020,11 @@
       <c r="DN199" s="23"/>
       <c r="DO199" s="23"/>
       <c r="DP199" s="23"/>
+      <c r="DQ199" s="23"/>
+      <c r="DR199" s="23"/>
+      <c r="DS199" s="23"/>
     </row>
-    <row r="200" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -29235,8 +30144,11 @@
       <c r="DN200" s="23"/>
       <c r="DO200" s="23"/>
       <c r="DP200" s="23"/>
+      <c r="DQ200" s="23"/>
+      <c r="DR200" s="23"/>
+      <c r="DS200" s="23"/>
     </row>
-    <row r="201" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -29356,8 +30268,11 @@
       <c r="DN201" s="23"/>
       <c r="DO201" s="23"/>
       <c r="DP201" s="23"/>
+      <c r="DQ201" s="23"/>
+      <c r="DR201" s="23"/>
+      <c r="DS201" s="23"/>
     </row>
-    <row r="202" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -29477,8 +30392,11 @@
       <c r="DN202" s="23"/>
       <c r="DO202" s="23"/>
       <c r="DP202" s="23"/>
+      <c r="DQ202" s="23"/>
+      <c r="DR202" s="23"/>
+      <c r="DS202" s="23"/>
     </row>
-    <row r="203" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -29598,8 +30516,11 @@
       <c r="DN203" s="23"/>
       <c r="DO203" s="23"/>
       <c r="DP203" s="23"/>
+      <c r="DQ203" s="23"/>
+      <c r="DR203" s="23"/>
+      <c r="DS203" s="23"/>
     </row>
-    <row r="204" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -29719,8 +30640,11 @@
       <c r="DN204" s="23"/>
       <c r="DO204" s="23"/>
       <c r="DP204" s="23"/>
+      <c r="DQ204" s="23"/>
+      <c r="DR204" s="23"/>
+      <c r="DS204" s="23"/>
     </row>
-    <row r="205" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -29840,8 +30764,11 @@
       <c r="DN205" s="23"/>
       <c r="DO205" s="23"/>
       <c r="DP205" s="23"/>
+      <c r="DQ205" s="23"/>
+      <c r="DR205" s="23"/>
+      <c r="DS205" s="23"/>
     </row>
-    <row r="206" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -29961,8 +30888,11 @@
       <c r="DN206" s="23"/>
       <c r="DO206" s="23"/>
       <c r="DP206" s="23"/>
+      <c r="DQ206" s="23"/>
+      <c r="DR206" s="23"/>
+      <c r="DS206" s="23"/>
     </row>
-    <row r="207" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -30082,8 +31012,11 @@
       <c r="DN207" s="23"/>
       <c r="DO207" s="23"/>
       <c r="DP207" s="23"/>
+      <c r="DQ207" s="23"/>
+      <c r="DR207" s="23"/>
+      <c r="DS207" s="23"/>
     </row>
-    <row r="208" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -30203,8 +31136,11 @@
       <c r="DN208" s="23"/>
       <c r="DO208" s="23"/>
       <c r="DP208" s="23"/>
+      <c r="DQ208" s="23"/>
+      <c r="DR208" s="23"/>
+      <c r="DS208" s="23"/>
     </row>
-    <row r="209" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B209" s="23"/>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -30324,8 +31260,11 @@
       <c r="DN209" s="23"/>
       <c r="DO209" s="23"/>
       <c r="DP209" s="23"/>
+      <c r="DQ209" s="23"/>
+      <c r="DR209" s="23"/>
+      <c r="DS209" s="23"/>
     </row>
-    <row r="210" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B210" s="23"/>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -30445,8 +31384,11 @@
       <c r="DN210" s="23"/>
       <c r="DO210" s="23"/>
       <c r="DP210" s="23"/>
+      <c r="DQ210" s="23"/>
+      <c r="DR210" s="23"/>
+      <c r="DS210" s="23"/>
     </row>
-    <row r="211" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B211" s="23"/>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -30566,8 +31508,11 @@
       <c r="DN211" s="23"/>
       <c r="DO211" s="23"/>
       <c r="DP211" s="23"/>
+      <c r="DQ211" s="23"/>
+      <c r="DR211" s="23"/>
+      <c r="DS211" s="23"/>
     </row>
-    <row r="212" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -30687,8 +31632,11 @@
       <c r="DN212" s="23"/>
       <c r="DO212" s="23"/>
       <c r="DP212" s="23"/>
+      <c r="DQ212" s="23"/>
+      <c r="DR212" s="23"/>
+      <c r="DS212" s="23"/>
     </row>
-    <row r="213" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -30808,8 +31756,11 @@
       <c r="DN213" s="23"/>
       <c r="DO213" s="23"/>
       <c r="DP213" s="23"/>
+      <c r="DQ213" s="23"/>
+      <c r="DR213" s="23"/>
+      <c r="DS213" s="23"/>
     </row>
-    <row r="214" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -30929,8 +31880,11 @@
       <c r="DN214" s="23"/>
       <c r="DO214" s="23"/>
       <c r="DP214" s="23"/>
+      <c r="DQ214" s="23"/>
+      <c r="DR214" s="23"/>
+      <c r="DS214" s="23"/>
     </row>
-    <row r="215" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -31050,8 +32004,11 @@
       <c r="DN215" s="23"/>
       <c r="DO215" s="23"/>
       <c r="DP215" s="23"/>
+      <c r="DQ215" s="23"/>
+      <c r="DR215" s="23"/>
+      <c r="DS215" s="23"/>
     </row>
-    <row r="216" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B216" s="23"/>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -31171,8 +32128,11 @@
       <c r="DN216" s="23"/>
       <c r="DO216" s="23"/>
       <c r="DP216" s="23"/>
+      <c r="DQ216" s="23"/>
+      <c r="DR216" s="23"/>
+      <c r="DS216" s="23"/>
     </row>
-    <row r="217" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B217" s="23"/>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -31292,8 +32252,11 @@
       <c r="DN217" s="23"/>
       <c r="DO217" s="23"/>
       <c r="DP217" s="23"/>
+      <c r="DQ217" s="23"/>
+      <c r="DR217" s="23"/>
+      <c r="DS217" s="23"/>
     </row>
-    <row r="218" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -31413,8 +32376,11 @@
       <c r="DN218" s="23"/>
       <c r="DO218" s="23"/>
       <c r="DP218" s="23"/>
+      <c r="DQ218" s="23"/>
+      <c r="DR218" s="23"/>
+      <c r="DS218" s="23"/>
     </row>
-    <row r="219" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -31534,8 +32500,11 @@
       <c r="DN219" s="23"/>
       <c r="DO219" s="23"/>
       <c r="DP219" s="23"/>
+      <c r="DQ219" s="23"/>
+      <c r="DR219" s="23"/>
+      <c r="DS219" s="23"/>
     </row>
-    <row r="220" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B220" s="23"/>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -31655,8 +32624,11 @@
       <c r="DN220" s="23"/>
       <c r="DO220" s="23"/>
       <c r="DP220" s="23"/>
+      <c r="DQ220" s="23"/>
+      <c r="DR220" s="23"/>
+      <c r="DS220" s="23"/>
     </row>
-    <row r="221" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B221" s="23"/>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -31776,8 +32748,11 @@
       <c r="DN221" s="23"/>
       <c r="DO221" s="23"/>
       <c r="DP221" s="23"/>
+      <c r="DQ221" s="23"/>
+      <c r="DR221" s="23"/>
+      <c r="DS221" s="23"/>
     </row>
-    <row r="222" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B222" s="23"/>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -31897,8 +32872,11 @@
       <c r="DN222" s="23"/>
       <c r="DO222" s="23"/>
       <c r="DP222" s="23"/>
+      <c r="DQ222" s="23"/>
+      <c r="DR222" s="23"/>
+      <c r="DS222" s="23"/>
     </row>
-    <row r="223" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B223" s="23"/>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -32018,8 +32996,11 @@
       <c r="DN223" s="23"/>
       <c r="DO223" s="23"/>
       <c r="DP223" s="23"/>
+      <c r="DQ223" s="23"/>
+      <c r="DR223" s="23"/>
+      <c r="DS223" s="23"/>
     </row>
-    <row r="224" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B224" s="23"/>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -32139,8 +33120,11 @@
       <c r="DN224" s="23"/>
       <c r="DO224" s="23"/>
       <c r="DP224" s="23"/>
+      <c r="DQ224" s="23"/>
+      <c r="DR224" s="23"/>
+      <c r="DS224" s="23"/>
     </row>
-    <row r="225" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -32260,8 +33244,11 @@
       <c r="DN225" s="23"/>
       <c r="DO225" s="23"/>
       <c r="DP225" s="23"/>
+      <c r="DQ225" s="23"/>
+      <c r="DR225" s="23"/>
+      <c r="DS225" s="23"/>
     </row>
-    <row r="226" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B226" s="23"/>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -32381,8 +33368,11 @@
       <c r="DN226" s="23"/>
       <c r="DO226" s="23"/>
       <c r="DP226" s="23"/>
+      <c r="DQ226" s="23"/>
+      <c r="DR226" s="23"/>
+      <c r="DS226" s="23"/>
     </row>
-    <row r="227" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B227" s="23"/>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -32502,8 +33492,11 @@
       <c r="DN227" s="23"/>
       <c r="DO227" s="23"/>
       <c r="DP227" s="23"/>
+      <c r="DQ227" s="23"/>
+      <c r="DR227" s="23"/>
+      <c r="DS227" s="23"/>
     </row>
-    <row r="228" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B228" s="23"/>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -32623,8 +33616,11 @@
       <c r="DN228" s="23"/>
       <c r="DO228" s="23"/>
       <c r="DP228" s="23"/>
+      <c r="DQ228" s="23"/>
+      <c r="DR228" s="23"/>
+      <c r="DS228" s="23"/>
     </row>
-    <row r="229" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -32744,8 +33740,11 @@
       <c r="DN229" s="23"/>
       <c r="DO229" s="23"/>
       <c r="DP229" s="23"/>
+      <c r="DQ229" s="23"/>
+      <c r="DR229" s="23"/>
+      <c r="DS229" s="23"/>
     </row>
-    <row r="230" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -32865,8 +33864,11 @@
       <c r="DN230" s="23"/>
       <c r="DO230" s="23"/>
       <c r="DP230" s="23"/>
+      <c r="DQ230" s="23"/>
+      <c r="DR230" s="23"/>
+      <c r="DS230" s="23"/>
     </row>
-    <row r="231" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -32986,8 +33988,11 @@
       <c r="DN231" s="23"/>
       <c r="DO231" s="23"/>
       <c r="DP231" s="23"/>
+      <c r="DQ231" s="23"/>
+      <c r="DR231" s="23"/>
+      <c r="DS231" s="23"/>
     </row>
-    <row r="232" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B232" s="23"/>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -33107,8 +34112,11 @@
       <c r="DN232" s="23"/>
       <c r="DO232" s="23"/>
       <c r="DP232" s="23"/>
+      <c r="DQ232" s="23"/>
+      <c r="DR232" s="23"/>
+      <c r="DS232" s="23"/>
     </row>
-    <row r="233" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B233" s="23"/>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -33228,8 +34236,11 @@
       <c r="DN233" s="23"/>
       <c r="DO233" s="23"/>
       <c r="DP233" s="23"/>
+      <c r="DQ233" s="23"/>
+      <c r="DR233" s="23"/>
+      <c r="DS233" s="23"/>
     </row>
-    <row r="234" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B234" s="23"/>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -33349,8 +34360,11 @@
       <c r="DN234" s="23"/>
       <c r="DO234" s="23"/>
       <c r="DP234" s="23"/>
+      <c r="DQ234" s="23"/>
+      <c r="DR234" s="23"/>
+      <c r="DS234" s="23"/>
     </row>
-    <row r="235" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -33470,8 +34484,11 @@
       <c r="DN235" s="23"/>
       <c r="DO235" s="23"/>
       <c r="DP235" s="23"/>
+      <c r="DQ235" s="23"/>
+      <c r="DR235" s="23"/>
+      <c r="DS235" s="23"/>
     </row>
-    <row r="236" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B236" s="23"/>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -33591,8 +34608,11 @@
       <c r="DN236" s="23"/>
       <c r="DO236" s="23"/>
       <c r="DP236" s="23"/>
+      <c r="DQ236" s="23"/>
+      <c r="DR236" s="23"/>
+      <c r="DS236" s="23"/>
     </row>
-    <row r="237" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B237" s="23"/>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
@@ -33712,8 +34732,11 @@
       <c r="DN237" s="23"/>
       <c r="DO237" s="23"/>
       <c r="DP237" s="23"/>
+      <c r="DQ237" s="23"/>
+      <c r="DR237" s="23"/>
+      <c r="DS237" s="23"/>
     </row>
-    <row r="238" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B238" s="23"/>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -33833,8 +34856,11 @@
       <c r="DN238" s="23"/>
       <c r="DO238" s="23"/>
       <c r="DP238" s="23"/>
+      <c r="DQ238" s="23"/>
+      <c r="DR238" s="23"/>
+      <c r="DS238" s="23"/>
     </row>
-    <row r="239" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B239" s="23"/>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
@@ -33954,8 +34980,11 @@
       <c r="DN239" s="23"/>
       <c r="DO239" s="23"/>
       <c r="DP239" s="23"/>
+      <c r="DQ239" s="23"/>
+      <c r="DR239" s="23"/>
+      <c r="DS239" s="23"/>
     </row>
-    <row r="240" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B240" s="23"/>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
@@ -34075,8 +35104,11 @@
       <c r="DN240" s="23"/>
       <c r="DO240" s="23"/>
       <c r="DP240" s="23"/>
+      <c r="DQ240" s="23"/>
+      <c r="DR240" s="23"/>
+      <c r="DS240" s="23"/>
     </row>
-    <row r="241" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B241" s="23"/>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -34196,8 +35228,11 @@
       <c r="DN241" s="23"/>
       <c r="DO241" s="23"/>
       <c r="DP241" s="23"/>
+      <c r="DQ241" s="23"/>
+      <c r="DR241" s="23"/>
+      <c r="DS241" s="23"/>
     </row>
-    <row r="242" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B242" s="23"/>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -34317,8 +35352,11 @@
       <c r="DN242" s="23"/>
       <c r="DO242" s="23"/>
       <c r="DP242" s="23"/>
+      <c r="DQ242" s="23"/>
+      <c r="DR242" s="23"/>
+      <c r="DS242" s="23"/>
     </row>
-    <row r="243" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B243" s="23"/>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
@@ -34438,8 +35476,11 @@
       <c r="DN243" s="23"/>
       <c r="DO243" s="23"/>
       <c r="DP243" s="23"/>
+      <c r="DQ243" s="23"/>
+      <c r="DR243" s="23"/>
+      <c r="DS243" s="23"/>
     </row>
-    <row r="244" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B244" s="23"/>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
@@ -34559,8 +35600,11 @@
       <c r="DN244" s="23"/>
       <c r="DO244" s="23"/>
       <c r="DP244" s="23"/>
+      <c r="DQ244" s="23"/>
+      <c r="DR244" s="23"/>
+      <c r="DS244" s="23"/>
     </row>
-    <row r="245" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B245" s="23"/>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
@@ -34680,8 +35724,11 @@
       <c r="DN245" s="23"/>
       <c r="DO245" s="23"/>
       <c r="DP245" s="23"/>
+      <c r="DQ245" s="23"/>
+      <c r="DR245" s="23"/>
+      <c r="DS245" s="23"/>
     </row>
-    <row r="246" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B246" s="23"/>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
@@ -34801,8 +35848,11 @@
       <c r="DN246" s="23"/>
       <c r="DO246" s="23"/>
       <c r="DP246" s="23"/>
+      <c r="DQ246" s="23"/>
+      <c r="DR246" s="23"/>
+      <c r="DS246" s="23"/>
     </row>
-    <row r="247" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B247" s="23"/>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
@@ -34922,8 +35972,11 @@
       <c r="DN247" s="23"/>
       <c r="DO247" s="23"/>
       <c r="DP247" s="23"/>
+      <c r="DQ247" s="23"/>
+      <c r="DR247" s="23"/>
+      <c r="DS247" s="23"/>
     </row>
-    <row r="248" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B248" s="23"/>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -35043,8 +36096,11 @@
       <c r="DN248" s="23"/>
       <c r="DO248" s="23"/>
       <c r="DP248" s="23"/>
+      <c r="DQ248" s="23"/>
+      <c r="DR248" s="23"/>
+      <c r="DS248" s="23"/>
     </row>
-    <row r="249" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B249" s="23"/>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -35164,8 +36220,11 @@
       <c r="DN249" s="23"/>
       <c r="DO249" s="23"/>
       <c r="DP249" s="23"/>
+      <c r="DQ249" s="23"/>
+      <c r="DR249" s="23"/>
+      <c r="DS249" s="23"/>
     </row>
-    <row r="250" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B250" s="23"/>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -35285,8 +36344,11 @@
       <c r="DN250" s="23"/>
       <c r="DO250" s="23"/>
       <c r="DP250" s="23"/>
+      <c r="DQ250" s="23"/>
+      <c r="DR250" s="23"/>
+      <c r="DS250" s="23"/>
     </row>
-    <row r="251" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
@@ -35406,8 +36468,11 @@
       <c r="DN251" s="23"/>
       <c r="DO251" s="23"/>
       <c r="DP251" s="23"/>
+      <c r="DQ251" s="23"/>
+      <c r="DR251" s="23"/>
+      <c r="DS251" s="23"/>
     </row>
-    <row r="252" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B252" s="23"/>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
@@ -35527,8 +36592,11 @@
       <c r="DN252" s="23"/>
       <c r="DO252" s="23"/>
       <c r="DP252" s="23"/>
+      <c r="DQ252" s="23"/>
+      <c r="DR252" s="23"/>
+      <c r="DS252" s="23"/>
     </row>
-    <row r="253" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
@@ -35648,8 +36716,11 @@
       <c r="DN253" s="23"/>
       <c r="DO253" s="23"/>
       <c r="DP253" s="23"/>
+      <c r="DQ253" s="23"/>
+      <c r="DR253" s="23"/>
+      <c r="DS253" s="23"/>
     </row>
-    <row r="254" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
@@ -35769,8 +36840,11 @@
       <c r="DN254" s="23"/>
       <c r="DO254" s="23"/>
       <c r="DP254" s="23"/>
+      <c r="DQ254" s="23"/>
+      <c r="DR254" s="23"/>
+      <c r="DS254" s="23"/>
     </row>
-    <row r="255" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B255" s="23"/>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
@@ -35890,8 +36964,11 @@
       <c r="DN255" s="23"/>
       <c r="DO255" s="23"/>
       <c r="DP255" s="23"/>
+      <c r="DQ255" s="23"/>
+      <c r="DR255" s="23"/>
+      <c r="DS255" s="23"/>
     </row>
-    <row r="256" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B256" s="23"/>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
@@ -36011,8 +37088,11 @@
       <c r="DN256" s="23"/>
       <c r="DO256" s="23"/>
       <c r="DP256" s="23"/>
+      <c r="DQ256" s="23"/>
+      <c r="DR256" s="23"/>
+      <c r="DS256" s="23"/>
     </row>
-    <row r="257" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B257" s="23"/>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
@@ -36132,8 +37212,11 @@
       <c r="DN257" s="23"/>
       <c r="DO257" s="23"/>
       <c r="DP257" s="23"/>
+      <c r="DQ257" s="23"/>
+      <c r="DR257" s="23"/>
+      <c r="DS257" s="23"/>
     </row>
-    <row r="258" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B258" s="23"/>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
@@ -36253,8 +37336,11 @@
       <c r="DN258" s="23"/>
       <c r="DO258" s="23"/>
       <c r="DP258" s="23"/>
+      <c r="DQ258" s="23"/>
+      <c r="DR258" s="23"/>
+      <c r="DS258" s="23"/>
     </row>
-    <row r="259" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B259" s="23"/>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -36374,8 +37460,11 @@
       <c r="DN259" s="23"/>
       <c r="DO259" s="23"/>
       <c r="DP259" s="23"/>
+      <c r="DQ259" s="23"/>
+      <c r="DR259" s="23"/>
+      <c r="DS259" s="23"/>
     </row>
-    <row r="260" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B260" s="23"/>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
@@ -36495,8 +37584,11 @@
       <c r="DN260" s="23"/>
       <c r="DO260" s="23"/>
       <c r="DP260" s="23"/>
+      <c r="DQ260" s="23"/>
+      <c r="DR260" s="23"/>
+      <c r="DS260" s="23"/>
     </row>
-    <row r="261" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B261" s="23"/>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
@@ -36616,8 +37708,11 @@
       <c r="DN261" s="23"/>
       <c r="DO261" s="23"/>
       <c r="DP261" s="23"/>
+      <c r="DQ261" s="23"/>
+      <c r="DR261" s="23"/>
+      <c r="DS261" s="23"/>
     </row>
-    <row r="262" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B262" s="23"/>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
@@ -36737,8 +37832,11 @@
       <c r="DN262" s="23"/>
       <c r="DO262" s="23"/>
       <c r="DP262" s="23"/>
+      <c r="DQ262" s="23"/>
+      <c r="DR262" s="23"/>
+      <c r="DS262" s="23"/>
     </row>
-    <row r="263" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B263" s="23"/>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
@@ -36858,8 +37956,11 @@
       <c r="DN263" s="23"/>
       <c r="DO263" s="23"/>
       <c r="DP263" s="23"/>
+      <c r="DQ263" s="23"/>
+      <c r="DR263" s="23"/>
+      <c r="DS263" s="23"/>
     </row>
-    <row r="264" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B264" s="23"/>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
@@ -36979,8 +38080,11 @@
       <c r="DN264" s="23"/>
       <c r="DO264" s="23"/>
       <c r="DP264" s="23"/>
+      <c r="DQ264" s="23"/>
+      <c r="DR264" s="23"/>
+      <c r="DS264" s="23"/>
     </row>
-    <row r="265" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B265" s="23"/>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
@@ -37100,8 +38204,11 @@
       <c r="DN265" s="23"/>
       <c r="DO265" s="23"/>
       <c r="DP265" s="23"/>
+      <c r="DQ265" s="23"/>
+      <c r="DR265" s="23"/>
+      <c r="DS265" s="23"/>
     </row>
-    <row r="266" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B266" s="23"/>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
@@ -37221,8 +38328,11 @@
       <c r="DN266" s="23"/>
       <c r="DO266" s="23"/>
       <c r="DP266" s="23"/>
+      <c r="DQ266" s="23"/>
+      <c r="DR266" s="23"/>
+      <c r="DS266" s="23"/>
     </row>
-    <row r="267" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
@@ -37342,8 +38452,11 @@
       <c r="DN267" s="23"/>
       <c r="DO267" s="23"/>
       <c r="DP267" s="23"/>
+      <c r="DQ267" s="23"/>
+      <c r="DR267" s="23"/>
+      <c r="DS267" s="23"/>
     </row>
-    <row r="268" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B268" s="23"/>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
@@ -37463,8 +38576,11 @@
       <c r="DN268" s="23"/>
       <c r="DO268" s="23"/>
       <c r="DP268" s="23"/>
+      <c r="DQ268" s="23"/>
+      <c r="DR268" s="23"/>
+      <c r="DS268" s="23"/>
     </row>
-    <row r="269" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B269" s="23"/>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
@@ -37584,8 +38700,11 @@
       <c r="DN269" s="23"/>
       <c r="DO269" s="23"/>
       <c r="DP269" s="23"/>
+      <c r="DQ269" s="23"/>
+      <c r="DR269" s="23"/>
+      <c r="DS269" s="23"/>
     </row>
-    <row r="270" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B270" s="23"/>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
@@ -37705,8 +38824,11 @@
       <c r="DN270" s="23"/>
       <c r="DO270" s="23"/>
       <c r="DP270" s="23"/>
+      <c r="DQ270" s="23"/>
+      <c r="DR270" s="23"/>
+      <c r="DS270" s="23"/>
     </row>
-    <row r="271" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B271" s="23"/>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
@@ -37826,8 +38948,11 @@
       <c r="DN271" s="23"/>
       <c r="DO271" s="23"/>
       <c r="DP271" s="23"/>
+      <c r="DQ271" s="23"/>
+      <c r="DR271" s="23"/>
+      <c r="DS271" s="23"/>
     </row>
-    <row r="272" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B272" s="23"/>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
@@ -37947,8 +39072,11 @@
       <c r="DN272" s="23"/>
       <c r="DO272" s="23"/>
       <c r="DP272" s="23"/>
+      <c r="DQ272" s="23"/>
+      <c r="DR272" s="23"/>
+      <c r="DS272" s="23"/>
     </row>
-    <row r="273" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B273" s="23"/>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
@@ -38068,8 +39196,11 @@
       <c r="DN273" s="23"/>
       <c r="DO273" s="23"/>
       <c r="DP273" s="23"/>
+      <c r="DQ273" s="23"/>
+      <c r="DR273" s="23"/>
+      <c r="DS273" s="23"/>
     </row>
-    <row r="274" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B274" s="23"/>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
@@ -38189,8 +39320,11 @@
       <c r="DN274" s="23"/>
       <c r="DO274" s="23"/>
       <c r="DP274" s="23"/>
+      <c r="DQ274" s="23"/>
+      <c r="DR274" s="23"/>
+      <c r="DS274" s="23"/>
     </row>
-    <row r="275" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B275" s="23"/>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -38310,8 +39444,11 @@
       <c r="DN275" s="23"/>
       <c r="DO275" s="23"/>
       <c r="DP275" s="23"/>
+      <c r="DQ275" s="23"/>
+      <c r="DR275" s="23"/>
+      <c r="DS275" s="23"/>
     </row>
-    <row r="276" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B276" s="23"/>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
@@ -38431,8 +39568,11 @@
       <c r="DN276" s="23"/>
       <c r="DO276" s="23"/>
       <c r="DP276" s="23"/>
+      <c r="DQ276" s="23"/>
+      <c r="DR276" s="23"/>
+      <c r="DS276" s="23"/>
     </row>
-    <row r="277" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B277" s="23"/>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
@@ -38552,8 +39692,11 @@
       <c r="DN277" s="23"/>
       <c r="DO277" s="23"/>
       <c r="DP277" s="23"/>
+      <c r="DQ277" s="23"/>
+      <c r="DR277" s="23"/>
+      <c r="DS277" s="23"/>
     </row>
-    <row r="278" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B278" s="23"/>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
@@ -38673,8 +39816,11 @@
       <c r="DN278" s="23"/>
       <c r="DO278" s="23"/>
       <c r="DP278" s="23"/>
+      <c r="DQ278" s="23"/>
+      <c r="DR278" s="23"/>
+      <c r="DS278" s="23"/>
     </row>
-    <row r="279" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
@@ -38794,8 +39940,11 @@
       <c r="DN279" s="23"/>
       <c r="DO279" s="23"/>
       <c r="DP279" s="23"/>
+      <c r="DQ279" s="23"/>
+      <c r="DR279" s="23"/>
+      <c r="DS279" s="23"/>
     </row>
-    <row r="280" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B280" s="23"/>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
@@ -38915,8 +40064,11 @@
       <c r="DN280" s="23"/>
       <c r="DO280" s="23"/>
       <c r="DP280" s="23"/>
+      <c r="DQ280" s="23"/>
+      <c r="DR280" s="23"/>
+      <c r="DS280" s="23"/>
     </row>
-    <row r="281" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B281" s="23"/>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
@@ -39036,8 +40188,11 @@
       <c r="DN281" s="23"/>
       <c r="DO281" s="23"/>
       <c r="DP281" s="23"/>
+      <c r="DQ281" s="23"/>
+      <c r="DR281" s="23"/>
+      <c r="DS281" s="23"/>
     </row>
-    <row r="282" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B282" s="23"/>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
@@ -39157,8 +40312,11 @@
       <c r="DN282" s="23"/>
       <c r="DO282" s="23"/>
       <c r="DP282" s="23"/>
+      <c r="DQ282" s="23"/>
+      <c r="DR282" s="23"/>
+      <c r="DS282" s="23"/>
     </row>
-    <row r="283" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B283" s="23"/>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
@@ -39278,8 +40436,11 @@
       <c r="DN283" s="23"/>
       <c r="DO283" s="23"/>
       <c r="DP283" s="23"/>
+      <c r="DQ283" s="23"/>
+      <c r="DR283" s="23"/>
+      <c r="DS283" s="23"/>
     </row>
-    <row r="284" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B284" s="23"/>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
@@ -39399,8 +40560,11 @@
       <c r="DN284" s="23"/>
       <c r="DO284" s="23"/>
       <c r="DP284" s="23"/>
+      <c r="DQ284" s="23"/>
+      <c r="DR284" s="23"/>
+      <c r="DS284" s="23"/>
     </row>
-    <row r="285" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B285" s="23"/>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
@@ -39520,8 +40684,11 @@
       <c r="DN285" s="23"/>
       <c r="DO285" s="23"/>
       <c r="DP285" s="23"/>
+      <c r="DQ285" s="23"/>
+      <c r="DR285" s="23"/>
+      <c r="DS285" s="23"/>
     </row>
-    <row r="286" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B286" s="23"/>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
@@ -39641,8 +40808,11 @@
       <c r="DN286" s="23"/>
       <c r="DO286" s="23"/>
       <c r="DP286" s="23"/>
+      <c r="DQ286" s="23"/>
+      <c r="DR286" s="23"/>
+      <c r="DS286" s="23"/>
     </row>
-    <row r="287" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B287" s="23"/>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
@@ -39762,8 +40932,11 @@
       <c r="DN287" s="23"/>
       <c r="DO287" s="23"/>
       <c r="DP287" s="23"/>
+      <c r="DQ287" s="23"/>
+      <c r="DR287" s="23"/>
+      <c r="DS287" s="23"/>
     </row>
-    <row r="288" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B288" s="23"/>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
@@ -39883,8 +41056,11 @@
       <c r="DN288" s="23"/>
       <c r="DO288" s="23"/>
       <c r="DP288" s="23"/>
+      <c r="DQ288" s="23"/>
+      <c r="DR288" s="23"/>
+      <c r="DS288" s="23"/>
     </row>
-    <row r="289" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B289" s="23"/>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
@@ -40004,8 +41180,11 @@
       <c r="DN289" s="23"/>
       <c r="DO289" s="23"/>
       <c r="DP289" s="23"/>
+      <c r="DQ289" s="23"/>
+      <c r="DR289" s="23"/>
+      <c r="DS289" s="23"/>
     </row>
-    <row r="290" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B290" s="23"/>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
@@ -40125,8 +41304,11 @@
       <c r="DN290" s="23"/>
       <c r="DO290" s="23"/>
       <c r="DP290" s="23"/>
+      <c r="DQ290" s="23"/>
+      <c r="DR290" s="23"/>
+      <c r="DS290" s="23"/>
     </row>
-    <row r="291" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B291" s="23"/>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
@@ -40246,8 +41428,11 @@
       <c r="DN291" s="23"/>
       <c r="DO291" s="23"/>
       <c r="DP291" s="23"/>
+      <c r="DQ291" s="23"/>
+      <c r="DR291" s="23"/>
+      <c r="DS291" s="23"/>
     </row>
-    <row r="292" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B292" s="23"/>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
@@ -40367,8 +41552,11 @@
       <c r="DN292" s="23"/>
       <c r="DO292" s="23"/>
       <c r="DP292" s="23"/>
+      <c r="DQ292" s="23"/>
+      <c r="DR292" s="23"/>
+      <c r="DS292" s="23"/>
     </row>
-    <row r="293" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B293" s="23"/>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
@@ -40488,8 +41676,11 @@
       <c r="DN293" s="23"/>
       <c r="DO293" s="23"/>
       <c r="DP293" s="23"/>
+      <c r="DQ293" s="23"/>
+      <c r="DR293" s="23"/>
+      <c r="DS293" s="23"/>
     </row>
-    <row r="294" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B294" s="23"/>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
@@ -40609,8 +41800,11 @@
       <c r="DN294" s="23"/>
       <c r="DO294" s="23"/>
       <c r="DP294" s="23"/>
+      <c r="DQ294" s="23"/>
+      <c r="DR294" s="23"/>
+      <c r="DS294" s="23"/>
     </row>
-    <row r="295" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B295" s="23"/>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
@@ -40730,8 +41924,11 @@
       <c r="DN295" s="23"/>
       <c r="DO295" s="23"/>
       <c r="DP295" s="23"/>
+      <c r="DQ295" s="23"/>
+      <c r="DR295" s="23"/>
+      <c r="DS295" s="23"/>
     </row>
-    <row r="296" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B296" s="23"/>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
@@ -40851,8 +42048,11 @@
       <c r="DN296" s="23"/>
       <c r="DO296" s="23"/>
       <c r="DP296" s="23"/>
+      <c r="DQ296" s="23"/>
+      <c r="DR296" s="23"/>
+      <c r="DS296" s="23"/>
     </row>
-    <row r="297" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B297" s="23"/>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
@@ -40972,8 +42172,11 @@
       <c r="DN297" s="23"/>
       <c r="DO297" s="23"/>
       <c r="DP297" s="23"/>
+      <c r="DQ297" s="23"/>
+      <c r="DR297" s="23"/>
+      <c r="DS297" s="23"/>
     </row>
-    <row r="298" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B298" s="23"/>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
@@ -41093,8 +42296,11 @@
       <c r="DN298" s="23"/>
       <c r="DO298" s="23"/>
       <c r="DP298" s="23"/>
+      <c r="DQ298" s="23"/>
+      <c r="DR298" s="23"/>
+      <c r="DS298" s="23"/>
     </row>
-    <row r="299" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B299" s="23"/>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
@@ -41214,8 +42420,11 @@
       <c r="DN299" s="23"/>
       <c r="DO299" s="23"/>
       <c r="DP299" s="23"/>
+      <c r="DQ299" s="23"/>
+      <c r="DR299" s="23"/>
+      <c r="DS299" s="23"/>
     </row>
-    <row r="300" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B300" s="23"/>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
@@ -41335,8 +42544,11 @@
       <c r="DN300" s="23"/>
       <c r="DO300" s="23"/>
       <c r="DP300" s="23"/>
+      <c r="DQ300" s="23"/>
+      <c r="DR300" s="23"/>
+      <c r="DS300" s="23"/>
     </row>
-    <row r="301" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B301" s="23"/>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
@@ -41456,8 +42668,11 @@
       <c r="DN301" s="23"/>
       <c r="DO301" s="23"/>
       <c r="DP301" s="23"/>
+      <c r="DQ301" s="23"/>
+      <c r="DR301" s="23"/>
+      <c r="DS301" s="23"/>
     </row>
-    <row r="302" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B302" s="23"/>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
@@ -41577,8 +42792,11 @@
       <c r="DN302" s="23"/>
       <c r="DO302" s="23"/>
       <c r="DP302" s="23"/>
+      <c r="DQ302" s="23"/>
+      <c r="DR302" s="23"/>
+      <c r="DS302" s="23"/>
     </row>
-    <row r="303" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B303" s="23"/>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
@@ -41698,8 +42916,11 @@
       <c r="DN303" s="23"/>
       <c r="DO303" s="23"/>
       <c r="DP303" s="23"/>
+      <c r="DQ303" s="23"/>
+      <c r="DR303" s="23"/>
+      <c r="DS303" s="23"/>
     </row>
-    <row r="304" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B304" s="23"/>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
@@ -41819,8 +43040,11 @@
       <c r="DN304" s="23"/>
       <c r="DO304" s="23"/>
       <c r="DP304" s="23"/>
+      <c r="DQ304" s="23"/>
+      <c r="DR304" s="23"/>
+      <c r="DS304" s="23"/>
     </row>
-    <row r="305" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B305" s="23"/>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
@@ -41940,8 +43164,11 @@
       <c r="DN305" s="23"/>
       <c r="DO305" s="23"/>
       <c r="DP305" s="23"/>
+      <c r="DQ305" s="23"/>
+      <c r="DR305" s="23"/>
+      <c r="DS305" s="23"/>
     </row>
-    <row r="306" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B306" s="23"/>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
@@ -42061,8 +43288,11 @@
       <c r="DN306" s="23"/>
       <c r="DO306" s="23"/>
       <c r="DP306" s="23"/>
+      <c r="DQ306" s="23"/>
+      <c r="DR306" s="23"/>
+      <c r="DS306" s="23"/>
     </row>
-    <row r="307" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B307" s="23"/>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
@@ -42182,8 +43412,11 @@
       <c r="DN307" s="23"/>
       <c r="DO307" s="23"/>
       <c r="DP307" s="23"/>
+      <c r="DQ307" s="23"/>
+      <c r="DR307" s="23"/>
+      <c r="DS307" s="23"/>
     </row>
-    <row r="308" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B308" s="23"/>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
@@ -42303,8 +43536,11 @@
       <c r="DN308" s="23"/>
       <c r="DO308" s="23"/>
       <c r="DP308" s="23"/>
+      <c r="DQ308" s="23"/>
+      <c r="DR308" s="23"/>
+      <c r="DS308" s="23"/>
     </row>
-    <row r="309" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B309" s="23"/>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
@@ -42424,8 +43660,11 @@
       <c r="DN309" s="23"/>
       <c r="DO309" s="23"/>
       <c r="DP309" s="23"/>
+      <c r="DQ309" s="23"/>
+      <c r="DR309" s="23"/>
+      <c r="DS309" s="23"/>
     </row>
-    <row r="310" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B310" s="23"/>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
@@ -42545,8 +43784,11 @@
       <c r="DN310" s="23"/>
       <c r="DO310" s="23"/>
       <c r="DP310" s="23"/>
+      <c r="DQ310" s="23"/>
+      <c r="DR310" s="23"/>
+      <c r="DS310" s="23"/>
     </row>
-    <row r="311" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B311" s="23"/>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
@@ -42666,8 +43908,11 @@
       <c r="DN311" s="23"/>
       <c r="DO311" s="23"/>
       <c r="DP311" s="23"/>
+      <c r="DQ311" s="23"/>
+      <c r="DR311" s="23"/>
+      <c r="DS311" s="23"/>
     </row>
-    <row r="312" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B312" s="23"/>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
@@ -42787,8 +44032,11 @@
       <c r="DN312" s="23"/>
       <c r="DO312" s="23"/>
       <c r="DP312" s="23"/>
+      <c r="DQ312" s="23"/>
+      <c r="DR312" s="23"/>
+      <c r="DS312" s="23"/>
     </row>
-    <row r="313" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B313" s="23"/>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
@@ -42908,8 +44156,11 @@
       <c r="DN313" s="23"/>
       <c r="DO313" s="23"/>
       <c r="DP313" s="23"/>
+      <c r="DQ313" s="23"/>
+      <c r="DR313" s="23"/>
+      <c r="DS313" s="23"/>
     </row>
-    <row r="314" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B314" s="23"/>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
@@ -43029,8 +44280,11 @@
       <c r="DN314" s="23"/>
       <c r="DO314" s="23"/>
       <c r="DP314" s="23"/>
+      <c r="DQ314" s="23"/>
+      <c r="DR314" s="23"/>
+      <c r="DS314" s="23"/>
     </row>
-    <row r="315" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B315" s="23"/>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
@@ -43150,8 +44404,11 @@
       <c r="DN315" s="23"/>
       <c r="DO315" s="23"/>
       <c r="DP315" s="23"/>
+      <c r="DQ315" s="23"/>
+      <c r="DR315" s="23"/>
+      <c r="DS315" s="23"/>
     </row>
-    <row r="316" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B316" s="23"/>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
@@ -43271,8 +44528,11 @@
       <c r="DN316" s="23"/>
       <c r="DO316" s="23"/>
       <c r="DP316" s="23"/>
+      <c r="DQ316" s="23"/>
+      <c r="DR316" s="23"/>
+      <c r="DS316" s="23"/>
     </row>
-    <row r="317" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B317" s="23"/>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
@@ -43392,8 +44652,11 @@
       <c r="DN317" s="23"/>
       <c r="DO317" s="23"/>
       <c r="DP317" s="23"/>
+      <c r="DQ317" s="23"/>
+      <c r="DR317" s="23"/>
+      <c r="DS317" s="23"/>
     </row>
-    <row r="318" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B318" s="23"/>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
@@ -43513,8 +44776,11 @@
       <c r="DN318" s="23"/>
       <c r="DO318" s="23"/>
       <c r="DP318" s="23"/>
+      <c r="DQ318" s="23"/>
+      <c r="DR318" s="23"/>
+      <c r="DS318" s="23"/>
     </row>
-    <row r="319" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B319" s="23"/>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
@@ -43634,8 +44900,11 @@
       <c r="DN319" s="23"/>
       <c r="DO319" s="23"/>
       <c r="DP319" s="23"/>
+      <c r="DQ319" s="23"/>
+      <c r="DR319" s="23"/>
+      <c r="DS319" s="23"/>
     </row>
-    <row r="320" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B320" s="23"/>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
@@ -43755,8 +45024,11 @@
       <c r="DN320" s="23"/>
       <c r="DO320" s="23"/>
       <c r="DP320" s="23"/>
+      <c r="DQ320" s="23"/>
+      <c r="DR320" s="23"/>
+      <c r="DS320" s="23"/>
     </row>
-    <row r="321" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B321" s="23"/>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
@@ -43876,8 +45148,11 @@
       <c r="DN321" s="23"/>
       <c r="DO321" s="23"/>
       <c r="DP321" s="23"/>
+      <c r="DQ321" s="23"/>
+      <c r="DR321" s="23"/>
+      <c r="DS321" s="23"/>
     </row>
-    <row r="322" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B322" s="23"/>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
@@ -43997,18 +45272,268 @@
       <c r="DN322" s="23"/>
       <c r="DO322" s="23"/>
       <c r="DP322" s="23"/>
+      <c r="DQ322" s="23"/>
+      <c r="DR322" s="23"/>
+      <c r="DS322" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0504599E-4A73-3C4D-826F-5EC1313BEEC8}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="35"/>
+      <c r="C1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="44">
+        <f>analysis!$G2-bs!AX43</f>
+        <v>1.4316174201667309E-7</v>
+      </c>
+      <c r="D2" s="37">
+        <f>analysis!$G2-bs!AY43</f>
+        <v>12557.648763037221</v>
+      </c>
+      <c r="E2" s="37">
+        <f>analysis!$G2-bs!AZ43</f>
+        <v>4411.3517280927845</v>
+      </c>
+      <c r="G2" s="18">
+        <f>bs!AZ47</f>
+        <v>63111.359661199131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="39">
+        <f>analysis!$G3-bs!BA43</f>
+        <v>3082.5820548112824</v>
+      </c>
+      <c r="D3" s="39">
+        <f>analysis!$G3-bs!BB43</f>
+        <v>17263.75629378602</v>
+      </c>
+      <c r="E3" s="45">
+        <f>analysis!$G3-bs!BC43</f>
+        <v>1.5657860785722733E-7</v>
+      </c>
+      <c r="G3" s="18">
+        <f>G2+bs!AZ48</f>
+        <v>74353.343382091276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="45">
+        <f>analysis!$G4-bs!BD43</f>
+        <v>9.3480048235505819E-7</v>
+      </c>
+      <c r="D4" s="39">
+        <f>analysis!$G4-bs!BE43</f>
+        <v>16345.874874683752</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="G4" s="18">
+        <f>G3+bs!AZ49</f>
+        <v>82149.963549846783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="46">
+        <f>analysis!$G5-bs!BF43</f>
+        <v>4.4530315790325403E-7</v>
+      </c>
+      <c r="D5" s="41">
+        <f>analysis!$G5-bs!BG43</f>
+        <v>25004.67741329108</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="G5" s="18">
+        <f>G4+bs!AZ50</f>
+        <v>125666.7724358853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="35"/>
+      <c r="C10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="49">
+        <f>G11-bs!J45</f>
+        <v>54000</v>
+      </c>
+      <c r="D11" s="49">
+        <f>G11-bs!J46</f>
+        <v>54000</v>
+      </c>
+      <c r="E11" s="49">
+        <f>G11-bs!J47</f>
+        <v>54000</v>
+      </c>
+      <c r="G11" s="18">
+        <f>bs!C38</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="50">
+        <f>G12-bs!K45</f>
+        <v>62000</v>
+      </c>
+      <c r="D12" s="50">
+        <f>G12-bs!K46</f>
+        <v>62000</v>
+      </c>
+      <c r="E12" s="52">
+        <f>G12-bs!K47</f>
+        <v>62000</v>
+      </c>
+      <c r="G12" s="18">
+        <f>G11+bs!C39</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="50">
+        <f>G13-bs!L45</f>
+        <v>73000</v>
+      </c>
+      <c r="D13" s="50">
+        <f>G13-bs!L46</f>
+        <v>73000</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="G13" s="18">
+        <f>G12+bs!C40</f>
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="51">
+        <f>G14-bs!M45</f>
+        <v>116000</v>
+      </c>
+      <c r="D14" s="51">
+        <f>G14-bs!M46</f>
+        <v>116000</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="G14" s="18">
+        <f>G13+bs!C41</f>
+        <v>116000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:E3 C4:D5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="&quot;C2&lt;1&quot;"/>
+        <cfvo type="formula" val="&quot;C2&gt;=1&quot;"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E12 C13:D14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="&quot;C2&lt;1&quot;"/>
+        <cfvo type="formula" val="&quot;C2&gt;=1&quot;"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06FEFEE-149B-214C-ABE9-E743635185BD}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44092,16 +45617,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C0FE4-0129-D249-9D4A-10F8B4AEA427}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44214,16 +45738,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDF4E-E344-294A-82E8-B37F6FD91CDB}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -46314,5 +47837,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>